--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C68D61-B2D7-45E9-8E74-62D21972F9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E09662-A9B4-4AFA-939A-588FE997C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="-16440" windowWidth="20745" windowHeight="11265" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="14290" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5481" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="1485">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -4719,6 +4719,9 @@
   </si>
   <si>
     <t>sssom:reviewer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   crosswalk: https://w3id.org/env/neap/crosswalk/</t>
   </si>
 </sst>
 </file>
@@ -23565,10 +23568,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CB4D65-9DAF-4373-8A3E-AE42C6AE42AD}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23618,22 +23621,27 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="171" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="170" t="s">
         <v>1067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="151" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="151" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="151" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23645,8 +23653,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N4" sqref="N4:N189"/>
     </sheetView>
   </sheetViews>

--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E09662-A9B4-4AFA-939A-588FE997C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{34E09662-A9B4-4AFA-939A-588FE997C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{977B9544-0CB5-476F-8821-8003CFDEFFE5}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="14290" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="34560" windowHeight="13752" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="management" sheetId="10" r:id="rId5"/>
     <sheet name="ALUM_V8_vertical with IUCN" sheetId="11" r:id="rId6"/>
     <sheet name="header" sheetId="15" r:id="rId7"/>
-    <sheet name="SSSOM" sheetId="14" r:id="rId8"/>
-    <sheet name="CHANGE_LOG" sheetId="16" r:id="rId9"/>
+    <sheet name="OldHeaderStuff" sheetId="17" r:id="rId8"/>
+    <sheet name="SSSOM" sheetId="14" r:id="rId9"/>
+    <sheet name="CHANGE_LOG" sheetId="16" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">commodities!$A$2:$F$268</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="1486">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -4722,6 +4723,9 @@
   </si>
   <si>
     <t xml:space="preserve">   crosswalk: https://w3id.org/env/neap/crosswalk/</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -5412,7 +5416,7 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5721,6 +5725,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5751,12 +5761,7 @@
     <xf numFmtId="0" fontId="30" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -6148,30 +6153,30 @@
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.28515625" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="44.33203125" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" customWidth="1"/>
-    <col min="15" max="15" width="46.42578125" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="44.28515625" customWidth="1"/>
-    <col min="19" max="19" width="1.42578125" customWidth="1"/>
+    <col min="15" max="15" width="46.44140625" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="44.33203125" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -6195,30 +6200,30 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="164" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -6238,7 +6243,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:25" s="95" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="95" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91"/>
       <c r="B4" s="92" t="s">
         <v>211</v>
@@ -6283,7 +6288,7 @@
       </c>
       <c r="S4" s="91"/>
     </row>
-    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="60"/>
       <c r="C5" s="59"/>
@@ -6308,7 +6313,7 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="61" t="s">
         <v>360</v>
@@ -6357,7 +6362,7 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
     </row>
-    <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="65" t="s">
         <v>54</v>
@@ -6402,7 +6407,7 @@
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="65" t="s">
         <v>56</v>
@@ -6451,7 +6456,7 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
     </row>
-    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="65" t="s">
         <v>58</v>
@@ -6500,7 +6505,7 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
     </row>
-    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="65" t="s">
         <v>60</v>
@@ -6549,7 +6554,7 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
     </row>
-    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="65" t="s">
         <v>62</v>
@@ -6582,7 +6587,7 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
     </row>
-    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="65" t="s">
         <v>64</v>
@@ -6623,7 +6628,7 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="71" t="s">
         <v>66</v>
@@ -6668,7 +6673,7 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
     </row>
-    <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="60"/>
       <c r="C14" s="59"/>
@@ -6709,7 +6714,7 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
     </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="61" t="s">
         <v>361</v>
@@ -6754,7 +6759,7 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
     </row>
-    <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="65" t="s">
         <v>69</v>
@@ -6795,7 +6800,7 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="65" t="s">
         <v>71</v>
@@ -6836,7 +6841,7 @@
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="65" t="s">
         <v>73</v>
@@ -6877,7 +6882,7 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="65" t="s">
         <v>75</v>
@@ -6922,7 +6927,7 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="71" t="s">
         <v>77</v>
@@ -6967,7 +6972,7 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="60"/>
       <c r="C21" s="59"/>
@@ -7004,7 +7009,7 @@
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="61" t="s">
         <v>362</v>
@@ -7045,7 +7050,7 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="65" t="s">
         <v>79</v>
@@ -7090,7 +7095,7 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="65" t="s">
         <v>80</v>
@@ -7135,7 +7140,7 @@
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="65" t="s">
         <v>82</v>
@@ -7180,7 +7185,7 @@
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="71" t="s">
         <v>83</v>
@@ -7221,7 +7226,7 @@
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
     </row>
-    <row r="27" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="60"/>
       <c r="C27" s="59"/>
@@ -7262,7 +7267,7 @@
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="60"/>
       <c r="C28" s="59"/>
@@ -7295,7 +7300,7 @@
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="60"/>
       <c r="C29" s="59"/>
@@ -7336,7 +7341,7 @@
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="60"/>
       <c r="C30" s="59"/>
@@ -7377,7 +7382,7 @@
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="60"/>
       <c r="C31" s="59"/>
@@ -7418,7 +7423,7 @@
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
     </row>
-    <row r="32" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="60"/>
       <c r="C32" s="59"/>
@@ -7451,7 +7456,7 @@
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="60"/>
       <c r="C33" s="59"/>
@@ -7492,7 +7497,7 @@
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="60"/>
       <c r="C34" s="59"/>
@@ -7533,7 +7538,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="60"/>
       <c r="C35" s="74" t="s">
@@ -7576,7 +7581,7 @@
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="60"/>
       <c r="C36" s="75"/>
@@ -7617,7 +7622,7 @@
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="60"/>
       <c r="C37" s="59"/>
@@ -7654,7 +7659,7 @@
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="60"/>
       <c r="C38" s="59"/>
@@ -7691,7 +7696,7 @@
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="60"/>
       <c r="C39" s="59"/>
@@ -7716,7 +7721,7 @@
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="60"/>
       <c r="C40" s="75"/>
@@ -7753,7 +7758,7 @@
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
     </row>
-    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="60"/>
       <c r="C41" s="59"/>
@@ -7790,7 +7795,7 @@
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="60"/>
       <c r="C42" s="59"/>
@@ -7827,7 +7832,7 @@
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="60"/>
       <c r="C43" s="59"/>
@@ -7864,7 +7869,7 @@
       <c r="V43" s="14"/>
       <c r="W43" s="14"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="60"/>
       <c r="C44" s="59"/>
@@ -7897,7 +7902,7 @@
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="60"/>
       <c r="C45" s="59"/>
@@ -7930,7 +7935,7 @@
       <c r="V45" s="14"/>
       <c r="W45" s="14"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="60"/>
       <c r="C46" s="59"/>
@@ -7963,7 +7968,7 @@
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="60"/>
       <c r="C47" s="59"/>
@@ -8000,7 +8005,7 @@
       <c r="V47" s="14"/>
       <c r="W47" s="14"/>
     </row>
-    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="60"/>
       <c r="C48" s="59"/>
@@ -8037,7 +8042,7 @@
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="60"/>
       <c r="C49" s="59"/>
@@ -8074,7 +8079,7 @@
       <c r="V49" s="14"/>
       <c r="W49" s="14"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="60"/>
       <c r="C50" s="59"/>
@@ -8113,7 +8118,7 @@
       <c r="V50" s="14"/>
       <c r="W50" s="14"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="60"/>
       <c r="C51" s="59"/>
@@ -8146,7 +8151,7 @@
       <c r="V51" s="14"/>
       <c r="W51" s="14"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="60"/>
       <c r="C52" s="59"/>
@@ -8175,7 +8180,7 @@
       <c r="V52" s="14"/>
       <c r="W52" s="14"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="60"/>
       <c r="C53" s="59"/>
@@ -8204,7 +8209,7 @@
       <c r="V53" s="14"/>
       <c r="W53" s="14"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="60"/>
       <c r="C54" s="59"/>
@@ -8233,7 +8238,7 @@
       <c r="V54" s="14"/>
       <c r="W54" s="14"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="60"/>
       <c r="C55" s="59"/>
@@ -8258,7 +8263,7 @@
       <c r="V55" s="14"/>
       <c r="W55" s="14"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="60"/>
       <c r="C56" s="59"/>
@@ -8287,7 +8292,7 @@
       <c r="V56" s="14"/>
       <c r="W56" s="14"/>
     </row>
-    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="60"/>
       <c r="C57" s="59"/>
@@ -8316,7 +8321,7 @@
       <c r="V57" s="14"/>
       <c r="W57" s="14"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="60"/>
       <c r="C58" s="59"/>
@@ -8345,7 +8350,7 @@
       <c r="V58" s="14"/>
       <c r="W58" s="14"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="60"/>
       <c r="C59" s="59"/>
@@ -8374,7 +8379,7 @@
       <c r="V59" s="14"/>
       <c r="W59" s="14"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="60"/>
       <c r="C60" s="59"/>
@@ -8403,7 +8408,7 @@
       <c r="V60" s="14"/>
       <c r="W60" s="14"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="60"/>
       <c r="C61" s="59"/>
@@ -8432,7 +8437,7 @@
       <c r="V61" s="14"/>
       <c r="W61" s="14"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="60"/>
       <c r="C62" s="59"/>
@@ -8457,7 +8462,7 @@
       <c r="V62" s="14"/>
       <c r="W62" s="14"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="60"/>
       <c r="C63" s="77"/>
@@ -8486,7 +8491,7 @@
       <c r="V63" s="14"/>
       <c r="W63" s="14"/>
     </row>
-    <row r="64" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="60"/>
       <c r="C64" s="77"/>
@@ -8515,7 +8520,7 @@
       <c r="V64" s="14"/>
       <c r="W64" s="14"/>
     </row>
-    <row r="65" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="77"/>
       <c r="C65" s="77"/>
@@ -8544,7 +8549,7 @@
       <c r="V65" s="14"/>
       <c r="W65" s="14"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="77"/>
       <c r="C66" s="77"/>
@@ -8573,7 +8578,7 @@
       <c r="V66" s="14"/>
       <c r="W66" s="14"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="77"/>
       <c r="C67" s="77"/>
@@ -8602,7 +8607,7 @@
       <c r="V67" s="14"/>
       <c r="W67" s="14"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="83"/>
       <c r="C68" s="77"/>
@@ -8627,7 +8632,7 @@
       <c r="V68" s="14"/>
       <c r="W68" s="14"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="83"/>
       <c r="C69" s="59"/>
@@ -8656,7 +8661,7 @@
       <c r="V69" s="14"/>
       <c r="W69" s="14"/>
     </row>
-    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="83"/>
       <c r="C70" s="59"/>
@@ -8685,7 +8690,7 @@
       <c r="V70" s="14"/>
       <c r="W70" s="14"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="60"/>
       <c r="C71" s="59"/>
@@ -8714,7 +8719,7 @@
       <c r="V71" s="14"/>
       <c r="W71" s="14"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="60"/>
       <c r="C72" s="78"/>
@@ -8743,7 +8748,7 @@
       <c r="V72" s="14"/>
       <c r="W72" s="14"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="60"/>
       <c r="C73" s="59"/>
@@ -8772,7 +8777,7 @@
       <c r="V73" s="14"/>
       <c r="W73" s="14"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="60"/>
       <c r="C74" s="86"/>
@@ -8797,7 +8802,7 @@
       <c r="R74" s="59"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:23" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="60"/>
       <c r="C75" s="86"/>
@@ -8818,7 +8823,7 @@
       <c r="R75" s="59"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
       <c r="B76" s="87"/>
       <c r="C76" s="86"/>
@@ -8837,7 +8842,7 @@
       <c r="R76" s="86"/>
       <c r="S76" s="55"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="55"/>
       <c r="B77" s="56"/>
       <c r="D77" s="55"/>
@@ -8855,7 +8860,7 @@
       <c r="R77" s="55"/>
       <c r="S77" s="55"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="55"/>
       <c r="B78" s="56"/>
       <c r="D78" s="55"/>
@@ -8876,6 +8881,110 @@
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="8" scale="58" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655D2789-1FB8-4FE0-B6BE-798F6232EAF5}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="152">
+        <v>45436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="152">
+        <v>45436</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="152">
+        <v>45436</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="152">
+        <v>45436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="152">
+        <v>45436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8890,31 +8999,31 @@
       <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="35.85546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="36.42578125" style="14" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" style="14" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="48" customWidth="1"/>
-    <col min="15" max="15" width="36.28515625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="14" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.5703125" style="14" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" style="14" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="3.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="48" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="36.44140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" style="48" customWidth="1"/>
+    <col min="15" max="15" width="36.33203125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.5546875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" style="14" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="15"/>
@@ -8938,7 +9047,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="18"/>
       <c r="C2" s="20"/>
@@ -8961,7 +9070,7 @@
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
     </row>
-    <row r="3" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
       <c r="C3" s="20"/>
@@ -9027,7 +9136,7 @@
       </c>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="24"/>
       <c r="C5" s="22"/>
@@ -9048,7 +9157,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="25" t="s">
         <v>360</v>
@@ -9093,7 +9202,7 @@
       </c>
       <c r="S6" s="27"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="31" t="s">
         <v>54</v>
@@ -9134,7 +9243,7 @@
       </c>
       <c r="S7" s="33"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="31" t="s">
         <v>56</v>
@@ -9179,7 +9288,7 @@
       </c>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="31" t="s">
         <v>58</v>
@@ -9224,7 +9333,7 @@
       </c>
       <c r="S9" s="33"/>
     </row>
-    <row r="10" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="31" t="s">
         <v>60</v>
@@ -9269,7 +9378,7 @@
       </c>
       <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="31" t="s">
         <v>62</v>
@@ -9294,7 +9403,7 @@
       <c r="R11" s="13"/>
       <c r="S11" s="33"/>
     </row>
-    <row r="12" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="31" t="s">
         <v>64</v>
@@ -9335,7 +9444,7 @@
       </c>
       <c r="S12" s="27"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="39" t="s">
         <v>66</v>
@@ -9376,7 +9485,7 @@
       </c>
       <c r="S13" s="33"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -9413,7 +9522,7 @@
       </c>
       <c r="S14" s="33"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="25" t="s">
         <v>361</v>
@@ -9454,7 +9563,7 @@
       </c>
       <c r="S15" s="33"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="31" t="s">
         <v>69</v>
@@ -9491,7 +9600,7 @@
       <c r="R16" s="13"/>
       <c r="S16" s="33"/>
     </row>
-    <row r="17" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="31" t="s">
         <v>71</v>
@@ -9528,7 +9637,7 @@
       </c>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="31" t="s">
         <v>73</v>
@@ -9565,7 +9674,7 @@
       </c>
       <c r="S18" s="33"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="31" t="s">
         <v>75</v>
@@ -9606,7 +9715,7 @@
       </c>
       <c r="S19" s="33"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="39" t="s">
         <v>77</v>
@@ -9647,7 +9756,7 @@
       </c>
       <c r="S20" s="33"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -9680,7 +9789,7 @@
       <c r="R21" s="13"/>
       <c r="S21" s="33"/>
     </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="25" t="s">
         <v>362</v>
@@ -9717,7 +9826,7 @@
       </c>
       <c r="S22" s="27"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="31" t="s">
         <v>79</v>
@@ -9758,7 +9867,7 @@
       </c>
       <c r="S23" s="33"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="31" t="s">
         <v>80</v>
@@ -9799,7 +9908,7 @@
       </c>
       <c r="S24" s="33"/>
     </row>
-    <row r="25" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="31" t="s">
         <v>82</v>
@@ -9840,7 +9949,7 @@
       </c>
       <c r="S25" s="37"/>
     </row>
-    <row r="26" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="39" t="s">
         <v>83</v>
@@ -9877,7 +9986,7 @@
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
     </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="44"/>
       <c r="C27" s="37"/>
@@ -9914,7 +10023,7 @@
       </c>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="41"/>
       <c r="C28" s="27"/>
@@ -9943,7 +10052,7 @@
       </c>
       <c r="S28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="34"/>
       <c r="C29" s="33"/>
@@ -9980,7 +10089,7 @@
       </c>
       <c r="S29" s="33"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -10017,7 +10126,7 @@
       </c>
       <c r="S30" s="33"/>
     </row>
-    <row r="31" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
@@ -10054,7 +10163,7 @@
       </c>
       <c r="S31" s="37"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -10083,7 +10192,7 @@
       <c r="R32" s="13"/>
       <c r="S32" s="33"/>
     </row>
-    <row r="33" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="12"/>
       <c r="C33" s="13"/>
@@ -10120,7 +10229,7 @@
       </c>
       <c r="S33" s="27"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="12"/>
       <c r="C34" s="13"/>
@@ -10157,7 +10266,7 @@
       </c>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="12"/>
       <c r="C35" s="45" t="s">
@@ -10196,7 +10305,7 @@
       </c>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="33"/>
@@ -10233,7 +10342,7 @@
       </c>
       <c r="S36" s="33"/>
     </row>
-    <row r="37" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
       <c r="C37" s="33"/>
@@ -10266,7 +10375,7 @@
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="44"/>
       <c r="C38" s="37"/>
@@ -10299,7 +10408,7 @@
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
     </row>
-    <row r="39" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="44"/>
       <c r="C39" s="37"/>
@@ -10320,7 +10429,7 @@
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
     </row>
-    <row r="40" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="44"/>
       <c r="C40" s="37"/>
@@ -10353,7 +10462,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="41"/>
       <c r="C41" s="27"/>
@@ -10386,7 +10495,7 @@
       <c r="R41" s="33"/>
       <c r="S41" s="33"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
       <c r="C42" s="33"/>
@@ -10419,7 +10528,7 @@
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
       <c r="C43" s="33"/>
@@ -10452,7 +10561,7 @@
       <c r="R43" s="33"/>
       <c r="S43" s="33"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="33"/>
@@ -10485,7 +10594,7 @@
       <c r="R44" s="33"/>
       <c r="S44" s="33"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
       <c r="B45" s="34"/>
       <c r="C45" s="33"/>
@@ -10514,7 +10623,7 @@
       <c r="R45" s="33"/>
       <c r="S45" s="33"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>
@@ -10539,7 +10648,7 @@
       <c r="R46" s="13"/>
       <c r="S46" s="33"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
       <c r="C47" s="33"/>
@@ -10572,7 +10681,7 @@
       <c r="R47" s="13"/>
       <c r="S47" s="33"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="33"/>
@@ -10605,7 +10714,7 @@
       <c r="R48" s="13"/>
       <c r="S48" s="33"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
       <c r="C49" s="33"/>
@@ -10638,7 +10747,7 @@
       <c r="R49" s="13"/>
       <c r="S49" s="33"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="33"/>
@@ -10673,7 +10782,7 @@
       <c r="R50" s="13"/>
       <c r="S50" s="33"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
       <c r="C51" s="33"/>
@@ -10706,7 +10815,7 @@
       <c r="R51" s="13"/>
       <c r="S51" s="33"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="33"/>
@@ -10735,7 +10844,7 @@
       <c r="R52" s="13"/>
       <c r="S52" s="33"/>
     </row>
-    <row r="53" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="33"/>
@@ -10760,7 +10869,7 @@
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="37"/>
       <c r="B54" s="44"/>
       <c r="C54" s="37"/>
@@ -10781,7 +10890,7 @@
       <c r="R54" s="13"/>
       <c r="S54" s="33"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
       <c r="C55" s="33"/>
@@ -10806,7 +10915,7 @@
       <c r="R55" s="13"/>
       <c r="S55" s="33"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="33"/>
@@ -10831,7 +10940,7 @@
       <c r="R56" s="13"/>
       <c r="S56" s="33"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="C57" s="33"/>
@@ -10856,7 +10965,7 @@
       <c r="R57" s="33"/>
       <c r="S57" s="33"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="33"/>
@@ -10881,7 +10990,7 @@
       <c r="R58" s="33"/>
       <c r="S58" s="33"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
       <c r="C59" s="33"/>
@@ -10906,7 +11015,7 @@
       <c r="R59" s="13"/>
       <c r="S59" s="33"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="33"/>
@@ -10931,7 +11040,7 @@
       <c r="R60" s="13"/>
       <c r="S60" s="33"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
       <c r="C61" s="33"/>
@@ -10952,7 +11061,7 @@
       <c r="R61" s="13"/>
       <c r="S61" s="33"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="33"/>
@@ -10977,7 +11086,7 @@
       <c r="R62" s="13"/>
       <c r="S62" s="33"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="33"/>
       <c r="B63" s="34"/>
       <c r="C63" s="33"/>
@@ -11002,7 +11111,7 @@
       <c r="R63" s="13"/>
       <c r="S63" s="33"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
@@ -11027,7 +11136,7 @@
       <c r="R64" s="13"/>
       <c r="S64" s="33"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -11052,7 +11161,7 @@
       <c r="R65" s="13"/>
       <c r="S65" s="33"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -11077,7 +11186,7 @@
       <c r="R66" s="13"/>
       <c r="S66" s="33"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -11098,7 +11207,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="33"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
       <c r="C68" s="33"/>
@@ -11123,7 +11232,7 @@
       <c r="R68" s="13"/>
       <c r="S68" s="33"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
       <c r="C69" s="33"/>
@@ -11148,7 +11257,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="33"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
       <c r="C70" s="33"/>
@@ -11173,7 +11282,7 @@
       <c r="R70" s="13"/>
       <c r="S70" s="33"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
       <c r="C71" s="33"/>
@@ -11198,7 +11307,7 @@
       <c r="R71" s="13"/>
       <c r="S71" s="33"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="33"/>
@@ -11223,7 +11332,7 @@
       <c r="R72" s="33"/>
       <c r="S72" s="33"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="12"/>
       <c r="C73" s="33"/>
@@ -11248,7 +11357,7 @@
       <c r="R73" s="33"/>
       <c r="S73" s="33"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
       <c r="C74" s="33"/>
@@ -11269,7 +11378,7 @@
       <c r="R74" s="33"/>
       <c r="S74" s="33"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
       <c r="C75" s="33"/>
@@ -11307,59 +11416,59 @@
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.6640625" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.85546875" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="24.7109375" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="24.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="38" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="28" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="17" customWidth="1"/>
-    <col min="50" max="50" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
         <v>1005</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="O1" s="162" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="O1" s="166" t="s">
         <v>1005</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
@@ -11368,7 +11477,7 @@
       <c r="AD1" s="55"/>
       <c r="AE1" s="55"/>
     </row>
-    <row r="2" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="124"/>
       <c r="F2" s="124"/>
       <c r="I2" s="124"/>
@@ -11378,10 +11487,10 @@
       <c r="P2" s="126" t="s">
         <v>1007</v>
       </c>
-      <c r="Q2" s="162" t="s">
+      <c r="Q2" s="166" t="s">
         <v>951</v>
       </c>
-      <c r="R2" s="162"/>
+      <c r="R2" s="166"/>
       <c r="Y2" s="131" t="s">
         <v>960</v>
       </c>
@@ -11402,10 +11511,10 @@
       <c r="AO2" s="143" t="s">
         <v>960</v>
       </c>
-      <c r="AP2" s="164" t="s">
+      <c r="AP2" s="168" t="s">
         <v>1007</v>
       </c>
-      <c r="AQ2" s="164"/>
+      <c r="AQ2" s="168"/>
       <c r="AR2" s="144"/>
       <c r="AS2" s="144"/>
       <c r="AT2" s="145" t="s">
@@ -11420,7 +11529,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C3" s="124"/>
       <c r="F3" s="124"/>
       <c r="I3" s="124"/>
@@ -11472,10 +11581,10 @@
       <c r="AS3" s="141" t="s">
         <v>1009</v>
       </c>
-      <c r="AT3" s="163" t="s">
+      <c r="AT3" s="167" t="s">
         <v>946</v>
       </c>
-      <c r="AU3" s="163"/>
+      <c r="AU3" s="167"/>
       <c r="AV3" s="141" t="s">
         <v>947</v>
       </c>
@@ -11486,7 +11595,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C4" s="124"/>
       <c r="F4" s="124"/>
       <c r="I4" s="124"/>
@@ -11554,7 +11663,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C5" s="124"/>
       <c r="F5" s="124"/>
       <c r="I5" s="124"/>
@@ -11622,7 +11731,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C6" s="124"/>
       <c r="F6" s="124"/>
       <c r="I6" s="124"/>
@@ -11690,7 +11799,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C7" s="124"/>
       <c r="F7" s="124"/>
       <c r="I7" s="124"/>
@@ -11758,7 +11867,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C8" s="124"/>
       <c r="F8" s="124"/>
       <c r="I8" s="124"/>
@@ -11826,7 +11935,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C9" s="124"/>
       <c r="F9" s="124"/>
       <c r="I9" s="124"/>
@@ -11894,7 +12003,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C10" s="124"/>
       <c r="F10" s="124"/>
       <c r="I10" s="124"/>
@@ -11958,7 +12067,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C11" s="124"/>
       <c r="F11" s="124"/>
       <c r="I11" s="124"/>
@@ -12022,7 +12131,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="124"/>
       <c r="F12" s="124"/>
       <c r="I12" s="124"/>
@@ -12086,7 +12195,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C13" s="124"/>
       <c r="F13" s="124"/>
       <c r="I13" s="124"/>
@@ -12150,7 +12259,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C14" s="124"/>
       <c r="F14" s="124"/>
       <c r="I14" s="124"/>
@@ -12214,7 +12323,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C15" s="124"/>
       <c r="F15" s="124"/>
       <c r="I15" s="124"/>
@@ -12278,7 +12387,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C16" s="124"/>
       <c r="F16" s="124"/>
       <c r="I16" s="124"/>
@@ -12338,7 +12447,7 @@
       <c r="AW16" s="137"/>
       <c r="AX16" s="139"/>
     </row>
-    <row r="17" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="124"/>
       <c r="F17" s="124"/>
       <c r="I17" s="124"/>
@@ -12398,7 +12507,7 @@
       <c r="AW17" s="137"/>
       <c r="AX17" s="139"/>
     </row>
-    <row r="18" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="124"/>
       <c r="F18" s="124"/>
       <c r="I18" s="124"/>
@@ -12458,7 +12567,7 @@
       <c r="AW18" s="137"/>
       <c r="AX18" s="139"/>
     </row>
-    <row r="19" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="124"/>
       <c r="F19" s="124"/>
       <c r="I19" s="124"/>
@@ -12514,7 +12623,7 @@
       <c r="AW19" s="137"/>
       <c r="AX19" s="139"/>
     </row>
-    <row r="20" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C20" s="124"/>
       <c r="F20" s="124"/>
       <c r="I20" s="124"/>
@@ -12570,7 +12679,7 @@
       <c r="AW20" s="137"/>
       <c r="AX20" s="139"/>
     </row>
-    <row r="21" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="124"/>
       <c r="F21" s="124"/>
       <c r="I21" s="124"/>
@@ -12626,7 +12735,7 @@
       <c r="AW21" s="137"/>
       <c r="AX21" s="139"/>
     </row>
-    <row r="22" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="124"/>
       <c r="F22" s="124"/>
       <c r="I22" s="124"/>
@@ -12682,7 +12791,7 @@
       <c r="AW22" s="137"/>
       <c r="AX22" s="139"/>
     </row>
-    <row r="23" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C23" s="124"/>
       <c r="F23" s="124"/>
       <c r="I23" s="124"/>
@@ -12738,7 +12847,7 @@
       <c r="AW23" s="137"/>
       <c r="AX23" s="139"/>
     </row>
-    <row r="24" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C24" s="124"/>
       <c r="F24" s="124"/>
       <c r="I24" s="124"/>
@@ -12792,7 +12901,7 @@
       <c r="AW24" s="137"/>
       <c r="AX24" s="139"/>
     </row>
-    <row r="25" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="124"/>
       <c r="F25" s="124"/>
       <c r="I25" s="124"/>
@@ -12846,7 +12955,7 @@
       <c r="AW25" s="137"/>
       <c r="AX25" s="139"/>
     </row>
-    <row r="26" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C26" s="124"/>
       <c r="F26" s="124"/>
       <c r="I26" s="124"/>
@@ -12900,7 +13009,7 @@
       <c r="AW26" s="137"/>
       <c r="AX26" s="139"/>
     </row>
-    <row r="27" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="124"/>
       <c r="F27" s="124"/>
       <c r="I27" s="124"/>
@@ -12954,7 +13063,7 @@
       <c r="AW27" s="137"/>
       <c r="AX27" s="139"/>
     </row>
-    <row r="28" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="124"/>
       <c r="F28" s="124"/>
       <c r="I28" s="124"/>
@@ -13008,7 +13117,7 @@
       <c r="AW28" s="137"/>
       <c r="AX28" s="139"/>
     </row>
-    <row r="29" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="124"/>
       <c r="F29" s="124"/>
       <c r="I29" s="124"/>
@@ -13062,7 +13171,7 @@
       <c r="AW29" s="137"/>
       <c r="AX29" s="139"/>
     </row>
-    <row r="30" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="124"/>
       <c r="F30" s="124"/>
       <c r="I30" s="124"/>
@@ -13116,7 +13225,7 @@
       <c r="AW30" s="137"/>
       <c r="AX30" s="139"/>
     </row>
-    <row r="31" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C31" s="124"/>
       <c r="F31" s="124"/>
       <c r="I31" s="124"/>
@@ -13170,7 +13279,7 @@
       <c r="AW31" s="137"/>
       <c r="AX31" s="139"/>
     </row>
-    <row r="32" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C32" s="124"/>
       <c r="F32" s="124"/>
       <c r="I32" s="124"/>
@@ -13224,7 +13333,7 @@
       <c r="AW32" s="137"/>
       <c r="AX32" s="139"/>
     </row>
-    <row r="33" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="124"/>
       <c r="F33" s="124"/>
       <c r="I33" s="124"/>
@@ -13276,7 +13385,7 @@
       <c r="AW33" s="137"/>
       <c r="AX33" s="139"/>
     </row>
-    <row r="34" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C34" s="124"/>
       <c r="F34" s="124"/>
       <c r="I34" s="124"/>
@@ -13328,7 +13437,7 @@
       <c r="AW34" s="137"/>
       <c r="AX34" s="139"/>
     </row>
-    <row r="35" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C35" s="124"/>
       <c r="F35" s="124"/>
       <c r="I35" s="124"/>
@@ -13380,7 +13489,7 @@
       <c r="AW35" s="137"/>
       <c r="AX35" s="139"/>
     </row>
-    <row r="36" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="124"/>
       <c r="F36" s="124"/>
       <c r="I36" s="124"/>
@@ -13432,7 +13541,7 @@
       <c r="AW36" s="137"/>
       <c r="AX36" s="139"/>
     </row>
-    <row r="37" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37" s="124"/>
       <c r="F37" s="124"/>
       <c r="I37" s="124"/>
@@ -13484,7 +13593,7 @@
       <c r="AW37" s="137"/>
       <c r="AX37" s="139"/>
     </row>
-    <row r="38" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38" s="124"/>
       <c r="F38" s="124"/>
       <c r="I38" s="124"/>
@@ -13534,7 +13643,7 @@
       <c r="AW38" s="137"/>
       <c r="AX38" s="139"/>
     </row>
-    <row r="39" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39" s="124"/>
       <c r="F39" s="124"/>
       <c r="I39" s="124"/>
@@ -13576,7 +13685,7 @@
       <c r="AW39" s="137"/>
       <c r="AX39" s="139"/>
     </row>
-    <row r="40" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40" s="124"/>
       <c r="F40" s="124"/>
       <c r="I40" s="124"/>
@@ -13618,7 +13727,7 @@
       <c r="AW40" s="137"/>
       <c r="AX40" s="139"/>
     </row>
-    <row r="41" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41" s="124"/>
       <c r="F41" s="124"/>
       <c r="I41" s="124"/>
@@ -13660,7 +13769,7 @@
       <c r="AW41" s="137"/>
       <c r="AX41" s="139"/>
     </row>
-    <row r="42" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42" s="124"/>
       <c r="F42" s="124"/>
       <c r="I42" s="124"/>
@@ -13688,7 +13797,7 @@
       <c r="AD42" s="133"/>
       <c r="AE42" s="133"/>
     </row>
-    <row r="43" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43" s="124"/>
       <c r="F43" s="124"/>
       <c r="I43" s="124"/>
@@ -13716,7 +13825,7 @@
       <c r="AD43" s="133"/>
       <c r="AE43" s="133"/>
     </row>
-    <row r="44" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C44" s="124"/>
       <c r="F44" s="124"/>
       <c r="I44" s="124"/>
@@ -13744,7 +13853,7 @@
       <c r="AD44" s="133"/>
       <c r="AE44" s="133"/>
     </row>
-    <row r="45" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C45" s="124"/>
       <c r="F45" s="124"/>
       <c r="I45" s="124"/>
@@ -13772,7 +13881,7 @@
       <c r="AD45" s="133"/>
       <c r="AE45" s="133"/>
     </row>
-    <row r="46" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C46" s="124"/>
       <c r="F46" s="124"/>
       <c r="I46" s="124"/>
@@ -13800,7 +13909,7 @@
       <c r="AD46" s="133"/>
       <c r="AE46" s="133"/>
     </row>
-    <row r="47" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C47" s="124"/>
       <c r="F47" s="124"/>
       <c r="I47" s="124"/>
@@ -13828,7 +13937,7 @@
       <c r="AD47" s="133"/>
       <c r="AE47" s="133"/>
     </row>
-    <row r="48" spans="3:50" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C48" s="124"/>
       <c r="D48" s="124" t="s">
         <v>947</v>
@@ -13860,7 +13969,7 @@
       <c r="AD48" s="133"/>
       <c r="AE48" s="133"/>
     </row>
-    <row r="49" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C49" s="124"/>
       <c r="D49" s="124"/>
       <c r="E49" s="124" t="s">
@@ -13892,7 +14001,7 @@
       <c r="AD49" s="133"/>
       <c r="AE49" s="133"/>
     </row>
-    <row r="50" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C50" s="124"/>
       <c r="D50" s="124"/>
       <c r="E50" s="124" t="s">
@@ -13924,7 +14033,7 @@
       <c r="AD50" s="133"/>
       <c r="AE50" s="133"/>
     </row>
-    <row r="51" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C51" s="124"/>
       <c r="D51" s="124"/>
       <c r="E51" s="124" t="s">
@@ -13956,7 +14065,7 @@
       <c r="AD51" s="133"/>
       <c r="AE51" s="133"/>
     </row>
-    <row r="52" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C52" s="124"/>
       <c r="D52" s="124"/>
       <c r="E52" s="124" t="s">
@@ -13988,7 +14097,7 @@
       <c r="AD52" s="133"/>
       <c r="AE52" s="133"/>
     </row>
-    <row r="53" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C53" s="124"/>
       <c r="D53" s="124"/>
       <c r="E53" s="124" t="s">
@@ -14020,7 +14129,7 @@
       <c r="AD53" s="133"/>
       <c r="AE53" s="133"/>
     </row>
-    <row r="54" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C54" s="124"/>
       <c r="D54" s="124"/>
       <c r="E54" s="124" t="s">
@@ -14052,7 +14161,7 @@
       <c r="AD54" s="133"/>
       <c r="AE54" s="133"/>
     </row>
-    <row r="55" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C55" s="124"/>
       <c r="D55" s="124"/>
       <c r="E55" s="124" t="s">
@@ -14084,7 +14193,7 @@
       <c r="AD55" s="133"/>
       <c r="AE55" s="133"/>
     </row>
-    <row r="56" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C56" s="124"/>
       <c r="D56" s="124"/>
       <c r="E56" s="124" t="s">
@@ -14116,7 +14225,7 @@
       <c r="AD56" s="133"/>
       <c r="AE56" s="133"/>
     </row>
-    <row r="57" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C57" s="124"/>
       <c r="D57" s="124"/>
       <c r="E57" s="124" t="s">
@@ -14148,7 +14257,7 @@
       <c r="AD57" s="133"/>
       <c r="AE57" s="133"/>
     </row>
-    <row r="58" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="124"/>
       <c r="B58" s="124"/>
       <c r="C58" s="124"/>
@@ -14182,7 +14291,7 @@
       <c r="AD58" s="133"/>
       <c r="AE58" s="133"/>
     </row>
-    <row r="59" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="124"/>
       <c r="B59" s="124"/>
       <c r="C59" s="124"/>
@@ -14212,7 +14321,7 @@
       <c r="AD59" s="133"/>
       <c r="AE59" s="133"/>
     </row>
-    <row r="60" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="124"/>
       <c r="B60" s="124"/>
       <c r="C60" s="124"/>
@@ -14242,7 +14351,7 @@
       <c r="AD60" s="133"/>
       <c r="AE60" s="133"/>
     </row>
-    <row r="61" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="124"/>
       <c r="B61" s="124"/>
       <c r="C61" s="124"/>
@@ -14272,7 +14381,7 @@
       <c r="AD61" s="133"/>
       <c r="AE61" s="133"/>
     </row>
-    <row r="62" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="124"/>
       <c r="B62" s="124"/>
       <c r="C62" s="124"/>
@@ -14302,7 +14411,7 @@
       <c r="AD62" s="133"/>
       <c r="AE62" s="133"/>
     </row>
-    <row r="63" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="124"/>
       <c r="B63" s="124"/>
       <c r="C63" s="124"/>
@@ -14332,7 +14441,7 @@
       <c r="AD63" s="133"/>
       <c r="AE63" s="133"/>
     </row>
-    <row r="64" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="124"/>
       <c r="B64" s="124"/>
       <c r="C64" s="124"/>
@@ -14360,7 +14469,7 @@
       <c r="AD64" s="133"/>
       <c r="AE64" s="133"/>
     </row>
-    <row r="65" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="124"/>
       <c r="B65" s="124"/>
       <c r="C65" s="124"/>
@@ -14388,7 +14497,7 @@
       <c r="AD65" s="133"/>
       <c r="AE65" s="133"/>
     </row>
-    <row r="66" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="124"/>
       <c r="B66" s="124"/>
       <c r="C66" s="124"/>
@@ -14418,7 +14527,7 @@
       <c r="AD66" s="133"/>
       <c r="AE66" s="133"/>
     </row>
-    <row r="67" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="124"/>
       <c r="B67" s="124"/>
       <c r="C67" s="124"/>
@@ -14448,7 +14557,7 @@
       <c r="AD67" s="133"/>
       <c r="AE67" s="133"/>
     </row>
-    <row r="68" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="124"/>
       <c r="B68" s="124"/>
       <c r="C68" s="124"/>
@@ -14478,7 +14587,7 @@
       <c r="AD68" s="133"/>
       <c r="AE68" s="133"/>
     </row>
-    <row r="69" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="124"/>
       <c r="B69" s="124"/>
       <c r="C69" s="124"/>
@@ -14508,7 +14617,7 @@
       <c r="AD69" s="133"/>
       <c r="AE69" s="133"/>
     </row>
-    <row r="70" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O70" s="130"/>
       <c r="P70" s="130"/>
       <c r="Q70" s="128" t="s">
@@ -14529,7 +14638,7 @@
       <c r="AD70" s="133"/>
       <c r="AE70" s="133"/>
     </row>
-    <row r="71" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O71" s="130"/>
       <c r="P71" s="130"/>
       <c r="Q71" s="128" t="s">
@@ -14546,7 +14655,7 @@
       <c r="AD71" s="133"/>
       <c r="AE71" s="133"/>
     </row>
-    <row r="72" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O72" s="130"/>
       <c r="P72" s="130"/>
       <c r="Q72" s="128" t="s">
@@ -14563,7 +14672,7 @@
       <c r="AD72" s="133"/>
       <c r="AE72" s="133"/>
     </row>
-    <row r="73" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O73" s="130"/>
       <c r="P73" s="130"/>
       <c r="Q73" s="128" t="s">
@@ -14580,7 +14689,7 @@
       <c r="AD73" s="133"/>
       <c r="AE73" s="133"/>
     </row>
-    <row r="74" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O74" s="130"/>
       <c r="P74" s="130"/>
       <c r="Q74" s="128" t="s">
@@ -14597,7 +14706,7 @@
       <c r="AD74" s="133"/>
       <c r="AE74" s="133"/>
     </row>
-    <row r="75" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O75" s="130"/>
       <c r="P75" s="130"/>
       <c r="Q75" s="128" t="s">
@@ -14614,7 +14723,7 @@
       <c r="AD75" s="133"/>
       <c r="AE75" s="133"/>
     </row>
-    <row r="76" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="O76" s="130"/>
       <c r="P76" s="130"/>
       <c r="Q76" s="128" t="s">
@@ -14654,26 +14763,26 @@
       <selection pane="bottomLeft" activeCell="A68" sqref="A68:A267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167" t="s">
+    <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="171" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="169"/>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="172"/>
+      <c r="E1" s="173"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>466</v>
       </c>
@@ -14693,7 +14802,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
         <v>625</v>
       </c>
@@ -14705,7 +14814,7 @@
       <c r="E3" s="101"/>
       <c r="F3" s="98"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="98" t="s">
         <v>322</v>
       </c>
@@ -14723,7 +14832,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
         <v>343</v>
       </c>
@@ -14741,7 +14850,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="98" t="s">
         <v>933</v>
       </c>
@@ -14757,7 +14866,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
         <v>934</v>
       </c>
@@ -14773,7 +14882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="98" t="s">
         <v>290</v>
       </c>
@@ -14793,7 +14902,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="98" t="s">
         <v>293</v>
       </c>
@@ -14813,7 +14922,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
         <v>563</v>
       </c>
@@ -14831,7 +14940,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="98" t="s">
         <v>246</v>
       </c>
@@ -14851,7 +14960,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
         <v>247</v>
       </c>
@@ -14871,7 +14980,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
         <v>622</v>
       </c>
@@ -14891,7 +15000,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
         <v>670</v>
       </c>
@@ -14911,7 +15020,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>578</v>
       </c>
@@ -14929,7 +15038,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
         <v>931</v>
       </c>
@@ -14949,7 +15058,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="98" t="s">
         <v>535</v>
       </c>
@@ -14967,7 +15076,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="98" t="s">
         <v>310</v>
       </c>
@@ -14987,7 +15096,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="98" t="s">
         <v>238</v>
       </c>
@@ -15005,7 +15114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="98" t="s">
         <v>932</v>
       </c>
@@ -15021,7 +15130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
         <v>538</v>
       </c>
@@ -15041,7 +15150,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="98" t="s">
         <v>529</v>
       </c>
@@ -15057,7 +15166,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="98" t="s">
         <v>249</v>
       </c>
@@ -15077,7 +15186,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="98" t="s">
         <v>250</v>
       </c>
@@ -15097,7 +15206,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="98" t="s">
         <v>545</v>
       </c>
@@ -15117,7 +15226,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="98" t="s">
         <v>311</v>
       </c>
@@ -15137,7 +15246,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="98" t="s">
         <v>312</v>
       </c>
@@ -15157,7 +15266,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>546</v>
       </c>
@@ -15177,7 +15286,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
         <v>555</v>
       </c>
@@ -15195,7 +15304,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="98" t="s">
         <v>248</v>
       </c>
@@ -15215,7 +15324,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="98" t="s">
         <v>251</v>
       </c>
@@ -15235,7 +15344,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="98" t="s">
         <v>468</v>
       </c>
@@ -15255,7 +15364,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="98" t="s">
         <v>244</v>
       </c>
@@ -15273,7 +15382,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="98" t="s">
         <v>683</v>
       </c>
@@ -15293,7 +15402,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="98" t="s">
         <v>640</v>
       </c>
@@ -15311,7 +15420,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="98" t="s">
         <v>252</v>
       </c>
@@ -15331,7 +15440,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="98" t="s">
         <v>637</v>
       </c>
@@ -15351,7 +15460,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="98" t="s">
         <v>243</v>
       </c>
@@ -15369,7 +15478,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="98" t="s">
         <v>559</v>
       </c>
@@ -15387,7 +15496,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="98" t="s">
         <v>253</v>
       </c>
@@ -15407,7 +15516,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="98" t="s">
         <v>298</v>
       </c>
@@ -15427,7 +15536,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
         <v>612</v>
       </c>
@@ -15447,7 +15556,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="98" t="s">
         <v>254</v>
       </c>
@@ -15467,7 +15576,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="98" t="s">
         <v>323</v>
       </c>
@@ -15485,7 +15594,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="98" t="s">
         <v>590</v>
       </c>
@@ -15501,7 +15610,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="98" t="s">
         <v>584</v>
       </c>
@@ -15521,7 +15630,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="98" t="s">
         <v>576</v>
       </c>
@@ -15541,7 +15650,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="98" t="s">
         <v>575</v>
       </c>
@@ -15561,7 +15670,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="98" t="s">
         <v>603</v>
       </c>
@@ -15579,7 +15688,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="98" t="s">
         <v>255</v>
       </c>
@@ -15599,7 +15708,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="98" t="s">
         <v>256</v>
       </c>
@@ -15619,7 +15728,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="98" t="s">
         <v>638</v>
       </c>
@@ -15639,7 +15748,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="98" t="s">
         <v>294</v>
       </c>
@@ -15659,7 +15768,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="98" t="s">
         <v>641</v>
       </c>
@@ -15679,7 +15788,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="98" t="s">
         <v>324</v>
       </c>
@@ -15697,7 +15806,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="98" t="s">
         <v>532</v>
       </c>
@@ -15715,7 +15824,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="98" t="s">
         <v>530</v>
       </c>
@@ -15731,7 +15840,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="98" t="s">
         <v>586</v>
       </c>
@@ -15747,7 +15856,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="98" t="s">
         <v>587</v>
       </c>
@@ -15763,7 +15872,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="98" t="s">
         <v>347</v>
       </c>
@@ -15781,7 +15890,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="98" t="s">
         <v>257</v>
       </c>
@@ -15801,7 +15910,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="98" t="s">
         <v>712</v>
       </c>
@@ -15821,7 +15930,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="98" t="s">
         <v>581</v>
       </c>
@@ -15841,7 +15950,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="98" t="s">
         <v>639</v>
       </c>
@@ -15861,7 +15970,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="98" t="s">
         <v>258</v>
       </c>
@@ -15881,7 +15990,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="98" t="s">
         <v>618</v>
       </c>
@@ -15899,7 +16008,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="98" t="s">
         <v>613</v>
       </c>
@@ -15919,7 +16028,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="98" t="s">
         <v>936</v>
       </c>
@@ -15935,7 +16044,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="98" t="s">
         <v>935</v>
       </c>
@@ -15951,7 +16060,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="98" t="s">
         <v>336</v>
       </c>
@@ -15969,7 +16078,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="98" t="s">
         <v>547</v>
       </c>
@@ -15989,7 +16098,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="98" t="s">
         <v>337</v>
       </c>
@@ -16007,7 +16116,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="98" t="s">
         <v>939</v>
       </c>
@@ -16023,7 +16132,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="98" t="s">
         <v>608</v>
       </c>
@@ -16043,7 +16152,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="98" t="s">
         <v>716</v>
       </c>
@@ -16061,7 +16170,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="98" t="s">
         <v>327</v>
       </c>
@@ -16079,7 +16188,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="98" t="s">
         <v>534</v>
       </c>
@@ -16097,7 +16206,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="98" t="s">
         <v>548</v>
       </c>
@@ -16117,7 +16226,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="98" t="s">
         <v>568</v>
       </c>
@@ -16133,7 +16242,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="98" t="s">
         <v>721</v>
       </c>
@@ -16149,7 +16258,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="98" t="s">
         <v>259</v>
       </c>
@@ -16169,7 +16278,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="98" t="s">
         <v>299</v>
       </c>
@@ -16189,7 +16298,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="98" t="s">
         <v>616</v>
       </c>
@@ -16209,7 +16318,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="98" t="s">
         <v>300</v>
       </c>
@@ -16229,7 +16338,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="98" t="s">
         <v>528</v>
       </c>
@@ -16249,7 +16358,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="98" t="s">
         <v>937</v>
       </c>
@@ -16265,7 +16374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="98" t="s">
         <v>591</v>
       </c>
@@ -16281,7 +16390,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="98" t="s">
         <v>965</v>
       </c>
@@ -16299,7 +16408,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="98" t="s">
         <v>356</v>
       </c>
@@ -16315,7 +16424,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="98" t="s">
         <v>642</v>
       </c>
@@ -16335,7 +16444,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="98" t="s">
         <v>260</v>
       </c>
@@ -16355,7 +16464,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="98" t="s">
         <v>569</v>
       </c>
@@ -16371,7 +16480,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="98" t="s">
         <v>346</v>
       </c>
@@ -16389,7 +16498,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="98" t="s">
         <v>619</v>
       </c>
@@ -16407,7 +16516,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="98" t="s">
         <v>549</v>
       </c>
@@ -16427,7 +16536,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="98" t="s">
         <v>261</v>
       </c>
@@ -16447,7 +16556,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="98" t="s">
         <v>348</v>
       </c>
@@ -16465,7 +16574,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="98" t="s">
         <v>350</v>
       </c>
@@ -16483,7 +16592,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="98" t="s">
         <v>301</v>
       </c>
@@ -16503,7 +16612,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="98" t="s">
         <v>734</v>
       </c>
@@ -16517,7 +16626,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="98" t="s">
         <v>560</v>
       </c>
@@ -16535,7 +16644,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="98" t="s">
         <v>737</v>
       </c>
@@ -16555,7 +16664,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="98" t="s">
         <v>467</v>
       </c>
@@ -16575,7 +16684,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="98" t="s">
         <v>262</v>
       </c>
@@ -16595,7 +16704,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="98" t="s">
         <v>570</v>
       </c>
@@ -16611,7 +16720,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="98" t="s">
         <v>746</v>
       </c>
@@ -16631,7 +16740,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="98" t="s">
         <v>263</v>
       </c>
@@ -16651,7 +16760,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="98" t="s">
         <v>339</v>
       </c>
@@ -16669,7 +16778,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="98" t="s">
         <v>571</v>
       </c>
@@ -16689,7 +16798,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="98" t="s">
         <v>600</v>
       </c>
@@ -16709,7 +16818,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="98" t="s">
         <v>602</v>
       </c>
@@ -16729,7 +16838,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="98" t="s">
         <v>604</v>
       </c>
@@ -16747,7 +16856,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="98" t="s">
         <v>601</v>
       </c>
@@ -16765,7 +16874,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="98" t="s">
         <v>938</v>
       </c>
@@ -16781,7 +16890,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="98" t="s">
         <v>313</v>
       </c>
@@ -16799,7 +16908,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="98" t="s">
         <v>286</v>
       </c>
@@ -16817,7 +16926,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="98" t="s">
         <v>756</v>
       </c>
@@ -16835,7 +16944,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="98" t="s">
         <v>609</v>
       </c>
@@ -16853,7 +16962,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="98" t="s">
         <v>595</v>
       </c>
@@ -16871,7 +16980,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="98" t="s">
         <v>596</v>
       </c>
@@ -16889,7 +16998,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="98" t="s">
         <v>302</v>
       </c>
@@ -16909,7 +17018,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="98" t="s">
         <v>556</v>
       </c>
@@ -16927,7 +17036,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="98" t="s">
         <v>264</v>
       </c>
@@ -16947,7 +17056,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="98" t="s">
         <v>351</v>
       </c>
@@ -16965,7 +17074,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="98" t="s">
         <v>643</v>
       </c>
@@ -16983,7 +17092,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="98" t="s">
         <v>354</v>
       </c>
@@ -17003,7 +17112,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="98" t="s">
         <v>940</v>
       </c>
@@ -17019,7 +17128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="98" t="s">
         <v>303</v>
       </c>
@@ -17039,7 +17148,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="98" t="s">
         <v>564</v>
       </c>
@@ -17057,7 +17166,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="98" t="s">
         <v>314</v>
       </c>
@@ -17077,7 +17186,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="98" t="s">
         <v>539</v>
       </c>
@@ -17097,7 +17206,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="98" t="s">
         <v>550</v>
       </c>
@@ -17117,7 +17226,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="98" t="s">
         <v>769</v>
       </c>
@@ -17137,7 +17246,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="98" t="s">
         <v>941</v>
       </c>
@@ -17153,7 +17262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="98" t="s">
         <v>265</v>
       </c>
@@ -17173,7 +17282,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="98" t="s">
         <v>772</v>
       </c>
@@ -17193,7 +17302,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="98" t="s">
         <v>551</v>
       </c>
@@ -17213,7 +17322,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="98" t="s">
         <v>607</v>
       </c>
@@ -17231,7 +17340,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="98" t="s">
         <v>266</v>
       </c>
@@ -17251,7 +17360,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="98" t="s">
         <v>611</v>
       </c>
@@ -17271,7 +17380,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="98" t="s">
         <v>552</v>
       </c>
@@ -17291,7 +17400,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="98" t="s">
         <v>315</v>
       </c>
@@ -17311,7 +17420,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="98" t="s">
         <v>305</v>
       </c>
@@ -17331,7 +17440,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="98" t="s">
         <v>304</v>
       </c>
@@ -17351,7 +17460,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="98" t="s">
         <v>779</v>
       </c>
@@ -17369,7 +17478,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="98" t="s">
         <v>341</v>
       </c>
@@ -17387,7 +17496,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="98" t="s">
         <v>306</v>
       </c>
@@ -17407,7 +17516,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="98" t="s">
         <v>472</v>
       </c>
@@ -17425,7 +17534,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="98" t="s">
         <v>242</v>
       </c>
@@ -17443,7 +17552,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="98" t="s">
         <v>287</v>
       </c>
@@ -17463,7 +17572,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="98" t="s">
         <v>307</v>
       </c>
@@ -17483,7 +17592,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="98" t="s">
         <v>783</v>
       </c>
@@ -17501,7 +17610,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="98" t="s">
         <v>644</v>
       </c>
@@ -17521,7 +17630,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="98" t="s">
         <v>267</v>
       </c>
@@ -17541,7 +17650,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="98" t="s">
         <v>268</v>
       </c>
@@ -17561,7 +17670,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="98" t="s">
         <v>557</v>
       </c>
@@ -17579,7 +17688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="98" t="s">
         <v>954</v>
       </c>
@@ -17595,7 +17704,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="98" t="s">
         <v>645</v>
       </c>
@@ -17615,7 +17724,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="98" t="s">
         <v>787</v>
       </c>
@@ -17631,7 +17740,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="98" t="s">
         <v>574</v>
       </c>
@@ -17651,7 +17760,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="98" t="s">
         <v>577</v>
       </c>
@@ -17669,7 +17778,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="98" t="s">
         <v>270</v>
       </c>
@@ -17689,7 +17798,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="98" t="s">
         <v>561</v>
       </c>
@@ -17707,7 +17816,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="98" t="s">
         <v>470</v>
       </c>
@@ -17727,7 +17836,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="98" t="s">
         <v>579</v>
       </c>
@@ -17745,7 +17854,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="98" t="s">
         <v>295</v>
       </c>
@@ -17765,7 +17874,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="98" t="s">
         <v>956</v>
       </c>
@@ -17781,7 +17890,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="98" t="s">
         <v>239</v>
       </c>
@@ -17799,7 +17908,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="98" t="s">
         <v>537</v>
       </c>
@@ -17817,7 +17926,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="98" t="s">
         <v>792</v>
       </c>
@@ -17835,7 +17944,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="98" t="s">
         <v>271</v>
       </c>
@@ -17855,7 +17964,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="98" t="s">
         <v>349</v>
       </c>
@@ -17873,7 +17982,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="98" t="s">
         <v>540</v>
       </c>
@@ -17893,7 +18002,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="98" t="s">
         <v>288</v>
       </c>
@@ -17913,7 +18022,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="98" t="s">
         <v>614</v>
       </c>
@@ -17933,7 +18042,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="98" t="s">
         <v>646</v>
       </c>
@@ -17953,7 +18062,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="98" t="s">
         <v>572</v>
       </c>
@@ -17969,7 +18078,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="98" t="s">
         <v>272</v>
       </c>
@@ -17989,7 +18098,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="98" t="s">
         <v>273</v>
       </c>
@@ -18009,7 +18118,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="98" t="s">
         <v>316</v>
       </c>
@@ -18029,7 +18138,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="98" t="s">
         <v>471</v>
       </c>
@@ -18049,7 +18158,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="98" t="s">
         <v>296</v>
       </c>
@@ -18069,7 +18178,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="98" t="s">
         <v>297</v>
       </c>
@@ -18089,7 +18198,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="98" t="s">
         <v>328</v>
       </c>
@@ -18107,7 +18216,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="98" t="s">
         <v>291</v>
       </c>
@@ -18127,7 +18236,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="98" t="s">
         <v>274</v>
       </c>
@@ -18147,7 +18256,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="98" t="s">
         <v>325</v>
       </c>
@@ -18165,7 +18274,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="98" t="s">
         <v>317</v>
       </c>
@@ -18185,7 +18294,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="98" t="s">
         <v>340</v>
       </c>
@@ -18203,7 +18312,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="98" t="s">
         <v>801</v>
       </c>
@@ -18221,7 +18330,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="98" t="s">
         <v>308</v>
       </c>
@@ -18241,7 +18350,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="98" t="s">
         <v>565</v>
       </c>
@@ -18259,7 +18368,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="98" t="s">
         <v>580</v>
       </c>
@@ -18277,7 +18386,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="98" t="s">
         <v>353</v>
       </c>
@@ -18293,7 +18402,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="98" t="s">
         <v>318</v>
       </c>
@@ -18313,7 +18422,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="98" t="s">
         <v>473</v>
       </c>
@@ -18331,7 +18440,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="98" t="s">
         <v>804</v>
       </c>
@@ -18351,7 +18460,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="98" t="s">
         <v>634</v>
       </c>
@@ -18371,7 +18480,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="98" t="s">
         <v>624</v>
       </c>
@@ -18389,7 +18498,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="98" t="s">
         <v>275</v>
       </c>
@@ -18409,7 +18518,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="98" t="s">
         <v>808</v>
       </c>
@@ -18429,7 +18538,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="57.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="98" t="s">
         <v>592</v>
       </c>
@@ -18447,7 +18556,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="98" t="s">
         <v>276</v>
       </c>
@@ -18467,7 +18576,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="98" t="s">
         <v>606</v>
       </c>
@@ -18485,7 +18594,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="98" t="s">
         <v>292</v>
       </c>
@@ -18505,7 +18614,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="98" t="s">
         <v>533</v>
       </c>
@@ -18523,7 +18632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="98" t="s">
         <v>277</v>
       </c>
@@ -18543,7 +18652,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="98" t="s">
         <v>309</v>
       </c>
@@ -18563,7 +18672,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="98" t="s">
         <v>955</v>
       </c>
@@ -18579,7 +18688,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="98" t="s">
         <v>319</v>
       </c>
@@ -18599,7 +18708,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="98" t="s">
         <v>553</v>
       </c>
@@ -18619,7 +18728,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="98" t="s">
         <v>278</v>
       </c>
@@ -18639,7 +18748,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="98" t="s">
         <v>240</v>
       </c>
@@ -18655,7 +18764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="98" t="s">
         <v>648</v>
       </c>
@@ -18675,7 +18784,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="98" t="s">
         <v>320</v>
       </c>
@@ -18695,7 +18804,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="98" t="s">
         <v>647</v>
       </c>
@@ -18715,7 +18824,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="98" t="s">
         <v>610</v>
       </c>
@@ -18735,7 +18844,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="98" t="s">
         <v>531</v>
       </c>
@@ -18753,7 +18862,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="98" t="s">
         <v>329</v>
       </c>
@@ -18771,7 +18880,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="98" t="s">
         <v>649</v>
       </c>
@@ -18791,7 +18900,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="98" t="s">
         <v>958</v>
       </c>
@@ -18807,7 +18916,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="98" t="s">
         <v>536</v>
       </c>
@@ -18825,7 +18934,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="57.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="98" t="s">
         <v>818</v>
       </c>
@@ -18843,7 +18952,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="98" t="s">
         <v>330</v>
       </c>
@@ -18861,7 +18970,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="98" t="s">
         <v>527</v>
       </c>
@@ -18881,7 +18990,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="98" t="s">
         <v>598</v>
       </c>
@@ -18901,7 +19010,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="98" t="s">
         <v>588</v>
       </c>
@@ -18921,7 +19030,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="98" t="s">
         <v>605</v>
       </c>
@@ -18939,7 +19048,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="98" t="s">
         <v>589</v>
       </c>
@@ -18959,7 +19068,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="98" t="s">
         <v>279</v>
       </c>
@@ -18979,7 +19088,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="98" t="s">
         <v>280</v>
       </c>
@@ -18999,7 +19108,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="98" t="s">
         <v>829</v>
       </c>
@@ -19017,7 +19126,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="98" t="s">
         <v>827</v>
       </c>
@@ -19035,7 +19144,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="98" t="s">
         <v>331</v>
       </c>
@@ -19053,7 +19162,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="98" t="s">
         <v>469</v>
       </c>
@@ -19073,7 +19182,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="98" t="s">
         <v>541</v>
       </c>
@@ -19089,7 +19198,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="98" t="s">
         <v>321</v>
       </c>
@@ -19109,7 +19218,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="98" t="s">
         <v>542</v>
       </c>
@@ -19129,7 +19238,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="98" t="s">
         <v>562</v>
       </c>
@@ -19147,7 +19256,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="98" t="s">
         <v>332</v>
       </c>
@@ -19165,7 +19274,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="98" t="s">
         <v>281</v>
       </c>
@@ -19185,7 +19294,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="98" t="s">
         <v>834</v>
       </c>
@@ -19203,7 +19312,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="98" t="s">
         <v>282</v>
       </c>
@@ -19223,7 +19332,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="98" t="s">
         <v>554</v>
       </c>
@@ -19243,7 +19352,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="98" t="s">
         <v>289</v>
       </c>
@@ -19263,7 +19372,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="98" t="s">
         <v>650</v>
       </c>
@@ -19283,7 +19392,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="98" t="s">
         <v>338</v>
       </c>
@@ -19301,7 +19410,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="98" t="s">
         <v>566</v>
       </c>
@@ -19319,7 +19428,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="98" t="s">
         <v>651</v>
       </c>
@@ -19339,7 +19448,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="98" t="s">
         <v>567</v>
       </c>
@@ -19357,7 +19466,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="98" t="s">
         <v>283</v>
       </c>
@@ -19377,7 +19486,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="98" t="s">
         <v>245</v>
       </c>
@@ -19395,7 +19504,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="98" t="s">
         <v>617</v>
       </c>
@@ -19415,7 +19524,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="98" t="s">
         <v>543</v>
       </c>
@@ -19435,7 +19544,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="98" t="s">
         <v>615</v>
       </c>
@@ -19455,7 +19564,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="98" t="s">
         <v>334</v>
       </c>
@@ -19471,7 +19580,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="98" t="s">
         <v>357</v>
       </c>
@@ -19487,7 +19596,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="98" t="s">
         <v>284</v>
       </c>
@@ -19507,7 +19616,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="98" t="s">
         <v>957</v>
       </c>
@@ -19523,7 +19632,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="98" t="s">
         <v>544</v>
       </c>
@@ -19543,7 +19652,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="98" t="s">
         <v>623</v>
       </c>
@@ -19563,7 +19672,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="98" t="s">
         <v>342</v>
       </c>
@@ -19581,7 +19690,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="98" t="s">
         <v>326</v>
       </c>
@@ -19599,7 +19708,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="98" t="s">
         <v>652</v>
       </c>
@@ -19617,7 +19726,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="98" t="s">
         <v>269</v>
       </c>
@@ -19637,7 +19746,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="98" t="s">
         <v>241</v>
       </c>
@@ -19655,7 +19764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="98" t="s">
         <v>953</v>
       </c>
@@ -19671,7 +19780,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="98" t="s">
         <v>285</v>
       </c>
@@ -19717,27 +19826,27 @@
       <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167" t="s">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="171" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="169"/>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="172"/>
+      <c r="E1" s="173"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="109" t="s">
         <v>964</v>
       </c>
@@ -19757,7 +19866,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
         <v>625</v>
       </c>
@@ -19769,7 +19878,7 @@
       <c r="E3" s="102"/>
       <c r="F3" s="99"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="98" t="s">
         <v>851</v>
       </c>
@@ -19785,7 +19894,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
         <v>850</v>
       </c>
@@ -19801,7 +19910,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="98" t="s">
         <v>741</v>
       </c>
@@ -19822,7 +19931,7 @@
       </c>
       <c r="G6" s="107"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
         <v>898</v>
       </c>
@@ -19838,7 +19947,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="98" t="s">
         <v>897</v>
       </c>
@@ -19854,7 +19963,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="98" t="s">
         <v>896</v>
       </c>
@@ -19870,7 +19979,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
         <v>894</v>
       </c>
@@ -19887,7 +19996,7 @@
       </c>
       <c r="G10" s="108"/>
     </row>
-    <row r="11" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="98" t="s">
         <v>884</v>
       </c>
@@ -19906,7 +20015,7 @@
       </c>
       <c r="G11" s="108"/>
     </row>
-    <row r="12" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
         <v>858</v>
       </c>
@@ -19925,7 +20034,7 @@
       </c>
       <c r="G12" s="104"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
         <v>909</v>
       </c>
@@ -19943,7 +20052,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
         <v>910</v>
       </c>
@@ -19961,7 +20070,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>911</v>
       </c>
@@ -19979,7 +20088,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="98" t="s">
         <v>912</v>
       </c>
@@ -19998,7 +20107,7 @@
       </c>
       <c r="G16" s="106"/>
     </row>
-    <row r="17" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="98" t="s">
         <v>913</v>
       </c>
@@ -20016,7 +20125,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="98" t="s">
         <v>914</v>
       </c>
@@ -20035,7 +20144,7 @@
       </c>
       <c r="G18" s="105"/>
     </row>
-    <row r="19" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="98" t="s">
         <v>967</v>
       </c>
@@ -20054,7 +20163,7 @@
       </c>
       <c r="G19" s="105"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="98" t="s">
         <v>888</v>
       </c>
@@ -20073,7 +20182,7 @@
       </c>
       <c r="G20" s="105"/>
     </row>
-    <row r="21" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="98" t="s">
         <v>889</v>
       </c>
@@ -20091,7 +20200,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="98" t="s">
         <v>847</v>
       </c>
@@ -20109,7 +20218,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="98" t="s">
         <v>849</v>
       </c>
@@ -20127,7 +20236,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="98" t="s">
         <v>848</v>
       </c>
@@ -20145,7 +20254,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="112" t="s">
         <v>846</v>
       </c>
@@ -20163,7 +20272,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="98" t="s">
         <v>844</v>
       </c>
@@ -20181,7 +20290,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="98" t="s">
         <v>845</v>
       </c>
@@ -20199,7 +20308,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="98" t="s">
         <v>901</v>
       </c>
@@ -20217,7 +20326,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="98" t="s">
         <v>899</v>
       </c>
@@ -20235,7 +20344,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="98" t="s">
         <v>676</v>
       </c>
@@ -20255,7 +20364,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="98" t="s">
         <v>853</v>
       </c>
@@ -20273,7 +20382,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="98" t="s">
         <v>797</v>
       </c>
@@ -20291,7 +20400,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="98" t="s">
         <v>906</v>
       </c>
@@ -20307,7 +20416,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="98" t="s">
         <v>852</v>
       </c>
@@ -20325,7 +20434,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="98" t="s">
         <v>890</v>
       </c>
@@ -20343,7 +20452,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="98" t="s">
         <v>895</v>
       </c>
@@ -20361,7 +20470,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="98" t="s">
         <v>893</v>
       </c>
@@ -20379,7 +20488,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="98" t="s">
         <v>877</v>
       </c>
@@ -20398,7 +20507,7 @@
       </c>
       <c r="G38" s="106"/>
     </row>
-    <row r="39" spans="1:7" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="57.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="98" t="s">
         <v>573</v>
       </c>
@@ -20414,7 +20523,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="98" t="s">
         <v>878</v>
       </c>
@@ -20432,7 +20541,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="98" t="s">
         <v>886</v>
       </c>
@@ -20450,7 +20559,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="34.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="98" t="s">
         <v>593</v>
       </c>
@@ -20470,7 +20579,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="98" t="s">
         <v>594</v>
       </c>
@@ -20490,7 +20599,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="98" t="s">
         <v>922</v>
       </c>
@@ -20508,7 +20617,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="98" t="s">
         <v>900</v>
       </c>
@@ -20524,7 +20633,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="98" t="s">
         <v>891</v>
       </c>
@@ -20540,7 +20649,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="46.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="98" t="s">
         <v>892</v>
       </c>
@@ -20556,50 +20665,50 @@
         <v>961</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="106"/>
       <c r="B49" s="106"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="106"/>
       <c r="B50" s="106"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="106"/>
       <c r="B51" s="106"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="106"/>
       <c r="B52" s="106"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="106"/>
       <c r="B53" s="106"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="106"/>
       <c r="B54" s="106"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="106"/>
       <c r="B55" s="106"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="106"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
     </row>
   </sheetData>
@@ -20626,15 +20735,15 @@
       <selection pane="bottomLeft" activeCell="E58" sqref="E58:L58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
         <v>969</v>
       </c>
@@ -20648,7 +20757,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>360</v>
       </c>
@@ -20663,7 +20772,7 @@
         <v>1.1.0 Nature conservation</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -20678,7 +20787,7 @@
         <v>1.1.1 Strict nature reserves</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -20693,7 +20802,7 @@
         <v>1.1.2 Wilderness area</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -20708,7 +20817,7 @@
         <v>1.1.3 National park</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -20723,7 +20832,7 @@
         <v>1.1.4 Natural feature protection</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -20738,7 +20847,7 @@
         <v>1.1.5 Habitat/species management area</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -20753,7 +20862,7 @@
         <v>1.1.6 Protected landscape</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -20768,7 +20877,7 @@
         <v>1.1.7 Other conserved area</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>361</v>
       </c>
@@ -20780,7 +20889,7 @@
         <v>1.2.0 Managed resource protection</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -20795,7 +20904,7 @@
         <v>1.2.1 Biodiversity</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -20810,7 +20919,7 @@
         <v>1.2.2 Surface water supply</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -20825,7 +20934,7 @@
         <v>1.2.3 Groundwater</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -20840,7 +20949,7 @@
         <v>1.2.4 Landscape</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -20855,7 +20964,7 @@
         <v>1.2.5 Traditional Indigenous uses</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="116" t="s">
         <v>362</v>
       </c>
@@ -20868,7 +20977,7 @@
         <v>1.3.0 Other minimal use</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -20883,7 +20992,7 @@
         <v>1.3.1 Defence land - natural areas</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -20898,7 +21007,7 @@
         <v>1.3.2 Stock route</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -20913,7 +21022,7 @@
         <v>1.3.3 Residual native cover</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -20928,7 +21037,7 @@
         <v>1.3.4 Rehabilitation</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="116" t="s">
         <v>363</v>
       </c>
@@ -20941,7 +21050,7 @@
         <v>2.1.0 Grazing native vegetation</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="116" t="s">
         <v>358</v>
       </c>
@@ -20954,7 +21063,7 @@
         <v>2.2.0 Production native forests</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -20969,7 +21078,7 @@
         <v>2.2.1 Wood production forestry</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -20984,7 +21093,7 @@
         <v>2.2.2 Other forest production</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="116" t="s">
         <v>364</v>
       </c>
@@ -20999,7 +21108,7 @@
         <v>3.1.0 Plantation forests</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -21014,7 +21123,7 @@
         <v>3.1.1 Hardwood plantation forestry</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -21029,7 +21138,7 @@
         <v>3.1.2 Softwood plantation forestry</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -21044,7 +21153,7 @@
         <v>3.1.3 Other forest plantation</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>231</v>
       </c>
@@ -21059,7 +21168,7 @@
         <v>3.1.4 Environmental forest plantation</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="116" t="s">
         <v>365</v>
       </c>
@@ -21074,7 +21183,7 @@
         <v>3.2.0 Grazing modified pastures</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -21089,7 +21198,7 @@
         <v>3.2.1 Native/exotic pasture mosaic</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -21104,7 +21213,7 @@
         <v>3.2.2 Woody fodder plants</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -21119,7 +21228,7 @@
         <v>3.2.3 Pasture legumes</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>221</v>
       </c>
@@ -21134,7 +21243,7 @@
         <v>3.2.4 Pasture legume/grass mixtures</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -21149,7 +21258,7 @@
         <v>3.2.5 Sown grasses</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="116" t="s">
         <v>344</v>
       </c>
@@ -21164,7 +21273,7 @@
         <v>3.3.0 Cropping</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -21179,7 +21288,7 @@
         <v>3.3.1 Cereals</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -21194,7 +21303,7 @@
         <v>3.3.2 Beverage and spice crops</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -21209,7 +21318,7 @@
         <v>3.3.3 Hay and silage</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -21224,7 +21333,7 @@
         <v>3.3.4 Oilseeds</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -21239,7 +21348,7 @@
         <v>3.3.5 Sugar</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>223</v>
       </c>
@@ -21254,7 +21363,7 @@
         <v>3.3.6 Cotton</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>224</v>
       </c>
@@ -21269,7 +21378,7 @@
         <v>3.3.7 Alkaloid poppies</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>225</v>
       </c>
@@ -21284,7 +21393,7 @@
         <v>3.3.8 Pulses</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="116" t="s">
         <v>366</v>
       </c>
@@ -21299,7 +21408,7 @@
         <v>3.4.0 Perennial horticulture</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -21314,7 +21423,7 @@
         <v>3.4.1 Tree fruits</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -21329,7 +21438,7 @@
         <v>3.4.2 Olives</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -21344,7 +21453,7 @@
         <v>3.4.3 Tree nuts</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -21359,7 +21468,7 @@
         <v>3.4.4 Vine fruits</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -21374,7 +21483,7 @@
         <v>3.4.5 Shrub berries and fruits</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -21389,7 +21498,7 @@
         <v>3.4.6 Perennial flowers and bulbs</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -21404,7 +21513,7 @@
         <v>3.4.7 Perennial vegetables and herbs</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>440</v>
       </c>
@@ -21419,7 +21528,7 @@
         <v>3.4.8 Citrus</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>442</v>
       </c>
@@ -21434,7 +21543,7 @@
         <v>3.4.9 Grapes</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="116" t="s">
         <v>367</v>
       </c>
@@ -21449,7 +21558,7 @@
         <v>3.5.0 Seasonal horticulture</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -21464,7 +21573,7 @@
         <v>3.5.1 Seasonal fruits</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -21479,7 +21588,7 @@
         <v>3.5.2 Seasonal flowers and bulbs</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="153" t="s">
         <v>5</v>
       </c>
@@ -21504,7 +21613,7 @@
       <c r="K58" s="153"/>
       <c r="L58" s="153"/>
     </row>
-    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="116" t="s">
         <v>389</v>
       </c>
@@ -21517,7 +21626,7 @@
         <v>3.6.0 Land in transition</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -21532,7 +21641,7 @@
         <v>3.6.1 Degraded land</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -21547,7 +21656,7 @@
         <v>3.6.2 Abandoned land</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -21562,7 +21671,7 @@
         <v>3.6.3 Land under rehabilitation</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -21577,7 +21686,7 @@
         <v>3.6.4 No defined use</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>444</v>
       </c>
@@ -21592,7 +21701,7 @@
         <v>3.6.5 Abandoned perennial horticulture</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="116" t="s">
         <v>359</v>
       </c>
@@ -21607,7 +21716,7 @@
         <v>4.1.0 Irrigated plantation forests</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -21622,7 +21731,7 @@
         <v>4.1.1 Irrigated hardwood plantation forestry</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -21637,7 +21746,7 @@
         <v>4.1.2 Irrigated softwood plantation forestry</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -21652,7 +21761,7 @@
         <v>4.1.3 Irrigated other forest plantation</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -21667,7 +21776,7 @@
         <v>4.1.4 Irrigated environmental forest plantation</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="116" t="s">
         <v>352</v>
       </c>
@@ -21682,7 +21791,7 @@
         <v>4.2.0 Grazing irrigated modified pastures</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -21697,7 +21806,7 @@
         <v>4.2.1 Irrigated woody fodder plants</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -21712,7 +21821,7 @@
         <v>4.2.2 Irrigated pasture legumes</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -21727,7 +21836,7 @@
         <v>4.2.3 Irrigated legume/grass mixtures</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -21742,7 +21851,7 @@
         <v>4.2.4 Irrigated sown grasses</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="116" t="s">
         <v>345</v>
       </c>
@@ -21754,7 +21863,7 @@
         <v>4.3.0 Irrigated cropping</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -21769,7 +21878,7 @@
         <v>4.3.1 Irrigated cereals</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -21784,7 +21893,7 @@
         <v>4.3.2 Irrigated beverage and spice crops</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -21799,7 +21908,7 @@
         <v>4.3.3 Irrigated hay and silage</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -21814,7 +21923,7 @@
         <v>4.3.4 Irrigated oilseeds</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -21829,7 +21938,7 @@
         <v>4.3.5 Irrigated sugar</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>228</v>
       </c>
@@ -21844,7 +21953,7 @@
         <v>4.3.6 Irrigated cotton</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>229</v>
       </c>
@@ -21859,7 +21968,7 @@
         <v>4.3.7 Irrigated alkaloid poppies</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>230</v>
       </c>
@@ -21874,7 +21983,7 @@
         <v>4.3.8 Irrigated pulses</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>436</v>
       </c>
@@ -21889,7 +21998,7 @@
         <v>4.3.9 Irrigated rice</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="116" t="s">
         <v>368</v>
       </c>
@@ -21904,7 +22013,7 @@
         <v>4.4.0 Irrigated perennial horticulture</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -21919,7 +22028,7 @@
         <v>4.4.1 Irrigated tree fruits</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -21934,7 +22043,7 @@
         <v>4.4.2 Irrigated olives</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -21949,7 +22058,7 @@
         <v>4.4.3 Irrigated tree nuts</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -21964,7 +22073,7 @@
         <v>4.4.4 Irrigated vine fruits</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -21979,7 +22088,7 @@
         <v>4.4.5 Irrigated shrub berries and fruits</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>37</v>
       </c>
@@ -21994,7 +22103,7 @@
         <v>4.4.6 Irrigated  perennial flowers and bulbs</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -22009,7 +22118,7 @@
         <v>4.4.7 Irrigated perennial vegetables and herbs</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>439</v>
       </c>
@@ -22024,7 +22133,7 @@
         <v>4.4.8 Irrigated citrus</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>441</v>
       </c>
@@ -22039,7 +22148,7 @@
         <v>4.4.9 Irrigated grapes</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="116" t="s">
         <v>369</v>
       </c>
@@ -22054,7 +22163,7 @@
         <v>4.5.0 Irrigated seasonal horticulture</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -22069,7 +22178,7 @@
         <v>4.5.1 Irrigated seasonal fruits</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -22084,7 +22193,7 @@
         <v>4.5.2 Irrigated seasonal flowers and bulbs</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -22099,7 +22208,7 @@
         <v>4.5.3 Irrigated seasonal vegetables and herbs</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>47</v>
       </c>
@@ -22114,7 +22223,7 @@
         <v>4.5.4 Irrigated turf farming</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="116" t="s">
         <v>392</v>
       </c>
@@ -22127,7 +22236,7 @@
         <v>4.6.0 Irrigated land in transition</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -22142,7 +22251,7 @@
         <v>4.6.1 Degraded irrigated land</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -22157,7 +22266,7 @@
         <v>4.6.2 Abandoned irrigated land</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -22172,7 +22281,7 @@
         <v>4.6.3 Irrigated land under rehabilitation</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -22187,7 +22296,7 @@
         <v>4.6.4 No defined use - irrigation</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>446</v>
       </c>
@@ -22202,7 +22311,7 @@
         <v>4.6.5 Abandoned irrigated perennial horticulture</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="116" t="s">
         <v>333</v>
       </c>
@@ -22217,7 +22326,7 @@
         <v>5.1.0 Intensive horticulture</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -22232,7 +22341,7 @@
         <v>5.1.1 Production nurseries</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -22247,7 +22356,7 @@
         <v>5.1.2 Shadehouses</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -22262,7 +22371,7 @@
         <v>5.1.3 Glasshouses</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>450</v>
       </c>
@@ -22277,7 +22386,7 @@
         <v>5.1.4 Glasshouses (hydroponic)</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>520</v>
       </c>
@@ -22292,7 +22401,7 @@
         <v>5.1.5 Abandoned intensive horticulture</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="116" t="s">
         <v>355</v>
       </c>
@@ -22305,7 +22414,7 @@
         <v>5.2.0 Intensive animal production</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -22320,7 +22429,7 @@
         <v>5.2.1 Dairy sheds and yards</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -22335,7 +22444,7 @@
         <v>5.2.2 Feedlots</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -22350,7 +22459,7 @@
         <v>5.2.3 Poultry farms</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -22365,7 +22474,7 @@
         <v>5.2.4 Piggeries</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -22380,7 +22489,7 @@
         <v>5.2.5 Aquaculture</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -22395,7 +22504,7 @@
         <v>5.2.6 Horse studs</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>420</v>
       </c>
@@ -22410,7 +22519,7 @@
         <v>5.2.7 Saleyards/stockyards</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>452</v>
       </c>
@@ -22425,7 +22534,7 @@
         <v>5.2.8 Abandoned intensive animal production</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="116" t="s">
         <v>370</v>
       </c>
@@ -22440,7 +22549,7 @@
         <v>5.3.0 Manufacturing and industrial</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>435</v>
       </c>
@@ -22455,7 +22564,7 @@
         <v>5.3.1 General purpose factory</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>407</v>
       </c>
@@ -22470,7 +22579,7 @@
         <v>5.3.2 Food processing factory</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>409</v>
       </c>
@@ -22485,7 +22594,7 @@
         <v>5.3.3 Major industrial complex</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>411</v>
       </c>
@@ -22500,7 +22609,7 @@
         <v>5.3.4 Bulk grain storage</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>413</v>
       </c>
@@ -22515,7 +22624,7 @@
         <v>5.3.5 Abattoirs</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>414</v>
       </c>
@@ -22530,7 +22639,7 @@
         <v>5.3.6 Oil refinery</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>416</v>
       </c>
@@ -22545,7 +22654,7 @@
         <v>5.3.7 Sawmill</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>417</v>
       </c>
@@ -22560,7 +22669,7 @@
         <v>5.3.8 Abandoned manufacturing and industrial</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="116" t="s">
         <v>371</v>
       </c>
@@ -22575,7 +22684,7 @@
         <v>5.4.0 Residential and farm infrastructure</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>127</v>
       </c>
@@ -22590,7 +22699,7 @@
         <v>5.4.1 Urban residential</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -22605,7 +22714,7 @@
         <v>5.4.2 Rural residential with agriculture</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>388</v>
       </c>
@@ -22620,7 +22729,7 @@
         <v>5.4.3 Rural residential without agriculture</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>432</v>
       </c>
@@ -22635,7 +22744,7 @@
         <v>5.4.4 Remote communities</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>433</v>
       </c>
@@ -22650,7 +22759,7 @@
         <v>5.4.5 Farm buildings/infrastructure</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="116" t="s">
         <v>372</v>
       </c>
@@ -22665,7 +22774,7 @@
         <v>5.5.0 Services</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -22680,7 +22789,7 @@
         <v>5.5.1 Commercial services</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>133</v>
       </c>
@@ -22695,7 +22804,7 @@
         <v>5.5.2 Public services</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>135</v>
       </c>
@@ -22710,7 +22819,7 @@
         <v>5.5.3 Recreation and culture</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -22725,7 +22834,7 @@
         <v>5.5.4 Defence facilities - urban</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -22740,7 +22849,7 @@
         <v>5.5.5 Research facilities</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="116" t="s">
         <v>373</v>
       </c>
@@ -22755,7 +22864,7 @@
         <v>5.6.0 Utilities</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -22770,7 +22879,7 @@
         <v>5.6.1 Fuel powered electricity generation</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -22785,7 +22894,7 @@
         <v>5.6.2 Hydro electricity generation</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>427</v>
       </c>
@@ -22800,7 +22909,7 @@
         <v>5.6.3 Wind electricity generation</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>429</v>
       </c>
@@ -22815,7 +22924,7 @@
         <v>5.6.4 Solar electricity generation</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>425</v>
       </c>
@@ -22830,7 +22939,7 @@
         <v>5.6.5 Electricity substations and transmission</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>460</v>
       </c>
@@ -22845,7 +22954,7 @@
         <v>5.6.6 Gas treatment, storage and transmission</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>525</v>
       </c>
@@ -22860,7 +22969,7 @@
         <v>5.6.7 Water extraction and transmission</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="116" t="s">
         <v>374</v>
       </c>
@@ -22875,7 +22984,7 @@
         <v>5.7.0 Transport and communication</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -22890,7 +22999,7 @@
         <v>5.7.1 Airports/aerodromes</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>147</v>
       </c>
@@ -22905,7 +23014,7 @@
         <v>5.7.2 Roads</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -22920,7 +23029,7 @@
         <v>5.7.3 Railways</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -22935,7 +23044,7 @@
         <v>5.7.4 Ports and water transport</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -22950,7 +23059,7 @@
         <v>5.7.5 Navigation and communication</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="116" t="s">
         <v>375</v>
       </c>
@@ -22965,7 +23074,7 @@
         <v>5.8.0 Mining</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -22980,7 +23089,7 @@
         <v>5.8.1 Mines</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -22995,7 +23104,7 @@
         <v>5.8.2 Quarries</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -23010,7 +23119,7 @@
         <v>5.8.3 Tailings</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>421</v>
       </c>
@@ -23025,7 +23134,7 @@
         <v>5.8.4 Extractive Industry not in use</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="116" t="s">
         <v>376</v>
       </c>
@@ -23040,7 +23149,7 @@
         <v>5.9.0 Waste treatment and disposal</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -23055,7 +23164,7 @@
         <v>5.9.1 Effluent pond</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -23070,7 +23179,7 @@
         <v>5.9.2 Landfill</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -23085,7 +23194,7 @@
         <v>5.9.3 Solid garbage</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -23100,7 +23209,7 @@
         <v>5.9.4 Incinerators</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -23115,7 +23224,7 @@
         <v>5.9.5 Sewage/sewerage</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="116" t="s">
         <v>377</v>
       </c>
@@ -23128,7 +23237,7 @@
         <v>6.1.0 Lake</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>173</v>
       </c>
@@ -23143,7 +23252,7 @@
         <v>6.1.1 Lake - conservation</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -23158,7 +23267,7 @@
         <v>6.1.2 Lake - production</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -23173,7 +23282,7 @@
         <v>6.1.3 Lake - intensive use</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>456</v>
       </c>
@@ -23188,7 +23297,7 @@
         <v>6.1.4 Lake - saline</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>456</v>
       </c>
@@ -23203,7 +23312,7 @@
         <v>6.1.4 Lake - saline</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="116" t="s">
         <v>378</v>
       </c>
@@ -23218,7 +23327,7 @@
         <v>6.2.0 Reservoir/dam</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -23233,7 +23342,7 @@
         <v>6.2.1 Reservoir</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -23248,7 +23357,7 @@
         <v>6.2.2 Water storage - intensive use/farm dams</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -23263,7 +23372,7 @@
         <v>6.2.3 Evaporation basin</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="116" t="s">
         <v>379</v>
       </c>
@@ -23278,7 +23387,7 @@
         <v>6.3.0 River</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -23293,7 +23402,7 @@
         <v>6.3.1 River - conservation</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>188</v>
       </c>
@@ -23308,7 +23417,7 @@
         <v>6.3.2 River - production</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>190</v>
       </c>
@@ -23323,7 +23432,7 @@
         <v>6.3.3 River - intensive use</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="116" t="s">
         <v>380</v>
       </c>
@@ -23338,7 +23447,7 @@
         <v>6.4.0 Channel/aqueduct</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -23353,7 +23462,7 @@
         <v>6.4.1 Supply channel/aqueduct</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -23368,7 +23477,7 @@
         <v>6.4.2 Drainage channel/aqueduct</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>455</v>
       </c>
@@ -23383,7 +23492,7 @@
         <v>6.4.3 Stormwater</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="116" t="s">
         <v>381</v>
       </c>
@@ -23396,7 +23505,7 @@
         <v>6.5.0 Marsh/wetland</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -23411,7 +23520,7 @@
         <v>6.5.1 Marsh/wetland - conservation</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -23426,7 +23535,7 @@
         <v>6.5.2 Marsh/wetland - production</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -23441,7 +23550,7 @@
         <v>6.5.3 Marsh/wetland - intensive use</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>458</v>
       </c>
@@ -23456,7 +23565,7 @@
         <v>6.5.4 Marsh/wetland - saline</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="116" t="s">
         <v>382</v>
       </c>
@@ -23469,7 +23578,7 @@
         <v>6.6.0 Estuary/coastal waters</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>205</v>
       </c>
@@ -23484,7 +23593,7 @@
         <v>6.6.1 Estuary/coastal waters - conservation</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>205</v>
       </c>
@@ -23499,7 +23608,7 @@
         <v>6.6.1 Estuary/coastal waters - conservation</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -23514,7 +23623,7 @@
         <v>6.6.2 Estuary/coastal waters - production</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -23529,7 +23638,7 @@
         <v>6.6.2 Estuary/coastal waters - production</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>209</v>
       </c>
@@ -23544,7 +23653,7 @@
         <v>6.6.3 Estuary/coastal waters - intensive use</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -23568,80 +23677,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CB4D65-9DAF-4373-8A3E-AE42C6AE42AD}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="104.140625" style="151" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="151"/>
+    <col min="1" max="1" width="104.109375" style="151" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="160" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="151" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="151" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="151" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="151" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="171" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="161" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="171" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="161" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="170" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="160" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="151" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23649,6 +23735,86 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB407F-CA69-4F97-BCFC-D627CEC32743}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="151" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="151" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="160" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="151" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="151" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="151" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="151" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="161" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="161" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="160" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="151" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="151" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="174" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AAEF26-8574-478F-B8F3-4FDF27AEE69E}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N189"/>
@@ -23658,67 +23824,67 @@
       <selection pane="bottomLeft" activeCell="N4" sqref="N4:N189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="8" width="35.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="7" max="8" width="35.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="173" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:14" s="163" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="162" t="s">
         <v>1470</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="162" t="s">
         <v>1469</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="162" t="s">
         <v>1471</v>
       </c>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="162" t="s">
         <v>1474</v>
       </c>
-      <c r="E1" s="172" t="s">
+      <c r="E1" s="162" t="s">
         <v>1475</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="162" t="s">
         <v>1476</v>
       </c>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="162" t="s">
         <v>1477</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="162" t="s">
         <v>1478</v>
       </c>
-      <c r="I1" s="172" t="s">
+      <c r="I1" s="162" t="s">
         <v>1479</v>
       </c>
-      <c r="J1" s="172" t="s">
+      <c r="J1" s="162" t="s">
         <v>1480</v>
       </c>
-      <c r="K1" s="172" t="s">
+      <c r="K1" s="162" t="s">
         <v>1481</v>
       </c>
-      <c r="L1" s="172" t="s">
+      <c r="L1" s="162" t="s">
         <v>1482</v>
       </c>
-      <c r="M1" s="172" t="s">
+      <c r="M1" s="162" t="s">
         <v>1483</v>
       </c>
-      <c r="N1" s="172" t="s">
+      <c r="N1" s="162" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="154" t="s">
         <v>1025</v>
       </c>
@@ -23762,7 +23928,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1070</v>
       </c>
@@ -23802,7 +23968,7 @@
         <v>1.1.1 Strict nature reserves - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>1071</v>
       </c>
@@ -23842,7 +24008,7 @@
         <v>1.1.2 Wilderness area - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1072</v>
       </c>
@@ -23882,7 +24048,7 @@
         <v>1.1.3 National park - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1073</v>
       </c>
@@ -23922,7 +24088,7 @@
         <v>1.1.4 Natural feature protection - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1074</v>
       </c>
@@ -23962,7 +24128,7 @@
         <v>1.1.5 Habitat/species management area - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1075</v>
       </c>
@@ -24002,7 +24168,7 @@
         <v>1.1.6 Protected landscape - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1076</v>
       </c>
@@ -24042,7 +24208,7 @@
         <v>1.1.7 Other conserved area - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1242</v>
       </c>
@@ -24078,7 +24244,7 @@
         <v>1.2.0 Managed resource protection - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1077</v>
       </c>
@@ -24118,7 +24284,7 @@
         <v>1.2.1 Biodiversity - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1078</v>
       </c>
@@ -24158,7 +24324,7 @@
         <v>1.2.2 Surface water supply - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1079</v>
       </c>
@@ -24198,7 +24364,7 @@
         <v>1.2.3 Groundwater - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1080</v>
       </c>
@@ -24238,7 +24404,7 @@
         <v>1.2.4 Landscape - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1081</v>
       </c>
@@ -24278,7 +24444,7 @@
         <v>1.2.5 Traditional Indigenous uses - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1243</v>
       </c>
@@ -24314,7 +24480,7 @@
         <v>1.3.0 Other minimal use - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1082</v>
       </c>
@@ -24354,7 +24520,7 @@
         <v>1.3.1 Defence land - natural areas - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1083</v>
       </c>
@@ -24394,7 +24560,7 @@
         <v>1.3.2 Stock route - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1084</v>
       </c>
@@ -24434,7 +24600,7 @@
         <v>1.3.3 Residual native cover - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1085</v>
       </c>
@@ -24474,7 +24640,7 @@
         <v>1.3.4 Rehabilitation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1244</v>
       </c>
@@ -24510,7 +24676,7 @@
         <v>2.1.0 Grazing native vegetation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1245</v>
       </c>
@@ -24546,7 +24712,7 @@
         <v>2.2.0 Production native forests - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1086</v>
       </c>
@@ -24586,7 +24752,7 @@
         <v>2.2.1 Wood production forestry - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1087</v>
       </c>
@@ -24626,7 +24792,7 @@
         <v>2.2.2 Other forest production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1246</v>
       </c>
@@ -24663,7 +24829,7 @@
         <v>3.1.0 Plantation forests - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1088</v>
       </c>
@@ -24701,7 +24867,7 @@
         <v>3.1.1 Hardwood plantation forestry - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1089</v>
       </c>
@@ -24739,7 +24905,7 @@
         <v>3.1.2 Softwood plantation forestry - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1090</v>
       </c>
@@ -24777,7 +24943,7 @@
         <v>3.1.3 Other forest plantation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1091</v>
       </c>
@@ -24815,7 +24981,7 @@
         <v>3.1.4 Environmental forest plantation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1247</v>
       </c>
@@ -24852,7 +25018,7 @@
         <v>3.2.0 Grazing modified pastures - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1092</v>
       </c>
@@ -24890,7 +25056,7 @@
         <v>3.2.1 Native/exotic pasture mosaic - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>1458</v>
       </c>
@@ -24928,7 +25094,7 @@
         <v>3.2.2 Woody fodder plants - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1093</v>
       </c>
@@ -24966,7 +25132,7 @@
         <v>3.2.3 Pasture legumes - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1094</v>
       </c>
@@ -25004,7 +25170,7 @@
         <v>3.2.4 Pasture legume/grass mixtures - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1095</v>
       </c>
@@ -25042,7 +25208,7 @@
         <v>3.2.5 Sown grasses - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1232</v>
       </c>
@@ -25079,7 +25245,7 @@
         <v>3.3.0 Cropping - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1096</v>
       </c>
@@ -25117,7 +25283,7 @@
         <v>3.3.1 Cereals - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1097</v>
       </c>
@@ -25155,7 +25321,7 @@
         <v>3.3.2 Beverage and spice crops - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1265</v>
       </c>
@@ -25193,7 +25359,7 @@
         <v>3.3.3 Hay and silage - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1098</v>
       </c>
@@ -25231,7 +25397,7 @@
         <v>3.3.4 Oilseeds - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1099</v>
       </c>
@@ -25269,7 +25435,7 @@
         <v>3.3.5 Sugar - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1100</v>
       </c>
@@ -25307,7 +25473,7 @@
         <v>3.3.6 Cotton - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1101</v>
       </c>
@@ -25345,7 +25511,7 @@
         <v>3.3.7 Alkaloid poppies - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1102</v>
       </c>
@@ -25383,7 +25549,7 @@
         <v>3.3.8 Pulses - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1248</v>
       </c>
@@ -25420,7 +25586,7 @@
         <v>3.4.0 Perennial horticulture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1103</v>
       </c>
@@ -25458,7 +25624,7 @@
         <v>3.4.1 Tree fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1104</v>
       </c>
@@ -25496,7 +25662,7 @@
         <v>3.4.2 Olives - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1105</v>
       </c>
@@ -25534,7 +25700,7 @@
         <v>3.4.3 Tree nuts - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1106</v>
       </c>
@@ -25572,7 +25738,7 @@
         <v>3.4.4 Vine fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1107</v>
       </c>
@@ -25610,7 +25776,7 @@
         <v>3.4.5 Shrub berries and fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1108</v>
       </c>
@@ -25648,7 +25814,7 @@
         <v>3.4.6 Perennial flowers and bulbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1109</v>
       </c>
@@ -25686,7 +25852,7 @@
         <v>3.4.7 Perennial vegetables and herbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1110</v>
       </c>
@@ -25724,7 +25890,7 @@
         <v>3.4.8 Citrus - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1111</v>
       </c>
@@ -25762,7 +25928,7 @@
         <v>3.4.9 Grapes - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>1459</v>
       </c>
@@ -25800,7 +25966,7 @@
         <v>3.5.1 Seasonal fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1112</v>
       </c>
@@ -25838,7 +26004,7 @@
         <v>3.5.2 Seasonal flowers and bulbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1113</v>
       </c>
@@ -25876,7 +26042,7 @@
         <v>3.5.4 Seasonal vegetables and herbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1114</v>
       </c>
@@ -25916,7 +26082,7 @@
         <v>3.6.1 Degraded land - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1115</v>
       </c>
@@ -25956,7 +26122,7 @@
         <v>3.6.2 Abandoned land - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1116</v>
       </c>
@@ -25996,7 +26162,7 @@
         <v>3.6.3 Land under rehabilitation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1117</v>
       </c>
@@ -26036,7 +26202,7 @@
         <v>3.6.4 No defined use - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1118</v>
       </c>
@@ -26076,7 +26242,7 @@
         <v>3.6.5 Abandoned perennial horticulture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1249</v>
       </c>
@@ -26113,7 +26279,7 @@
         <v>4.1.0 Irrigated plantation forests - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1119</v>
       </c>
@@ -26151,7 +26317,7 @@
         <v>4.1.1 Irrigated hardwood plantation forestry - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1120</v>
       </c>
@@ -26189,7 +26355,7 @@
         <v>4.1.2 Irrigated softwood plantation forestry - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1266</v>
       </c>
@@ -26227,7 +26393,7 @@
         <v>4.1.3 Irrigated other forest production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1121</v>
       </c>
@@ -26265,7 +26431,7 @@
         <v>4.1.4 Irrigated environmental forest plantation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1250</v>
       </c>
@@ -26302,7 +26468,7 @@
         <v>4.2.0 Grazing irrigated modified pastures - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1122</v>
       </c>
@@ -26340,7 +26506,7 @@
         <v>4.2.1 Irrigated woody fodder plants - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1123</v>
       </c>
@@ -26378,7 +26544,7 @@
         <v>4.2.2 Irrigated pasture legumes - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1124</v>
       </c>
@@ -26416,7 +26582,7 @@
         <v>4.2.3 Irrigated legume/grass mixtures - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1125</v>
       </c>
@@ -26454,7 +26620,7 @@
         <v>4.2.4 Irrigated sown grasses - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1251</v>
       </c>
@@ -26491,7 +26657,7 @@
         <v>4.3.0 Irrigated cropping - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1126</v>
       </c>
@@ -26529,7 +26695,7 @@
         <v>4.3.1 Irrigated cereals - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1127</v>
       </c>
@@ -26567,7 +26733,7 @@
         <v>4.3.2 Irrigated beverage and spice crops - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1267</v>
       </c>
@@ -26605,7 +26771,7 @@
         <v>4.3.3 Irrigated hay and silage - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1128</v>
       </c>
@@ -26643,7 +26809,7 @@
         <v>4.3.4 Irrigated oilseeds - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1129</v>
       </c>
@@ -26681,7 +26847,7 @@
         <v>4.3.5 Irrigated sugar - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1130</v>
       </c>
@@ -26719,7 +26885,7 @@
         <v>4.3.6 Irrigated cotton - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1131</v>
       </c>
@@ -26757,7 +26923,7 @@
         <v>4.3.7 Irrigated alkaloid poppies - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1132</v>
       </c>
@@ -26795,7 +26961,7 @@
         <v>4.3.8 Irrigated pulses - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1133</v>
       </c>
@@ -26833,7 +26999,7 @@
         <v>4.3.9 Irrigated rice - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1252</v>
       </c>
@@ -26870,7 +27036,7 @@
         <v>4.4.0 Irrigated perennial horticulture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1134</v>
       </c>
@@ -26908,7 +27074,7 @@
         <v>4.4.1 Irrigated tree fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1135</v>
       </c>
@@ -26946,7 +27112,7 @@
         <v>4.4.2 Irrigated olives - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1136</v>
       </c>
@@ -26984,7 +27150,7 @@
         <v>4.4.3 Irrigated tree nuts - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1137</v>
       </c>
@@ -27022,7 +27188,7 @@
         <v>4.4.4 Irrigated vine fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1138</v>
       </c>
@@ -27060,7 +27226,7 @@
         <v>4.4.5 Irrigated shrub berries and fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1139</v>
       </c>
@@ -27098,7 +27264,7 @@
         <v>4.4.6 Irrigated  perennial flowers and bulbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1140</v>
       </c>
@@ -27136,7 +27302,7 @@
         <v>4.4.7 Irrigated perennial vegetables and herbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1141</v>
       </c>
@@ -27174,7 +27340,7 @@
         <v>4.4.8 Irrigated citrus - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1142</v>
       </c>
@@ -27212,7 +27378,7 @@
         <v>4.4.9 Irrigated grapes - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="17" t="s">
         <v>1460</v>
       </c>
@@ -27250,7 +27416,7 @@
         <v>4.5.1 Irrigated seasonal fruits - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1143</v>
       </c>
@@ -27288,7 +27454,7 @@
         <v>4.5.2 Irrigated seasonal flowers and bulbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1144</v>
       </c>
@@ -27326,7 +27492,7 @@
         <v>4.5.3 Irrigated seasonal vegetables and herbs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1145</v>
       </c>
@@ -27364,7 +27530,7 @@
         <v>4.5.4 Irrigated turf farming - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1146</v>
       </c>
@@ -27404,7 +27570,7 @@
         <v>4.6.1 Degraded irrigated land - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1147</v>
       </c>
@@ -27444,7 +27610,7 @@
         <v>4.6.2 Abandoned irrigated land - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1148</v>
       </c>
@@ -27484,7 +27650,7 @@
         <v>4.6.3 Irrigated land under rehabilitation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1149</v>
       </c>
@@ -27524,7 +27690,7 @@
         <v>4.6.4 No defined use - irrigation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1150</v>
       </c>
@@ -27564,7 +27730,7 @@
         <v>4.6.5 Abandoned irrigated perennial horticulture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1253</v>
       </c>
@@ -27601,7 +27767,7 @@
         <v>5.1.0 Intensive horticulture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1151</v>
       </c>
@@ -27639,7 +27805,7 @@
         <v>5.1.1 Production nurseries - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1152</v>
       </c>
@@ -27677,7 +27843,7 @@
         <v>5.1.2 Shadehouses - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1153</v>
       </c>
@@ -27715,7 +27881,7 @@
         <v>5.1.3 Glasshouses - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1154</v>
       </c>
@@ -27753,7 +27919,7 @@
         <v>5.1.4 Glasshouses (hydroponic) - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1155</v>
       </c>
@@ -27791,7 +27957,7 @@
         <v>5.1.5 Abandoned intensive horticulture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1254</v>
       </c>
@@ -27828,7 +27994,7 @@
         <v>5.2.0 Intensive animal production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1156</v>
       </c>
@@ -27866,7 +28032,7 @@
         <v>5.2.1 Dairy sheds and yards - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1157</v>
       </c>
@@ -27904,7 +28070,7 @@
         <v>5.2.2 Feedlots - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1158</v>
       </c>
@@ -27942,7 +28108,7 @@
         <v>5.2.3 Poultry farms - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1159</v>
       </c>
@@ -27980,7 +28146,7 @@
         <v>5.2.4 Piggeries - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1160</v>
       </c>
@@ -28018,7 +28184,7 @@
         <v>5.2.5 Aquaculture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>1161</v>
       </c>
@@ -28056,7 +28222,7 @@
         <v>5.2.6 Horse studs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>1268</v>
       </c>
@@ -28094,7 +28260,7 @@
         <v>5.2.7 Saleyards/stockyards - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>1162</v>
       </c>
@@ -28132,7 +28298,7 @@
         <v>5.2.8 Abandoned intensive animal production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>1255</v>
       </c>
@@ -28169,7 +28335,7 @@
         <v>5.3.0 Manufacturing and industrial - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>1163</v>
       </c>
@@ -28207,7 +28373,7 @@
         <v>5.3.1 General purpose factory - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>1164</v>
       </c>
@@ -28245,7 +28411,7 @@
         <v>5.3.2 Food processing factory - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>1165</v>
       </c>
@@ -28283,7 +28449,7 @@
         <v>5.3.3 Major industrial complex - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>1166</v>
       </c>
@@ -28321,7 +28487,7 @@
         <v>5.3.4 Bulk grain storage - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>1167</v>
       </c>
@@ -28359,7 +28525,7 @@
         <v>5.3.5 Abattoirs - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>1168</v>
       </c>
@@ -28397,7 +28563,7 @@
         <v>5.3.6 Oil refinery - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>1169</v>
       </c>
@@ -28435,7 +28601,7 @@
         <v>5.3.7 Sawmill - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>1170</v>
       </c>
@@ -28473,7 +28639,7 @@
         <v>5.3.8 Abandoned manufacturing and industrial - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>1256</v>
       </c>
@@ -28510,7 +28676,7 @@
         <v>5.4.0 Residential and farm infrastructure - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1171</v>
       </c>
@@ -28548,7 +28714,7 @@
         <v>5.4.1 Urban residential - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>1172</v>
       </c>
@@ -28586,7 +28752,7 @@
         <v>5.4.2 Rural residential with agriculture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>1173</v>
       </c>
@@ -28624,7 +28790,7 @@
         <v>5.4.3 Rural residential without agriculture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>1174</v>
       </c>
@@ -28662,7 +28828,7 @@
         <v>5.4.4 Remote communities - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>1175</v>
       </c>
@@ -28700,7 +28866,7 @@
         <v>5.4.5 Farm buildings/infrastructure - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>1233</v>
       </c>
@@ -28737,7 +28903,7 @@
         <v>5.5.0 Services - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>1176</v>
       </c>
@@ -28775,7 +28941,7 @@
         <v>5.5.1 Commercial services - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>1177</v>
       </c>
@@ -28813,7 +28979,7 @@
         <v>5.5.2 Public services - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>1178</v>
       </c>
@@ -28851,7 +29017,7 @@
         <v>5.5.3 Recreation and culture - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>1179</v>
       </c>
@@ -28889,7 +29055,7 @@
         <v>5.5.4 Defence facilities - urban - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1180</v>
       </c>
@@ -28927,7 +29093,7 @@
         <v>5.5.5 Research facilities - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1234</v>
       </c>
@@ -28964,7 +29130,7 @@
         <v>5.6.0 Utilities - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1181</v>
       </c>
@@ -29002,7 +29168,7 @@
         <v>5.6.1 Fuel powered electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1182</v>
       </c>
@@ -29040,7 +29206,7 @@
         <v>5.6.2 Hydro electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1183</v>
       </c>
@@ -29078,7 +29244,7 @@
         <v>5.6.3 Wind electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1184</v>
       </c>
@@ -29116,7 +29282,7 @@
         <v>5.6.4 Solar electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1185</v>
       </c>
@@ -29154,7 +29320,7 @@
         <v>5.6.5 Electricity substations and transmission - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1186</v>
       </c>
@@ -29192,7 +29358,7 @@
         <v>5.6.6 Gas treatment, storage and transmission - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1187</v>
       </c>
@@ -29230,7 +29396,7 @@
         <v>5.6.7 Water extraction and transmission - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1257</v>
       </c>
@@ -29267,7 +29433,7 @@
         <v>5.7.0 Transport and communication - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1188</v>
       </c>
@@ -29305,7 +29471,7 @@
         <v>5.7.1 Airports/aerodromes - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1189</v>
       </c>
@@ -29343,7 +29509,7 @@
         <v>5.7.2 Roads - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1190</v>
       </c>
@@ -29381,7 +29547,7 @@
         <v>5.7.3 Railways - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1191</v>
       </c>
@@ -29419,7 +29585,7 @@
         <v>5.7.4 Ports and water transport - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1192</v>
       </c>
@@ -29457,7 +29623,7 @@
         <v>5.7.5 Navigation and communication - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1235</v>
       </c>
@@ -29494,7 +29660,7 @@
         <v>5.8.0 Mining - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1193</v>
       </c>
@@ -29532,7 +29698,7 @@
         <v>5.8.1 Mines - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1194</v>
       </c>
@@ -29570,7 +29736,7 @@
         <v>5.8.2 Quarries - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1195</v>
       </c>
@@ -29608,7 +29774,7 @@
         <v>5.8.3 Tailings - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1196</v>
       </c>
@@ -29646,7 +29812,7 @@
         <v>5.8.4 Extractive Industry not in use - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1258</v>
       </c>
@@ -29683,7 +29849,7 @@
         <v>5.9.0 Waste treatment and disposal - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1197</v>
       </c>
@@ -29721,7 +29887,7 @@
         <v>5.9.1 Effluent pond - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1198</v>
       </c>
@@ -29759,7 +29925,7 @@
         <v>5.9.2 Landfill - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1199</v>
       </c>
@@ -29797,7 +29963,7 @@
         <v>5.9.3 Solid garbage - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1200</v>
       </c>
@@ -29835,7 +30001,7 @@
         <v>5.9.4 Incinerators - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1201</v>
       </c>
@@ -29873,7 +30039,7 @@
         <v>5.9.5 Sewage/sewerage - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>1236</v>
       </c>
@@ -29909,7 +30075,7 @@
         <v>6.0.0 Water - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>1237</v>
       </c>
@@ -29945,7 +30111,7 @@
         <v>6.1.0 Lake - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>1202</v>
       </c>
@@ -29985,7 +30151,7 @@
         <v>6.1.1 Lake - conservation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>1203</v>
       </c>
@@ -30025,7 +30191,7 @@
         <v>6.1.2 Lake - production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>1204</v>
       </c>
@@ -30065,7 +30231,7 @@
         <v>6.1.3 Lake - intensive use - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>1205</v>
       </c>
@@ -30102,7 +30268,7 @@
         <v>6.1.4 Lake - saline - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1238</v>
       </c>
@@ -30139,7 +30305,7 @@
         <v>6.2.0 Reservoir/dam - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>1206</v>
       </c>
@@ -30177,7 +30343,7 @@
         <v>6.2.1 Reservoir - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>1207</v>
       </c>
@@ -30215,7 +30381,7 @@
         <v>6.2.2 Water storage - intensive use/farm dams - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>1208</v>
       </c>
@@ -30253,7 +30419,7 @@
         <v>6.2.3 Evaporation basin - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>1239</v>
       </c>
@@ -30289,7 +30455,7 @@
         <v>6.3.0 River - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>1209</v>
       </c>
@@ -30329,7 +30495,7 @@
         <v>6.3.1 River - conservation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>1210</v>
       </c>
@@ -30369,7 +30535,7 @@
         <v>6.3.2 River - production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>1211</v>
       </c>
@@ -30409,7 +30575,7 @@
         <v>6.3.3 River - intensive use - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>1240</v>
       </c>
@@ -30446,7 +30612,7 @@
         <v>6.4.0 Channel/aqueduct - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1212</v>
       </c>
@@ -30484,7 +30650,7 @@
         <v>6.4.1 Supply channel/aqueduct - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1213</v>
       </c>
@@ -30522,7 +30688,7 @@
         <v>6.4.2 Drainage channel/aqueduct - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>1214</v>
       </c>
@@ -30560,7 +30726,7 @@
         <v>6.4.3 Stormwater - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>1241</v>
       </c>
@@ -30596,7 +30762,7 @@
         <v>6.5.0 Marsh/wetland - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>1215</v>
       </c>
@@ -30636,7 +30802,7 @@
         <v>6.5.1 Marsh/wetland - conservation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1216</v>
       </c>
@@ -30676,7 +30842,7 @@
         <v>6.5.2 Marsh/wetland - production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1217</v>
       </c>
@@ -30716,7 +30882,7 @@
         <v>6.5.3 Marsh/wetland - intensive use - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1218</v>
       </c>
@@ -30754,7 +30920,7 @@
         <v>6.5.4 Marsh/wetland - saline - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1259</v>
       </c>
@@ -30790,7 +30956,7 @@
         <v>6.6.0 Estuary/coastal waters - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1219</v>
       </c>
@@ -30830,7 +30996,7 @@
         <v>6.6.1 Estuary/coastal waters - conservation - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1220</v>
       </c>
@@ -30870,7 +31036,7 @@
         <v>6.6.2 Estuary/coastal waters - production - mapping to IUCN GET</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1221</v>
       </c>
@@ -30954,129 +31120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655D2789-1FB8-4FE0-B6BE-798F6232EAF5}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="152">
-        <v>45436</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152">
-        <v>45436</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C3" s="104" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="152">
-        <v>45436</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="152">
-        <v>45436</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>1454</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="152">
-        <v>45436</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -31208,10 +31252,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31227,19 +31299,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3B5BC2-DD47-4E77-881E-A1ACF4BE00F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D0FDB-FE82-4A84-B892-1C8060F02A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="16770" windowHeight="10410" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="-19545" windowWidth="24195" windowHeight="14235" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="Commods-A4" sheetId="13" r:id="rId3"/>
     <sheet name="commodities" sheetId="9" r:id="rId4"/>
     <sheet name="management" sheetId="10" r:id="rId5"/>
-    <sheet name="ALUM_V8_vertical with IUCN" sheetId="11" r:id="rId6"/>
-    <sheet name="header" sheetId="15" r:id="rId7"/>
-    <sheet name="OldHeaderStuff" sheetId="17" r:id="rId8"/>
+    <sheet name="OldHeaderStuff" sheetId="17" r:id="rId6"/>
+    <sheet name="ALUM_V8_vertical with IUCN" sheetId="11" r:id="rId7"/>
+    <sheet name="header" sheetId="15" r:id="rId8"/>
     <sheet name="SSSOM" sheetId="14" r:id="rId9"/>
     <sheet name="CHANGE_LOG" sheetId="16" r:id="rId10"/>
   </sheets>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5477" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5477" uniqueCount="1480">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -4685,15 +4685,46 @@
   <si>
     <t>v</t>
   </si>
+  <si>
+    <t>sssom: https://w3id.org/sssom/</t>
+  </si>
+  <si>
+    <t>crosswalk: https://w3id.org/env/neap/crosswalk/</t>
+  </si>
+  <si>
+    <t>status: https://w3id.org/env/neap/status/</t>
+  </si>
+  <si>
+    <t>get: https://global-ecosystems.org/explore/</t>
+  </si>
+  <si>
+    <t>semapv: https://w3id.org/semapv/vocab/</t>
+  </si>
+  <si>
+    <t>orcid: https://orcid.org/</t>
+  </si>
+  <si>
+    <t>alum: https://w3id.org/env/neap/alum8/</t>
+  </si>
+  <si>
+    <t>map: http://w3id.org/env/neap/alum8-get/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5356,18 +5387,18 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5376,193 +5407,202 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5570,16 +5610,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5588,127 +5619,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -15329,7 +15361,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="98" t="s">
         <v>683</v>
       </c>
@@ -16765,7 +16797,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="98" t="s">
         <v>602</v>
       </c>
@@ -17173,7 +17205,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="98" t="s">
         <v>769</v>
       </c>
@@ -17687,7 +17719,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="98" t="s">
         <v>574</v>
       </c>
@@ -18957,7 +18989,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="23.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="98" t="s">
         <v>588</v>
       </c>
@@ -20017,7 +20049,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="46.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="98" t="s">
         <v>911</v>
       </c>
@@ -20673,6 +20705,86 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB407F-CA69-4F97-BCFC-D627CEC32743}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="151" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="151" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="159" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="151" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="151" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="151" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="151" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="160" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="160" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="159" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="151" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="173" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="151" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L196"/>
@@ -23622,12 +23734,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CB4D65-9DAF-4373-8A3E-AE42C6AE42AD}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23637,123 +23749,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="159" t="s">
-        <v>1454</v>
+      <c r="A1" s="173" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="151" t="s">
-        <v>1050</v>
+      <c r="A2" s="160" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="151" t="s">
-        <v>1051</v>
+      <c r="A3" s="173" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="151" t="s">
-        <v>1052</v>
+      <c r="A4" s="160" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="151" t="s">
-        <v>1053</v>
+      <c r="A5" s="173" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="160" t="s">
-        <v>1455</v>
+      <c r="A6" s="173" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="160" t="s">
-        <v>1470</v>
+      <c r="A7" s="173" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="159" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FB407F-CA69-4F97-BCFC-D627CEC32743}">
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="151" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="151" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="151" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="151" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="151" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="151" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="160" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="160" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="159" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="151" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="151" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="151" t="s">
-        <v>1471</v>
+      <c r="A8" s="173" t="s">
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
@@ -23766,9 +23798,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -23782,7 +23814,7 @@
     <col min="7" max="8" width="35.08984375" customWidth="1"/>
     <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
     <col min="12" max="12" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="35.08984375" customWidth="1"/>
   </cols>
@@ -31024,24 +31056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -31173,10 +31187,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31192,19 +31234,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE740C0-8789-45AB-9FA7-03AB9D99D211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECE107-4416-4B4A-8A02-564A88018B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5623" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5623" uniqueCount="1492">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -4734,6 +4734,9 @@
   </si>
   <si>
     <t>alum:Intensive-uses</t>
+  </si>
+  <si>
+    <t>T7.1 Annual croplands</t>
   </si>
 </sst>
 </file>
@@ -5737,6 +5740,9 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5766,9 +5772,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6210,25 +6213,25 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="165" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11458,25 +11461,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>1005</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="O1" s="166" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="O1" s="167" t="s">
         <v>1005</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
@@ -11495,10 +11498,10 @@
       <c r="P2" s="126" t="s">
         <v>1007</v>
       </c>
-      <c r="Q2" s="166" t="s">
+      <c r="Q2" s="167" t="s">
         <v>951</v>
       </c>
-      <c r="R2" s="166"/>
+      <c r="R2" s="167"/>
       <c r="Y2" s="131" t="s">
         <v>960</v>
       </c>
@@ -11519,10 +11522,10 @@
       <c r="AO2" s="143" t="s">
         <v>960</v>
       </c>
-      <c r="AP2" s="168" t="s">
+      <c r="AP2" s="169" t="s">
         <v>1007</v>
       </c>
-      <c r="AQ2" s="168"/>
+      <c r="AQ2" s="169"/>
       <c r="AR2" s="144"/>
       <c r="AS2" s="144"/>
       <c r="AT2" s="145" t="s">
@@ -11589,10 +11592,10 @@
       <c r="AS3" s="141" t="s">
         <v>1009</v>
       </c>
-      <c r="AT3" s="167" t="s">
+      <c r="AT3" s="168" t="s">
         <v>946</v>
       </c>
-      <c r="AU3" s="167"/>
+      <c r="AU3" s="168"/>
       <c r="AV3" s="141" t="s">
         <v>947</v>
       </c>
@@ -14782,13 +14785,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="171" t="s">
+      <c r="A1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="172" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
@@ -19846,13 +19849,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169"/>
-      <c r="B1" s="170"/>
-      <c r="C1" s="171" t="s">
+      <c r="A1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="172" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
@@ -23828,8 +23831,8 @@
   <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:XFD62"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25176,7 +25179,7 @@
         <v>1482</v>
       </c>
       <c r="E35" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F35" s="154" t="s">
         <v>1033</v>
@@ -25212,7 +25215,7 @@
         <v>1482</v>
       </c>
       <c r="E36" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F36" s="154" t="s">
         <v>1033</v>
@@ -25249,7 +25252,7 @@
         <v>1482</v>
       </c>
       <c r="E37" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F37" s="154" t="s">
         <v>1033</v>
@@ -25286,7 +25289,7 @@
         <v>1482</v>
       </c>
       <c r="E38" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F38" s="154" t="s">
         <v>1033</v>
@@ -25323,7 +25326,7 @@
         <v>1482</v>
       </c>
       <c r="E39" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F39" s="154" t="s">
         <v>1033</v>
@@ -25360,7 +25363,7 @@
         <v>1482</v>
       </c>
       <c r="E40" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F40" s="154" t="s">
         <v>1033</v>
@@ -25397,7 +25400,7 @@
         <v>1482</v>
       </c>
       <c r="E41" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F41" s="154" t="s">
         <v>1033</v>
@@ -25434,7 +25437,7 @@
         <v>1482</v>
       </c>
       <c r="E42" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F42" s="154" t="s">
         <v>1033</v>
@@ -25471,7 +25474,7 @@
         <v>1482</v>
       </c>
       <c r="E43" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F43" s="154" t="s">
         <v>1033</v>
@@ -25508,7 +25511,7 @@
         <v>1482</v>
       </c>
       <c r="E44" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F44" s="154" t="s">
         <v>1033</v>
@@ -25544,7 +25547,7 @@
         <v>1482</v>
       </c>
       <c r="E45" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F45" s="154" t="s">
         <v>1033</v>
@@ -25581,7 +25584,7 @@
         <v>1482</v>
       </c>
       <c r="E46" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F46" s="154" t="s">
         <v>1033</v>
@@ -25618,7 +25621,7 @@
         <v>1482</v>
       </c>
       <c r="E47" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F47" s="154" t="s">
         <v>1033</v>
@@ -25655,7 +25658,7 @@
         <v>1482</v>
       </c>
       <c r="E48" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F48" s="154" t="s">
         <v>1033</v>
@@ -25692,7 +25695,7 @@
         <v>1482</v>
       </c>
       <c r="E49" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F49" s="154" t="s">
         <v>1033</v>
@@ -25729,7 +25732,7 @@
         <v>1482</v>
       </c>
       <c r="E50" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F50" s="154" t="s">
         <v>1033</v>
@@ -25766,7 +25769,7 @@
         <v>1482</v>
       </c>
       <c r="E51" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F51" s="154" t="s">
         <v>1033</v>
@@ -25803,7 +25806,7 @@
         <v>1482</v>
       </c>
       <c r="E52" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F52" s="154" t="s">
         <v>1033</v>
@@ -25840,7 +25843,7 @@
         <v>1482</v>
       </c>
       <c r="E53" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F53" s="154" t="s">
         <v>1033</v>
@@ -25877,7 +25880,7 @@
         <v>1482</v>
       </c>
       <c r="E54" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F54" s="154" t="s">
         <v>1033</v>
@@ -25914,7 +25917,7 @@
         <v>1482</v>
       </c>
       <c r="E55" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F55" s="154" t="s">
         <v>1033</v>
@@ -25951,7 +25954,7 @@
         <v>1482</v>
       </c>
       <c r="E56" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F56" s="154" t="s">
         <v>1033</v>
@@ -26556,7 +26559,7 @@
         <v>1482</v>
       </c>
       <c r="E72" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F72" s="154" t="s">
         <v>1033</v>
@@ -26592,7 +26595,7 @@
         <v>1482</v>
       </c>
       <c r="E73" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F73" s="154" t="s">
         <v>1033</v>
@@ -26629,7 +26632,7 @@
         <v>1482</v>
       </c>
       <c r="E74" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F74" s="154" t="s">
         <v>1033</v>
@@ -26666,7 +26669,7 @@
         <v>1482</v>
       </c>
       <c r="E75" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F75" s="154" t="s">
         <v>1033</v>
@@ -26703,7 +26706,7 @@
         <v>1482</v>
       </c>
       <c r="E76" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F76" s="154" t="s">
         <v>1033</v>
@@ -26740,7 +26743,7 @@
         <v>1482</v>
       </c>
       <c r="E77" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F77" s="154" t="s">
         <v>1033</v>
@@ -26777,7 +26780,7 @@
         <v>1482</v>
       </c>
       <c r="E78" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F78" s="154" t="s">
         <v>1033</v>
@@ -26814,7 +26817,7 @@
         <v>1482</v>
       </c>
       <c r="E79" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F79" s="154" t="s">
         <v>1033</v>
@@ -26851,7 +26854,7 @@
         <v>1482</v>
       </c>
       <c r="E80" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F80" s="154" t="s">
         <v>1033</v>
@@ -26925,7 +26928,7 @@
         <v>1482</v>
       </c>
       <c r="E82" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F82" s="154" t="s">
         <v>1033</v>
@@ -26961,7 +26964,7 @@
         <v>1482</v>
       </c>
       <c r="E83" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F83" s="154" t="s">
         <v>1033</v>
@@ -26998,7 +27001,7 @@
         <v>1482</v>
       </c>
       <c r="E84" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F84" s="154" t="s">
         <v>1033</v>
@@ -27035,7 +27038,7 @@
         <v>1482</v>
       </c>
       <c r="E85" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F85" s="154" t="s">
         <v>1033</v>
@@ -27072,7 +27075,7 @@
         <v>1482</v>
       </c>
       <c r="E86" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F86" s="154" t="s">
         <v>1033</v>
@@ -27109,7 +27112,7 @@
         <v>1482</v>
       </c>
       <c r="E87" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F87" s="154" t="s">
         <v>1033</v>
@@ -27146,7 +27149,7 @@
         <v>1482</v>
       </c>
       <c r="E88" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F88" s="154" t="s">
         <v>1033</v>
@@ -27183,7 +27186,7 @@
         <v>1482</v>
       </c>
       <c r="E89" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F89" s="154" t="s">
         <v>1033</v>
@@ -27220,7 +27223,7 @@
         <v>1482</v>
       </c>
       <c r="E90" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F90" s="154" t="s">
         <v>1033</v>
@@ -27257,7 +27260,7 @@
         <v>1482</v>
       </c>
       <c r="E91" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F91" s="154" t="s">
         <v>1033</v>
@@ -27294,7 +27297,7 @@
         <v>1482</v>
       </c>
       <c r="E92" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F92" s="154" t="s">
         <v>1033</v>
@@ -27331,7 +27334,7 @@
         <v>1482</v>
       </c>
       <c r="E93" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F93" s="154" t="s">
         <v>1033</v>
@@ -27368,7 +27371,7 @@
         <v>1482</v>
       </c>
       <c r="E94" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F94" s="154" t="s">
         <v>1033</v>
@@ -27405,7 +27408,7 @@
         <v>1482</v>
       </c>
       <c r="E95" t="s">
-        <v>1011</v>
+        <v>1491</v>
       </c>
       <c r="F95" s="154" t="s">
         <v>1033</v>
@@ -27635,7 +27638,7 @@
       <c r="B101" s="17" t="s">
         <v>1489</v>
       </c>
-      <c r="C101" s="174" t="s">
+      <c r="C101" s="164" t="s">
         <v>1030</v>
       </c>
       <c r="D101" s="17" t="s">
@@ -30986,6 +30989,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -31117,25 +31138,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31151,22 +31172,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ECE107-4416-4B4A-8A02-564A88018B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E524E68-7CD3-4184-A652-69A55EDD8DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="5790" windowWidth="23925" windowHeight="10815" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,20 @@
     <definedName name="Z_AB65B437_1B49_4040_B070_7D10DCCE9FB5_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$75</definedName>
     <definedName name="Z_E13C975D_9911_46DF_BB53_0E45A3160659_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$77</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5623" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1304">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -3432,462 +3445,6 @@
     <t>mapping_set_id: http://w3id.org/env/crosswalk/alum82get/2024-05-09</t>
   </si>
   <si>
-    <t>alum:Strict-nature-reserves</t>
-  </si>
-  <si>
-    <t>alum:Wilderness-area</t>
-  </si>
-  <si>
-    <t>alum:National-park</t>
-  </si>
-  <si>
-    <t>alum:Natural-feature-protection</t>
-  </si>
-  <si>
-    <t>alum:Habitat-or-species-management-area</t>
-  </si>
-  <si>
-    <t>alum:Protected-landscape</t>
-  </si>
-  <si>
-    <t>alum:Other-conserved-area</t>
-  </si>
-  <si>
-    <t>alum:Biodiversity</t>
-  </si>
-  <si>
-    <t>alum:Surface-water-supply</t>
-  </si>
-  <si>
-    <t>alum:Groundwater</t>
-  </si>
-  <si>
-    <t>alum:Landscape</t>
-  </si>
-  <si>
-    <t>alum:Traditional-Indigenous-uses</t>
-  </si>
-  <si>
-    <t>alum:Defence-landnatural-areas</t>
-  </si>
-  <si>
-    <t>alum:Stock-route</t>
-  </si>
-  <si>
-    <t>alum:Residual-native-cover</t>
-  </si>
-  <si>
-    <t>alum:Rehabilitation</t>
-  </si>
-  <si>
-    <t>alum:Wood-production-forestry</t>
-  </si>
-  <si>
-    <t>alum:Other-forest-production</t>
-  </si>
-  <si>
-    <t>alum:Hardwood-plantation-forestry</t>
-  </si>
-  <si>
-    <t>alum:Softwood-plantation-forestry</t>
-  </si>
-  <si>
-    <t>alum:Other-forest-plantation</t>
-  </si>
-  <si>
-    <t>alum:Environmental-forest-plantation</t>
-  </si>
-  <si>
-    <t>alum:Native-or-exotic-pasture-mosaic</t>
-  </si>
-  <si>
-    <t>alum:Pasture-legumes</t>
-  </si>
-  <si>
-    <t>alum:Pasture-legume-or-grass-mixtures</t>
-  </si>
-  <si>
-    <t>alum:Sown-grasses</t>
-  </si>
-  <si>
-    <t>alum:Cereals</t>
-  </si>
-  <si>
-    <t>alum:Beverage-and-spice-crops</t>
-  </si>
-  <si>
-    <t>alum:Oilseeds</t>
-  </si>
-  <si>
-    <t>alum:Sugar</t>
-  </si>
-  <si>
-    <t>alum:Cotton</t>
-  </si>
-  <si>
-    <t>alum:Alkaloid-poppies</t>
-  </si>
-  <si>
-    <t>alum:Pulses</t>
-  </si>
-  <si>
-    <t>alum:Tree-fruits</t>
-  </si>
-  <si>
-    <t>alum:Olives</t>
-  </si>
-  <si>
-    <t>alum:Tree-nuts</t>
-  </si>
-  <si>
-    <t>alum:Vine-fruits</t>
-  </si>
-  <si>
-    <t>alum:Shrub-berries-and-fruits</t>
-  </si>
-  <si>
-    <t>alum:Perennial-flowers-and-bulbs</t>
-  </si>
-  <si>
-    <t>alum:Perennial-vegetables-and-herbs</t>
-  </si>
-  <si>
-    <t>alum:Citrus</t>
-  </si>
-  <si>
-    <t>alum:Grapes</t>
-  </si>
-  <si>
-    <t>alum:Seasonal-flowers-and-bulbs</t>
-  </si>
-  <si>
-    <t>alum:Seasonal-vegetables-and-herbs</t>
-  </si>
-  <si>
-    <t>alum:Degraded-land</t>
-  </si>
-  <si>
-    <t>alum:Abandoned-land</t>
-  </si>
-  <si>
-    <t>alum:Land-under-rehabilitation</t>
-  </si>
-  <si>
-    <t>alum:No-defined-use</t>
-  </si>
-  <si>
-    <t>alum:Abandoned-perennial-horticulture</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-hardwood-plantation-forestry</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-softwood-plantation-forestry</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-environmental-forest-plantation</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-woody-fodder-plants</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-pasture-legumes</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-legume-or-grass-mixtures</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-sown-grasses</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-cereals</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-beverage-and-spice-crops</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-oilseeds</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-sugar</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-cotton</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-alkaloid-poppies</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-pulses</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-rice</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-tree-fruits</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-olives</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-tree-nuts</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-vine-fruits</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-shrub-berries-and-fruits</t>
-  </si>
-  <si>
-    <t>alum:Irrigated--perennial-flowers-and-bulbs</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-perennial-vegetables-and-herbs</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-citrus</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-grapes</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-seasonal-flowers-and-bulbs</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-seasonal-vegetables-and-herbs</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-turf-farming</t>
-  </si>
-  <si>
-    <t>alum:Degraded-irrigated-land</t>
-  </si>
-  <si>
-    <t>alum:Abandoned-irrigated-land</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-land-under-rehabilitation</t>
-  </si>
-  <si>
-    <t>alum:No-defined-useirrigation</t>
-  </si>
-  <si>
-    <t>alum:Abandoned-irrigated-perennial-horticulture</t>
-  </si>
-  <si>
-    <t>alum:Production-nurseries</t>
-  </si>
-  <si>
-    <t>alum:Shadehouses</t>
-  </si>
-  <si>
-    <t>alum:Glasshouses</t>
-  </si>
-  <si>
-    <t>alum:Glasshouseshydroponic</t>
-  </si>
-  <si>
-    <t>alum:Abandoned-intensive-horticulture</t>
-  </si>
-  <si>
-    <t>alum:Dairy-sheds-and-yards</t>
-  </si>
-  <si>
-    <t>alum:Feedlots</t>
-  </si>
-  <si>
-    <t>alum:Poultry-farms</t>
-  </si>
-  <si>
-    <t>alum:Piggeries</t>
-  </si>
-  <si>
-    <t>alum:Aquaculture</t>
-  </si>
-  <si>
-    <t>alum:Horse-studs</t>
-  </si>
-  <si>
-    <t>alum:Abandoned-intensive-animal-production</t>
-  </si>
-  <si>
-    <t>alum:General-purpose-factory</t>
-  </si>
-  <si>
-    <t>alum:Food-processing-factory</t>
-  </si>
-  <si>
-    <t>alum:Major-industrial-complex</t>
-  </si>
-  <si>
-    <t>alum:Bulk-grain-storage</t>
-  </si>
-  <si>
-    <t>alum:Abattoirs</t>
-  </si>
-  <si>
-    <t>alum:Oil-refinery</t>
-  </si>
-  <si>
-    <t>alum:Sawmill</t>
-  </si>
-  <si>
-    <t>alum:Abandoned-manufacturing-and-industrial</t>
-  </si>
-  <si>
-    <t>alum:Urban-residential</t>
-  </si>
-  <si>
-    <t>alum:Rural-residential-with-agriculture</t>
-  </si>
-  <si>
-    <t>alum:Rural-residential-without-agriculture</t>
-  </si>
-  <si>
-    <t>alum:Remote-communities</t>
-  </si>
-  <si>
-    <t>alum:Farm-buildings-or-infrastructure</t>
-  </si>
-  <si>
-    <t>alum:Commercial-services</t>
-  </si>
-  <si>
-    <t>alum:Public-services</t>
-  </si>
-  <si>
-    <t>alum:Recreation-and-culture</t>
-  </si>
-  <si>
-    <t>alum:Defence-facilitiesurban</t>
-  </si>
-  <si>
-    <t>alum:Research-facilities</t>
-  </si>
-  <si>
-    <t>alum:Fuel-powered-electricity-generation</t>
-  </si>
-  <si>
-    <t>alum:Hydro-electricity-generation</t>
-  </si>
-  <si>
-    <t>alum:Wind-electricity-generation</t>
-  </si>
-  <si>
-    <t>alum:Solar-electricity-generation</t>
-  </si>
-  <si>
-    <t>alum:Electricity-substations-and-transmission</t>
-  </si>
-  <si>
-    <t>alum:Gas-treatment,-storage-and-transmission</t>
-  </si>
-  <si>
-    <t>alum:Water-extraction-and-transmission</t>
-  </si>
-  <si>
-    <t>alum:Airports-or-aerodromes</t>
-  </si>
-  <si>
-    <t>alum:Roads</t>
-  </si>
-  <si>
-    <t>alum:Railways</t>
-  </si>
-  <si>
-    <t>alum:Ports-and-water-transport</t>
-  </si>
-  <si>
-    <t>alum:Navigation-and-communication</t>
-  </si>
-  <si>
-    <t>alum:Mines</t>
-  </si>
-  <si>
-    <t>alum:Quarries</t>
-  </si>
-  <si>
-    <t>alum:Tailings</t>
-  </si>
-  <si>
-    <t>alum:Extractive-Industry-not-in-use</t>
-  </si>
-  <si>
-    <t>alum:Effluent-pond</t>
-  </si>
-  <si>
-    <t>alum:Landfill</t>
-  </si>
-  <si>
-    <t>alum:Solid-garbage</t>
-  </si>
-  <si>
-    <t>alum:Incinerators</t>
-  </si>
-  <si>
-    <t>alum:Sewage-or-sewerage</t>
-  </si>
-  <si>
-    <t>alum:Lakeconservation</t>
-  </si>
-  <si>
-    <t>alum:Lakeproduction</t>
-  </si>
-  <si>
-    <t>alum:Lakeintensive-use</t>
-  </si>
-  <si>
-    <t>alum:Lakesaline</t>
-  </si>
-  <si>
-    <t>alum:Reservoir</t>
-  </si>
-  <si>
-    <t>alum:Water-storageintensive-use-or-farm-dams</t>
-  </si>
-  <si>
-    <t>alum:Evaporation-basin</t>
-  </si>
-  <si>
-    <t>alum:Riverconservation</t>
-  </si>
-  <si>
-    <t>alum:Riverproduction</t>
-  </si>
-  <si>
-    <t>alum:Riverintensive-use</t>
-  </si>
-  <si>
-    <t>alum:Supply-channel-or-aqueduct</t>
-  </si>
-  <si>
-    <t>alum:Drainage-channel-or-aqueduct</t>
-  </si>
-  <si>
-    <t>alum:Stormwater</t>
-  </si>
-  <si>
-    <t>alum:Marsh-or-wetlandconservation</t>
-  </si>
-  <si>
-    <t>alum:Marsh-or-wetlandproduction</t>
-  </si>
-  <si>
-    <t>alum:Marsh-or-wetlandintensive-use</t>
-  </si>
-  <si>
-    <t>alum:Marsh-or-wetlandsaline</t>
-  </si>
-  <si>
-    <t>alum:Estuary-or-coastal-watersconservation</t>
-  </si>
-  <si>
-    <t>alum:Estuary-or-coastal-watersproduction</t>
-  </si>
-  <si>
-    <t>alum:Estuary-or-coastal-watersintensive-use</t>
-  </si>
-  <si>
     <t>Hay and silage</t>
   </si>
   <si>
@@ -3918,90 +3475,6 @@
     <t>SSSOM</t>
   </si>
   <si>
-    <t>alum:Cropping</t>
-  </si>
-  <si>
-    <t>alum:Services</t>
-  </si>
-  <si>
-    <t>alum:Utilities</t>
-  </si>
-  <si>
-    <t>alum:Mining</t>
-  </si>
-  <si>
-    <t>alum:Water</t>
-  </si>
-  <si>
-    <t>alum:Lake</t>
-  </si>
-  <si>
-    <t>alum:Reservoir/dam</t>
-  </si>
-  <si>
-    <t>alum:River</t>
-  </si>
-  <si>
-    <t>alum:Channel/aqueduct</t>
-  </si>
-  <si>
-    <t>alum:Marsh/wetland</t>
-  </si>
-  <si>
-    <t>alum:Managed-resource-protection</t>
-  </si>
-  <si>
-    <t>alum:Other-minimal-use</t>
-  </si>
-  <si>
-    <t>alum:Grazing-native-vegetation</t>
-  </si>
-  <si>
-    <t>alum:Production-native-forests</t>
-  </si>
-  <si>
-    <t>alum:Plantation-forests</t>
-  </si>
-  <si>
-    <t>alum:Grazing-modified-pastures</t>
-  </si>
-  <si>
-    <t>alum:Perennial-horticulture</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-plantation-forests</t>
-  </si>
-  <si>
-    <t>alum:Grazing-irrigated-modified-pastures</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-cropping</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-perennial-horticulture</t>
-  </si>
-  <si>
-    <t>alum:Intensive-horticulture</t>
-  </si>
-  <si>
-    <t>alum:Intensive-animal-production</t>
-  </si>
-  <si>
-    <t>alum:Manufacturing-and-industrial</t>
-  </si>
-  <si>
-    <t>alum:Residential-and-farm-infrastructure</t>
-  </si>
-  <si>
-    <t>alum:Transport-and-communication</t>
-  </si>
-  <si>
-    <t>alum:Waste-treatment-and-disposal</t>
-  </si>
-  <si>
-    <t>alum:Estuary/coastal-waters</t>
-  </si>
-  <si>
     <t>orcid:0000-0002-4048-6792</t>
   </si>
   <si>
@@ -4015,18 +3488,6 @@
   </si>
   <si>
     <t>ALUM_V8_vertical with IUCN</t>
-  </si>
-  <si>
-    <t>alum:Hay-and-silage</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-other-forest-production</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-hay-and-silage</t>
-  </si>
-  <si>
-    <t>alum:Saleyards-or-stockyards</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -4592,15 +4053,6 @@
     <t>Irrigated seasonal fruits</t>
   </si>
   <si>
-    <t>alum:Woody-fodder-plants</t>
-  </si>
-  <si>
-    <t>alum:Seasonal-fruits</t>
-  </si>
-  <si>
-    <t>alum:Irrigated-seasonal-fruits</t>
-  </si>
-  <si>
     <t>4.5.1 Irrigated seasonal fruits</t>
   </si>
   <si>
@@ -4731,9 +4183,6 @@
   </si>
   <si>
     <t>5.0.0 Intensive uses</t>
-  </si>
-  <si>
-    <t>alum:Intensive-uses</t>
   </si>
   <si>
     <t>T7.1 Annual croplands</t>
@@ -6145,14 +5594,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C191" dT="2024-01-03T02:34:22.58" personId="{00000000-0000-0000-0000-000000000000}" id="{7A7A686C-B1C4-45F8-B450-552E69DD158E}">
-    <text xml:space="preserve">One item per line please </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
@@ -8912,16 +8353,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1213</v>
+        <v>1061</v>
       </c>
       <c r="B1" t="s">
-        <v>1214</v>
+        <v>1062</v>
       </c>
       <c r="C1" t="s">
-        <v>1215</v>
+        <v>1063</v>
       </c>
       <c r="D1" t="s">
-        <v>1217</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8929,13 +8370,13 @@
         <v>45436</v>
       </c>
       <c r="B2" t="s">
-        <v>1212</v>
+        <v>1060</v>
       </c>
       <c r="C2" t="s">
-        <v>1216</v>
+        <v>1064</v>
       </c>
       <c r="D2" t="s">
-        <v>1257</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
@@ -8943,13 +8384,13 @@
         <v>45436</v>
       </c>
       <c r="B3" t="s">
-        <v>1212</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>1256</v>
+        <v>1072</v>
       </c>
       <c r="D3" t="s">
-        <v>1218</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8957,13 +8398,13 @@
         <v>45436</v>
       </c>
       <c r="B4" t="s">
-        <v>1212</v>
+        <v>1060</v>
       </c>
       <c r="C4" t="s">
-        <v>1250</v>
+        <v>1070</v>
       </c>
       <c r="D4" t="s">
-        <v>1251</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8971,13 +8412,13 @@
         <v>45436</v>
       </c>
       <c r="B5" t="s">
-        <v>1212</v>
+        <v>1060</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1439</v>
+        <v>1255</v>
       </c>
       <c r="D5" t="s">
-        <v>1218</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8985,13 +8426,13 @@
         <v>45436</v>
       </c>
       <c r="B6" t="s">
-        <v>1212</v>
+        <v>1060</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1451</v>
+        <v>1264</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1218</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -20758,7 +20199,7 @@
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="159" t="s">
-        <v>1452</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -20783,12 +20224,12 @@
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="160" t="s">
-        <v>1453</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="160" t="s">
-        <v>1468</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -20808,7 +20249,7 @@
     </row>
     <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="151" t="s">
-        <v>1469</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>
@@ -20845,7 +20286,7 @@
         <v>1014</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>1249</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -21294,7 +20735,7 @@
         <v>91</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>1440</v>
+        <v>1256</v>
       </c>
       <c r="C32" s="135" t="s">
         <v>1013</v>
@@ -21399,7 +20840,7 @@
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>1209</v>
+        <v>1057</v>
       </c>
       <c r="C39" s="135" t="s">
         <v>1011</v>
@@ -21654,7 +21095,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1441</v>
+        <v>1257</v>
       </c>
       <c r="C56" s="135" t="s">
         <v>1011</v>
@@ -21694,7 +21135,7 @@
         <v>3.5.3 Seasonal vegetables and herbs</v>
       </c>
       <c r="E58" s="158" t="s">
-        <v>1449</v>
+        <v>1262</v>
       </c>
       <c r="F58" s="153"/>
       <c r="G58" s="153"/>
@@ -21989,7 +21430,7 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>1210</v>
+        <v>1058</v>
       </c>
       <c r="C78" s="135" t="s">
         <v>1011</v>
@@ -22259,7 +21700,7 @@
         <v>41</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>1442</v>
+        <v>1258</v>
       </c>
       <c r="C96" s="135" t="s">
         <v>1011</v>
@@ -22600,7 +22041,7 @@
         <v>420</v>
       </c>
       <c r="B119" t="s">
-        <v>1211</v>
+        <v>1059</v>
       </c>
       <c r="C119" s="135" t="s">
         <v>1016</v>
@@ -23770,7 +23211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CB4D65-9DAF-4373-8A3E-AE42C6AE42AD}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -23782,42 +23223,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="163" t="s">
-        <v>1475</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="160" t="s">
-        <v>1470</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="163" t="s">
-        <v>1474</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="160" t="s">
-        <v>1471</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="163" t="s">
-        <v>1472</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="163" t="s">
-        <v>1473</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="163" t="s">
-        <v>1476</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="163" t="s">
-        <v>1477</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -23830,14 +23271,14 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
@@ -23854,54 +23295,55 @@
   <sheetData>
     <row r="1" spans="1:14" s="162" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="161" t="s">
-        <v>1455</v>
+        <v>1268</v>
       </c>
       <c r="B1" s="161" t="s">
-        <v>1454</v>
+        <v>1267</v>
       </c>
       <c r="C1" s="161" t="s">
-        <v>1456</v>
+        <v>1269</v>
       </c>
       <c r="D1" s="161" t="s">
-        <v>1458</v>
+        <v>1271</v>
       </c>
       <c r="E1" s="161" t="s">
-        <v>1459</v>
+        <v>1272</v>
       </c>
       <c r="F1" s="161" t="s">
-        <v>1460</v>
+        <v>1273</v>
       </c>
       <c r="G1" s="161" t="s">
-        <v>1461</v>
+        <v>1274</v>
       </c>
       <c r="H1" s="161" t="s">
-        <v>1462</v>
+        <v>1275</v>
       </c>
       <c r="I1" s="161" t="s">
-        <v>1463</v>
+        <v>1276</v>
       </c>
       <c r="J1" s="161" t="s">
-        <v>1464</v>
+        <v>1277</v>
       </c>
       <c r="K1" s="161" t="s">
-        <v>1465</v>
+        <v>1278</v>
       </c>
       <c r="L1" s="161" t="s">
-        <v>1466</v>
+        <v>1279</v>
       </c>
       <c r="M1" s="161" t="s">
-        <v>1467</v>
+        <v>1280</v>
       </c>
       <c r="N1" s="161" t="s">
-        <v>1457</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1057</v>
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT("alum:",LEFT(B2,FIND(" ",B2)-1))</f>
+        <v>alum:1.1.1</v>
       </c>
       <c r="B2" t="s">
-        <v>1258</v>
+        <v>1074</v>
       </c>
       <c r="C2" s="104" t="s">
         <v>1030</v>
@@ -23937,11 +23379,12 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>1058</v>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" si="1">_xlfn.CONCAT("alum:",LEFT(B3,FIND(" ",B3)-1))</f>
+        <v>alum:1.1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>1259</v>
+        <v>1075</v>
       </c>
       <c r="C3" s="104" t="s">
         <v>1030</v>
@@ -23977,11 +23420,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1059</v>
+      <c r="A4" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>1260</v>
+        <v>1076</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>1030</v>
@@ -24017,11 +23461,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1060</v>
+      <c r="A5" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.1.4</v>
       </c>
       <c r="B5" t="s">
-        <v>1261</v>
+        <v>1077</v>
       </c>
       <c r="C5" s="104" t="s">
         <v>1030</v>
@@ -24057,11 +23502,12 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1061</v>
+      <c r="A6" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.1.5</v>
       </c>
       <c r="B6" t="s">
-        <v>1262</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="104" t="s">
         <v>1030</v>
@@ -24097,11 +23543,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1062</v>
+      <c r="A7" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.1.6</v>
       </c>
       <c r="B7" t="s">
-        <v>1263</v>
+        <v>1079</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>1030</v>
@@ -24137,11 +23584,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1063</v>
+      <c r="A8" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.1.7</v>
       </c>
       <c r="B8" t="s">
-        <v>1264</v>
+        <v>1080</v>
       </c>
       <c r="C8" s="104" t="s">
         <v>1030</v>
@@ -24177,11 +23625,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1229</v>
+      <c r="A9" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.2.0</v>
       </c>
       <c r="B9" t="s">
-        <v>1410</v>
+        <v>1226</v>
       </c>
       <c r="C9" s="104" t="s">
         <v>1030</v>
@@ -24196,10 +23645,10 @@
         <v>1033</v>
       </c>
       <c r="G9" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H9" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I9" s="156">
         <v>45413</v>
@@ -24213,11 +23662,12 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1064</v>
+      <c r="A10" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.2.1</v>
       </c>
       <c r="B10" t="s">
-        <v>1265</v>
+        <v>1081</v>
       </c>
       <c r="C10" s="104" t="s">
         <v>1030</v>
@@ -24253,11 +23703,12 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1065</v>
+      <c r="A11" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.2.2</v>
       </c>
       <c r="B11" t="s">
-        <v>1266</v>
+        <v>1082</v>
       </c>
       <c r="C11" s="104" t="s">
         <v>1030</v>
@@ -24293,11 +23744,12 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1066</v>
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.2.3</v>
       </c>
       <c r="B12" t="s">
-        <v>1267</v>
+        <v>1083</v>
       </c>
       <c r="C12" s="104" t="s">
         <v>1030</v>
@@ -24333,11 +23785,12 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>1067</v>
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.2.4</v>
       </c>
       <c r="B13" t="s">
-        <v>1268</v>
+        <v>1084</v>
       </c>
       <c r="C13" s="104" t="s">
         <v>1030</v>
@@ -24373,11 +23826,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>1068</v>
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.2.5</v>
       </c>
       <c r="B14" t="s">
-        <v>1479</v>
+        <v>1292</v>
       </c>
       <c r="C14" s="104" t="s">
         <v>1030</v>
@@ -24413,11 +23867,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1230</v>
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.3.0</v>
       </c>
       <c r="B15" t="s">
-        <v>1411</v>
+        <v>1227</v>
       </c>
       <c r="C15" s="104" t="s">
         <v>1030</v>
@@ -24432,10 +23887,10 @@
         <v>1033</v>
       </c>
       <c r="G15" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H15" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I15" s="156">
         <v>45413</v>
@@ -24449,11 +23904,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>1069</v>
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.3.1</v>
       </c>
       <c r="B16" t="s">
-        <v>1269</v>
+        <v>1085</v>
       </c>
       <c r="C16" s="104" t="s">
         <v>1030</v>
@@ -24489,11 +23945,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1070</v>
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.3.2</v>
       </c>
       <c r="B17" t="s">
-        <v>1270</v>
+        <v>1086</v>
       </c>
       <c r="C17" s="104" t="s">
         <v>1030</v>
@@ -24529,11 +23986,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1071</v>
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.3.3</v>
       </c>
       <c r="B18" t="s">
-        <v>1271</v>
+        <v>1087</v>
       </c>
       <c r="C18" s="104" t="s">
         <v>1030</v>
@@ -24569,11 +24027,12 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1072</v>
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:1.3.4</v>
       </c>
       <c r="B19" t="s">
-        <v>1272</v>
+        <v>1088</v>
       </c>
       <c r="C19" s="104" t="s">
         <v>1030</v>
@@ -24609,11 +24068,12 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1231</v>
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:2.1.0</v>
       </c>
       <c r="B20" t="s">
-        <v>1412</v>
+        <v>1228</v>
       </c>
       <c r="C20" s="157" t="s">
         <v>1030</v>
@@ -24628,10 +24088,10 @@
         <v>1033</v>
       </c>
       <c r="G20" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H20" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I20" s="156">
         <v>45413</v>
@@ -24645,11 +24105,12 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1232</v>
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:2.2.0</v>
       </c>
       <c r="B21" t="s">
-        <v>1413</v>
+        <v>1229</v>
       </c>
       <c r="C21" s="104" t="s">
         <v>1030</v>
@@ -24664,10 +24125,10 @@
         <v>1033</v>
       </c>
       <c r="G21" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H21" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I21" s="156">
         <v>45413</v>
@@ -24681,11 +24142,12 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1073</v>
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:2.2.1</v>
       </c>
       <c r="B22" t="s">
-        <v>1273</v>
+        <v>1089</v>
       </c>
       <c r="C22" s="104" t="s">
         <v>1030</v>
@@ -24721,11 +24183,12 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1074</v>
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:2.2.2</v>
       </c>
       <c r="B23" t="s">
-        <v>1274</v>
+        <v>1090</v>
       </c>
       <c r="C23" s="104" t="s">
         <v>1030</v>
@@ -24761,17 +24224,18 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1233</v>
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.1.0</v>
       </c>
       <c r="B24" t="s">
-        <v>1414</v>
+        <v>1230</v>
       </c>
       <c r="C24" t="s">
         <v>1030</v>
       </c>
       <c r="D24" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E24" t="s">
         <v>1015</v>
@@ -24780,10 +24244,10 @@
         <v>1033</v>
       </c>
       <c r="G24" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H24" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I24" s="156">
         <v>45413</v>
@@ -24797,17 +24261,18 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1075</v>
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.1.1</v>
       </c>
       <c r="B25" t="s">
-        <v>1275</v>
+        <v>1091</v>
       </c>
       <c r="C25" t="s">
         <v>1030</v>
       </c>
       <c r="D25" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E25" t="s">
         <v>1015</v>
@@ -24834,17 +24299,18 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1076</v>
+      <c r="A26" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.1.2</v>
       </c>
       <c r="B26" t="s">
-        <v>1276</v>
+        <v>1092</v>
       </c>
       <c r="C26" t="s">
         <v>1030</v>
       </c>
       <c r="D26" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E26" t="s">
         <v>1015</v>
@@ -24871,17 +24337,18 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1077</v>
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.1.3</v>
       </c>
       <c r="B27" t="s">
-        <v>1277</v>
+        <v>1093</v>
       </c>
       <c r="C27" t="s">
         <v>1030</v>
       </c>
       <c r="D27" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E27" t="s">
         <v>1015</v>
@@ -24908,17 +24375,18 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1078</v>
+      <c r="A28" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.1.4</v>
       </c>
       <c r="B28" t="s">
-        <v>1278</v>
+        <v>1094</v>
       </c>
       <c r="C28" t="s">
         <v>1030</v>
       </c>
       <c r="D28" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E28" t="s">
         <v>1015</v>
@@ -24945,17 +24413,18 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1234</v>
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.2.0</v>
       </c>
       <c r="B29" t="s">
-        <v>1415</v>
+        <v>1231</v>
       </c>
       <c r="C29" t="s">
         <v>1030</v>
       </c>
       <c r="D29" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E29" t="s">
         <v>1013</v>
@@ -24964,10 +24433,10 @@
         <v>1033</v>
       </c>
       <c r="G29" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H29" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I29" s="156">
         <v>45413</v>
@@ -24981,17 +24450,18 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1079</v>
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.2.1</v>
       </c>
       <c r="B30" t="s">
-        <v>1279</v>
+        <v>1095</v>
       </c>
       <c r="C30" t="s">
         <v>1030</v>
       </c>
       <c r="D30" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E30" t="s">
         <v>1013</v>
@@ -25018,17 +24488,18 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>1443</v>
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.2.2</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1447</v>
+        <v>1260</v>
       </c>
       <c r="C31" t="s">
         <v>1030</v>
       </c>
       <c r="D31" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E31" t="s">
         <v>1013</v>
@@ -25055,17 +24526,18 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1080</v>
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.2.3</v>
       </c>
       <c r="B32" t="s">
-        <v>1280</v>
+        <v>1096</v>
       </c>
       <c r="C32" t="s">
         <v>1030</v>
       </c>
       <c r="D32" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E32" t="s">
         <v>1013</v>
@@ -25092,17 +24564,18 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1081</v>
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.2.4</v>
       </c>
       <c r="B33" t="s">
-        <v>1281</v>
+        <v>1097</v>
       </c>
       <c r="C33" t="s">
         <v>1030</v>
       </c>
       <c r="D33" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E33" t="s">
         <v>1013</v>
@@ -25129,17 +24602,18 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1082</v>
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.2.5</v>
       </c>
       <c r="B34" t="s">
-        <v>1282</v>
+        <v>1098</v>
       </c>
       <c r="C34" t="s">
         <v>1030</v>
       </c>
       <c r="D34" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E34" t="s">
         <v>1013</v>
@@ -25166,29 +24640,30 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1219</v>
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.0</v>
       </c>
       <c r="B35" t="s">
-        <v>1416</v>
+        <v>1232</v>
       </c>
       <c r="C35" t="s">
         <v>1030</v>
       </c>
       <c r="D35" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E35" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F35" s="154" t="s">
         <v>1033</v>
       </c>
       <c r="G35" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H35" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I35" s="156">
         <v>45413</v>
@@ -25202,20 +24677,21 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1083</v>
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.1</v>
       </c>
       <c r="B36" t="s">
-        <v>1283</v>
+        <v>1099</v>
       </c>
       <c r="C36" t="s">
         <v>1030</v>
       </c>
       <c r="D36" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E36" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F36" s="154" t="s">
         <v>1033</v>
@@ -25239,20 +24715,21 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1084</v>
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.2</v>
       </c>
       <c r="B37" t="s">
-        <v>1284</v>
+        <v>1100</v>
       </c>
       <c r="C37" t="s">
         <v>1030</v>
       </c>
       <c r="D37" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E37" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F37" s="154" t="s">
         <v>1033</v>
@@ -25276,20 +24753,21 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1252</v>
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.3</v>
       </c>
       <c r="B38" t="s">
-        <v>1285</v>
+        <v>1101</v>
       </c>
       <c r="C38" t="s">
         <v>1030</v>
       </c>
       <c r="D38" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E38" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F38" s="154" t="s">
         <v>1033</v>
@@ -25313,20 +24791,21 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1085</v>
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.4</v>
       </c>
       <c r="B39" t="s">
-        <v>1286</v>
+        <v>1102</v>
       </c>
       <c r="C39" t="s">
         <v>1030</v>
       </c>
       <c r="D39" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E39" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F39" s="154" t="s">
         <v>1033</v>
@@ -25350,20 +24829,21 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1086</v>
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.5</v>
       </c>
       <c r="B40" t="s">
-        <v>1287</v>
+        <v>1103</v>
       </c>
       <c r="C40" t="s">
         <v>1030</v>
       </c>
       <c r="D40" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E40" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F40" s="154" t="s">
         <v>1033</v>
@@ -25387,20 +24867,21 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1087</v>
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.6</v>
       </c>
       <c r="B41" t="s">
-        <v>1288</v>
+        <v>1104</v>
       </c>
       <c r="C41" t="s">
         <v>1030</v>
       </c>
       <c r="D41" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E41" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F41" s="154" t="s">
         <v>1033</v>
@@ -25424,20 +24905,21 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1088</v>
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.7</v>
       </c>
       <c r="B42" t="s">
-        <v>1289</v>
+        <v>1105</v>
       </c>
       <c r="C42" t="s">
         <v>1030</v>
       </c>
       <c r="D42" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E42" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F42" s="154" t="s">
         <v>1033</v>
@@ -25461,20 +24943,21 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>1089</v>
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.3.8</v>
       </c>
       <c r="B43" t="s">
-        <v>1290</v>
+        <v>1106</v>
       </c>
       <c r="C43" t="s">
         <v>1030</v>
       </c>
       <c r="D43" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E43" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F43" s="154" t="s">
         <v>1033</v>
@@ -25498,29 +24981,30 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>1235</v>
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.0</v>
       </c>
       <c r="B44" t="s">
-        <v>1417</v>
+        <v>1233</v>
       </c>
       <c r="C44" t="s">
         <v>1030</v>
       </c>
       <c r="D44" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E44" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F44" s="154" t="s">
         <v>1033</v>
       </c>
       <c r="G44" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H44" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I44" s="156">
         <v>45413</v>
@@ -25534,20 +25018,21 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>1090</v>
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.1</v>
       </c>
       <c r="B45" t="s">
-        <v>1291</v>
+        <v>1107</v>
       </c>
       <c r="C45" t="s">
         <v>1030</v>
       </c>
       <c r="D45" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E45" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F45" s="154" t="s">
         <v>1033</v>
@@ -25571,20 +25056,21 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1091</v>
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.2</v>
       </c>
       <c r="B46" t="s">
-        <v>1292</v>
+        <v>1108</v>
       </c>
       <c r="C46" t="s">
         <v>1030</v>
       </c>
       <c r="D46" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E46" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F46" s="154" t="s">
         <v>1033</v>
@@ -25608,20 +25094,21 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1092</v>
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.3</v>
       </c>
       <c r="B47" t="s">
-        <v>1293</v>
+        <v>1109</v>
       </c>
       <c r="C47" t="s">
         <v>1030</v>
       </c>
       <c r="D47" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E47" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F47" s="154" t="s">
         <v>1033</v>
@@ -25645,20 +25132,21 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>1093</v>
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.4</v>
       </c>
       <c r="B48" t="s">
-        <v>1294</v>
+        <v>1110</v>
       </c>
       <c r="C48" t="s">
         <v>1030</v>
       </c>
       <c r="D48" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E48" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F48" s="154" t="s">
         <v>1033</v>
@@ -25682,20 +25170,21 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1094</v>
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.5</v>
       </c>
       <c r="B49" t="s">
-        <v>1295</v>
+        <v>1111</v>
       </c>
       <c r="C49" t="s">
         <v>1030</v>
       </c>
       <c r="D49" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E49" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F49" s="154" t="s">
         <v>1033</v>
@@ -25719,20 +25208,21 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1095</v>
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.6</v>
       </c>
       <c r="B50" t="s">
-        <v>1296</v>
+        <v>1112</v>
       </c>
       <c r="C50" t="s">
         <v>1030</v>
       </c>
       <c r="D50" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E50" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F50" s="154" t="s">
         <v>1033</v>
@@ -25756,20 +25246,21 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1096</v>
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.7</v>
       </c>
       <c r="B51" t="s">
-        <v>1297</v>
+        <v>1113</v>
       </c>
       <c r="C51" t="s">
         <v>1030</v>
       </c>
       <c r="D51" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E51" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F51" s="154" t="s">
         <v>1033</v>
@@ -25793,20 +25284,21 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1097</v>
+      <c r="A52" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.8</v>
       </c>
       <c r="B52" t="s">
-        <v>1298</v>
+        <v>1114</v>
       </c>
       <c r="C52" t="s">
         <v>1030</v>
       </c>
       <c r="D52" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E52" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F52" s="154" t="s">
         <v>1033</v>
@@ -25830,20 +25322,21 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1098</v>
+      <c r="A53" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.4.9</v>
       </c>
       <c r="B53" t="s">
-        <v>1299</v>
+        <v>1115</v>
       </c>
       <c r="C53" t="s">
         <v>1030</v>
       </c>
       <c r="D53" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E53" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F53" s="154" t="s">
         <v>1033</v>
@@ -25867,20 +25360,21 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>1444</v>
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.5.1</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1448</v>
+        <v>1261</v>
       </c>
       <c r="C54" t="s">
         <v>1030</v>
       </c>
       <c r="D54" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E54" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F54" s="154" t="s">
         <v>1033</v>
@@ -25904,20 +25398,21 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>1099</v>
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.5.2</v>
       </c>
       <c r="B55" t="s">
-        <v>1300</v>
+        <v>1116</v>
       </c>
       <c r="C55" t="s">
         <v>1030</v>
       </c>
       <c r="D55" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E55" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F55" s="154" t="s">
         <v>1033</v>
@@ -25941,20 +25436,21 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>1100</v>
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.5.4</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1450</v>
+        <v>1263</v>
       </c>
       <c r="C56" t="s">
         <v>1030</v>
       </c>
       <c r="D56" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E56" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F56" s="154" t="s">
         <v>1033</v>
@@ -25978,11 +25474,12 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>1101</v>
+      <c r="A57" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.6.1</v>
       </c>
       <c r="B57" t="s">
-        <v>1301</v>
+        <v>1117</v>
       </c>
       <c r="C57" s="104" t="s">
         <v>1030</v>
@@ -26018,11 +25515,12 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>1102</v>
+      <c r="A58" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.6.2</v>
       </c>
       <c r="B58" t="s">
-        <v>1302</v>
+        <v>1118</v>
       </c>
       <c r="C58" s="104" t="s">
         <v>1030</v>
@@ -26058,11 +25556,12 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>1103</v>
+      <c r="A59" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.6.3</v>
       </c>
       <c r="B59" t="s">
-        <v>1303</v>
+        <v>1119</v>
       </c>
       <c r="C59" s="104" t="s">
         <v>1030</v>
@@ -26098,11 +25597,12 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>1104</v>
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.6.4</v>
       </c>
       <c r="B60" t="s">
-        <v>1304</v>
+        <v>1120</v>
       </c>
       <c r="C60" s="104" t="s">
         <v>1030</v>
@@ -26138,11 +25638,12 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>1105</v>
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:3.6.5</v>
       </c>
       <c r="B61" t="s">
-        <v>1305</v>
+        <v>1121</v>
       </c>
       <c r="C61" s="104" t="s">
         <v>1030</v>
@@ -26178,17 +25679,18 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>1236</v>
+      <c r="A62" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:4.1.0</v>
       </c>
       <c r="B62" t="s">
-        <v>1418</v>
+        <v>1234</v>
       </c>
       <c r="C62" t="s">
         <v>1030</v>
       </c>
       <c r="D62" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E62" t="s">
         <v>1015</v>
@@ -26197,10 +25699,10 @@
         <v>1033</v>
       </c>
       <c r="G62" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H62" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I62" s="156">
         <v>45413</v>
@@ -26214,17 +25716,18 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>1106</v>
+      <c r="A63" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:4.1.1</v>
       </c>
       <c r="B63" t="s">
-        <v>1306</v>
+        <v>1122</v>
       </c>
       <c r="C63" t="s">
         <v>1030</v>
       </c>
       <c r="D63" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E63" t="s">
         <v>1015</v>
@@ -26251,17 +25754,18 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>1107</v>
+      <c r="A64" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:4.1.2</v>
       </c>
       <c r="B64" t="s">
-        <v>1307</v>
+        <v>1123</v>
       </c>
       <c r="C64" t="s">
         <v>1030</v>
       </c>
       <c r="D64" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E64" t="s">
         <v>1015</v>
@@ -26288,17 +25792,18 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:4.1.3</v>
+      </c>
+      <c r="B65" t="s">
         <v>1253</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1437</v>
       </c>
       <c r="C65" t="s">
         <v>1030</v>
       </c>
       <c r="D65" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E65" t="s">
         <v>1015</v>
@@ -26325,17 +25830,18 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>1108</v>
+      <c r="A66" t="str">
+        <f t="shared" si="1"/>
+        <v>alum:4.1.4</v>
       </c>
       <c r="B66" t="s">
-        <v>1308</v>
+        <v>1124</v>
       </c>
       <c r="C66" t="s">
         <v>1030</v>
       </c>
       <c r="D66" t="s">
-        <v>1480</v>
+        <v>1293</v>
       </c>
       <c r="E66" t="s">
         <v>1015</v>
@@ -26357,22 +25863,23 @@
       </c>
       <c r="M66" s="155"/>
       <c r="N66" s="155" t="str">
-        <f t="shared" ref="N66:N99" si="1">CONCATENATE(B66, " - mapping to IUCN GET")</f>
+        <f t="shared" ref="N66:N99" si="2">CONCATENATE(B66, " - mapping to IUCN GET")</f>
         <v>4.1.4 Irrigated environmental forest plantation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1237</v>
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A130" si="3">_xlfn.CONCAT("alum:",LEFT(B67,FIND(" ",B67)-1))</f>
+        <v>alum:4.2.0</v>
       </c>
       <c r="B67" t="s">
-        <v>1419</v>
+        <v>1235</v>
       </c>
       <c r="C67" t="s">
         <v>1030</v>
       </c>
       <c r="D67" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E67" t="s">
         <v>1013</v>
@@ -26381,10 +25888,10 @@
         <v>1033</v>
       </c>
       <c r="G67" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H67" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I67" s="156">
         <v>45413</v>
@@ -26393,22 +25900,23 @@
         <v>1042</v>
       </c>
       <c r="N67" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2.0 Grazing irrigated modified pastures - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>1109</v>
+      <c r="A68" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.2.1</v>
       </c>
       <c r="B68" t="s">
-        <v>1309</v>
+        <v>1125</v>
       </c>
       <c r="C68" t="s">
         <v>1030</v>
       </c>
       <c r="D68" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E68" t="s">
         <v>1013</v>
@@ -26430,22 +25938,23 @@
       </c>
       <c r="M68" s="155"/>
       <c r="N68" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2.1 Irrigated woody fodder plants - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>1110</v>
+      <c r="A69" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.2.2</v>
       </c>
       <c r="B69" t="s">
-        <v>1310</v>
+        <v>1126</v>
       </c>
       <c r="C69" t="s">
         <v>1030</v>
       </c>
       <c r="D69" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E69" t="s">
         <v>1013</v>
@@ -26467,22 +25976,23 @@
       </c>
       <c r="M69" s="155"/>
       <c r="N69" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2.2 Irrigated pasture legumes - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>1111</v>
+      <c r="A70" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.2.3</v>
       </c>
       <c r="B70" t="s">
-        <v>1311</v>
+        <v>1127</v>
       </c>
       <c r="C70" t="s">
         <v>1030</v>
       </c>
       <c r="D70" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E70" t="s">
         <v>1013</v>
@@ -26504,22 +26014,23 @@
       </c>
       <c r="M70" s="155"/>
       <c r="N70" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2.3 Irrigated legume/grass mixtures - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>1112</v>
+      <c r="A71" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.2.4</v>
       </c>
       <c r="B71" t="s">
-        <v>1312</v>
+        <v>1128</v>
       </c>
       <c r="C71" t="s">
         <v>1030</v>
       </c>
       <c r="D71" t="s">
-        <v>1481</v>
+        <v>1294</v>
       </c>
       <c r="E71" t="s">
         <v>1013</v>
@@ -26541,34 +26052,35 @@
       </c>
       <c r="M71" s="155"/>
       <c r="N71" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2.4 Irrigated sown grasses - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>1238</v>
+      <c r="A72" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.0</v>
       </c>
       <c r="B72" t="s">
-        <v>1420</v>
+        <v>1236</v>
       </c>
       <c r="C72" t="s">
         <v>1030</v>
       </c>
       <c r="D72" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E72" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F72" s="154" t="s">
         <v>1033</v>
       </c>
       <c r="G72" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H72" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I72" s="156">
         <v>45413</v>
@@ -26577,25 +26089,26 @@
         <v>1042</v>
       </c>
       <c r="N72" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.0 Irrigated cropping - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>1113</v>
+      <c r="A73" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.1</v>
       </c>
       <c r="B73" t="s">
-        <v>1313</v>
+        <v>1129</v>
       </c>
       <c r="C73" t="s">
         <v>1030</v>
       </c>
       <c r="D73" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E73" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F73" s="154" t="s">
         <v>1033</v>
@@ -26614,25 +26127,26 @@
       </c>
       <c r="M73" s="155"/>
       <c r="N73" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.1 Irrigated cereals - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>1114</v>
+      <c r="A74" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.2</v>
       </c>
       <c r="B74" t="s">
-        <v>1314</v>
+        <v>1130</v>
       </c>
       <c r="C74" t="s">
         <v>1030</v>
       </c>
       <c r="D74" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E74" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F74" s="154" t="s">
         <v>1033</v>
@@ -26651,25 +26165,26 @@
       </c>
       <c r="M74" s="155"/>
       <c r="N74" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.2 Irrigated beverage and spice crops - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>1254</v>
+      <c r="A75" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.3</v>
       </c>
       <c r="B75" t="s">
-        <v>1315</v>
+        <v>1131</v>
       </c>
       <c r="C75" t="s">
         <v>1030</v>
       </c>
       <c r="D75" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E75" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F75" s="154" t="s">
         <v>1033</v>
@@ -26688,25 +26203,26 @@
       </c>
       <c r="M75" s="155"/>
       <c r="N75" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.3 Irrigated hay and silage - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>1115</v>
+      <c r="A76" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.4</v>
       </c>
       <c r="B76" t="s">
-        <v>1316</v>
+        <v>1132</v>
       </c>
       <c r="C76" t="s">
         <v>1030</v>
       </c>
       <c r="D76" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E76" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F76" s="154" t="s">
         <v>1033</v>
@@ -26725,25 +26241,26 @@
       </c>
       <c r="M76" s="155"/>
       <c r="N76" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.4 Irrigated oilseeds - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>1116</v>
+      <c r="A77" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.5</v>
       </c>
       <c r="B77" t="s">
-        <v>1317</v>
+        <v>1133</v>
       </c>
       <c r="C77" t="s">
         <v>1030</v>
       </c>
       <c r="D77" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E77" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F77" s="154" t="s">
         <v>1033</v>
@@ -26762,25 +26279,26 @@
       </c>
       <c r="M77" s="155"/>
       <c r="N77" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.5 Irrigated sugar - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>1117</v>
+      <c r="A78" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.6</v>
       </c>
       <c r="B78" t="s">
-        <v>1318</v>
+        <v>1134</v>
       </c>
       <c r="C78" t="s">
         <v>1030</v>
       </c>
       <c r="D78" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E78" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F78" s="154" t="s">
         <v>1033</v>
@@ -26799,25 +26317,26 @@
       </c>
       <c r="M78" s="155"/>
       <c r="N78" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.6 Irrigated cotton - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>1118</v>
+      <c r="A79" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.7</v>
       </c>
       <c r="B79" t="s">
-        <v>1319</v>
+        <v>1135</v>
       </c>
       <c r="C79" t="s">
         <v>1030</v>
       </c>
       <c r="D79" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E79" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F79" s="154" t="s">
         <v>1033</v>
@@ -26836,25 +26355,26 @@
       </c>
       <c r="M79" s="155"/>
       <c r="N79" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.7 Irrigated alkaloid poppies - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>1119</v>
+      <c r="A80" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.8</v>
       </c>
       <c r="B80" t="s">
-        <v>1320</v>
+        <v>1136</v>
       </c>
       <c r="C80" t="s">
         <v>1030</v>
       </c>
       <c r="D80" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E80" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F80" s="154" t="s">
         <v>1033</v>
@@ -26873,22 +26393,23 @@
       </c>
       <c r="M80" s="155"/>
       <c r="N80" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.8 Irrigated pulses - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>1120</v>
+      <c r="A81" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.3.9</v>
       </c>
       <c r="B81" t="s">
-        <v>1321</v>
+        <v>1137</v>
       </c>
       <c r="C81" t="s">
         <v>1031</v>
       </c>
       <c r="D81" t="s">
-        <v>1483</v>
+        <v>1296</v>
       </c>
       <c r="E81" t="s">
         <v>1012</v>
@@ -26910,34 +26431,35 @@
       </c>
       <c r="M81" s="155"/>
       <c r="N81" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3.9 Irrigated rice - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>1239</v>
+      <c r="A82" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.0</v>
       </c>
       <c r="B82" t="s">
-        <v>1421</v>
+        <v>1237</v>
       </c>
       <c r="C82" t="s">
         <v>1030</v>
       </c>
       <c r="D82" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E82" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F82" s="154" t="s">
         <v>1033</v>
       </c>
       <c r="G82" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H82" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I82" s="156">
         <v>45413</v>
@@ -26946,25 +26468,26 @@
         <v>1042</v>
       </c>
       <c r="N82" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.0 Irrigated perennial horticulture - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>1121</v>
+      <c r="A83" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.1</v>
       </c>
       <c r="B83" t="s">
-        <v>1322</v>
+        <v>1138</v>
       </c>
       <c r="C83" t="s">
         <v>1030</v>
       </c>
       <c r="D83" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E83" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F83" s="154" t="s">
         <v>1033</v>
@@ -26983,25 +26506,26 @@
       </c>
       <c r="M83" s="155"/>
       <c r="N83" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.1 Irrigated tree fruits - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>1122</v>
+      <c r="A84" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.2</v>
       </c>
       <c r="B84" t="s">
-        <v>1323</v>
+        <v>1139</v>
       </c>
       <c r="C84" t="s">
         <v>1030</v>
       </c>
       <c r="D84" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E84" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F84" s="154" t="s">
         <v>1033</v>
@@ -27020,25 +26544,26 @@
       </c>
       <c r="M84" s="155"/>
       <c r="N84" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.2 Irrigated olives - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>1123</v>
+      <c r="A85" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.3</v>
       </c>
       <c r="B85" t="s">
-        <v>1324</v>
+        <v>1140</v>
       </c>
       <c r="C85" t="s">
         <v>1030</v>
       </c>
       <c r="D85" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E85" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F85" s="154" t="s">
         <v>1033</v>
@@ -27057,25 +26582,26 @@
       </c>
       <c r="M85" s="155"/>
       <c r="N85" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.3 Irrigated tree nuts - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>1124</v>
+      <c r="A86" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.4</v>
       </c>
       <c r="B86" t="s">
-        <v>1325</v>
+        <v>1141</v>
       </c>
       <c r="C86" t="s">
         <v>1030</v>
       </c>
       <c r="D86" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E86" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F86" s="154" t="s">
         <v>1033</v>
@@ -27094,25 +26620,26 @@
       </c>
       <c r="M86" s="155"/>
       <c r="N86" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.4 Irrigated vine fruits - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>1125</v>
+      <c r="A87" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.5</v>
       </c>
       <c r="B87" t="s">
-        <v>1326</v>
+        <v>1142</v>
       </c>
       <c r="C87" t="s">
         <v>1030</v>
       </c>
       <c r="D87" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E87" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F87" s="154" t="s">
         <v>1033</v>
@@ -27131,25 +26658,26 @@
       </c>
       <c r="M87" s="155"/>
       <c r="N87" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.5 Irrigated shrub berries and fruits - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>1126</v>
+      <c r="A88" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.6</v>
       </c>
       <c r="B88" t="s">
-        <v>1327</v>
+        <v>1143</v>
       </c>
       <c r="C88" t="s">
         <v>1030</v>
       </c>
       <c r="D88" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E88" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F88" s="154" t="s">
         <v>1033</v>
@@ -27168,25 +26696,26 @@
       </c>
       <c r="M88" s="155"/>
       <c r="N88" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.6 Irrigated  perennial flowers and bulbs - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>1127</v>
+      <c r="A89" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.7</v>
       </c>
       <c r="B89" t="s">
-        <v>1328</v>
+        <v>1144</v>
       </c>
       <c r="C89" t="s">
         <v>1030</v>
       </c>
       <c r="D89" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E89" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F89" s="154" t="s">
         <v>1033</v>
@@ -27205,25 +26734,26 @@
       </c>
       <c r="M89" s="155"/>
       <c r="N89" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.7 Irrigated perennial vegetables and herbs - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>1128</v>
+      <c r="A90" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.8</v>
       </c>
       <c r="B90" t="s">
-        <v>1329</v>
+        <v>1145</v>
       </c>
       <c r="C90" t="s">
         <v>1030</v>
       </c>
       <c r="D90" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E90" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F90" s="154" t="s">
         <v>1033</v>
@@ -27242,25 +26772,26 @@
       </c>
       <c r="M90" s="155"/>
       <c r="N90" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.8 Irrigated citrus - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>1129</v>
+      <c r="A91" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.4.9</v>
       </c>
       <c r="B91" t="s">
-        <v>1330</v>
+        <v>1146</v>
       </c>
       <c r="C91" t="s">
         <v>1030</v>
       </c>
       <c r="D91" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E91" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F91" s="154" t="s">
         <v>1033</v>
@@ -27279,25 +26810,26 @@
       </c>
       <c r="M91" s="155"/>
       <c r="N91" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4.9 Irrigated grapes - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>1445</v>
+      <c r="A92" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.5.1</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>1446</v>
+        <v>1259</v>
       </c>
       <c r="C92" t="s">
         <v>1030</v>
       </c>
       <c r="D92" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E92" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F92" s="154" t="s">
         <v>1033</v>
@@ -27316,25 +26848,26 @@
       </c>
       <c r="M92" s="155"/>
       <c r="N92" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5.1 Irrigated seasonal fruits - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>1130</v>
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.5.2</v>
       </c>
       <c r="B93" t="s">
-        <v>1331</v>
+        <v>1147</v>
       </c>
       <c r="C93" t="s">
         <v>1030</v>
       </c>
       <c r="D93" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E93" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F93" s="154" t="s">
         <v>1033</v>
@@ -27353,25 +26886,26 @@
       </c>
       <c r="M93" s="155"/>
       <c r="N93" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5.2 Irrigated seasonal flowers and bulbs - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>1131</v>
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.5.3</v>
       </c>
       <c r="B94" t="s">
-        <v>1332</v>
+        <v>1148</v>
       </c>
       <c r="C94" t="s">
         <v>1030</v>
       </c>
       <c r="D94" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E94" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F94" s="154" t="s">
         <v>1033</v>
@@ -27390,25 +26924,26 @@
       </c>
       <c r="M94" s="155"/>
       <c r="N94" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5.3 Irrigated seasonal vegetables and herbs - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>1132</v>
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.5.4</v>
       </c>
       <c r="B95" t="s">
-        <v>1333</v>
+        <v>1149</v>
       </c>
       <c r="C95" t="s">
         <v>1030</v>
       </c>
       <c r="D95" t="s">
-        <v>1482</v>
+        <v>1295</v>
       </c>
       <c r="E95" t="s">
-        <v>1491</v>
+        <v>1303</v>
       </c>
       <c r="F95" s="154" t="s">
         <v>1033</v>
@@ -27427,16 +26962,17 @@
       </c>
       <c r="M95" s="155"/>
       <c r="N95" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5.4 Irrigated turf farming - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>1133</v>
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.6.1</v>
       </c>
       <c r="B96" t="s">
-        <v>1334</v>
+        <v>1150</v>
       </c>
       <c r="C96" s="104" t="s">
         <v>1030</v>
@@ -27467,16 +27003,17 @@
       </c>
       <c r="M96" s="155"/>
       <c r="N96" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6.1 Degraded irrigated land - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>1134</v>
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.6.2</v>
       </c>
       <c r="B97" t="s">
-        <v>1335</v>
+        <v>1151</v>
       </c>
       <c r="C97" s="104" t="s">
         <v>1030</v>
@@ -27507,16 +27044,17 @@
       </c>
       <c r="M97" s="155"/>
       <c r="N97" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6.2 Abandoned irrigated land - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>1135</v>
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.6.3</v>
       </c>
       <c r="B98" t="s">
-        <v>1336</v>
+        <v>1152</v>
       </c>
       <c r="C98" s="104" t="s">
         <v>1030</v>
@@ -27547,16 +27085,17 @@
       </c>
       <c r="M98" s="155"/>
       <c r="N98" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6.3 Irrigated land under rehabilitation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>1136</v>
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.6.4</v>
       </c>
       <c r="B99" t="s">
-        <v>1337</v>
+        <v>1153</v>
       </c>
       <c r="C99" s="104" t="s">
         <v>1030</v>
@@ -27587,16 +27126,17 @@
       </c>
       <c r="M99" s="155"/>
       <c r="N99" s="155" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6.4 No defined use - irrigation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>1137</v>
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:4.6.5</v>
       </c>
       <c r="B100" t="s">
-        <v>1338</v>
+        <v>1154</v>
       </c>
       <c r="C100" s="104" t="s">
         <v>1030</v>
@@ -27632,17 +27172,18 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
-        <v>1490</v>
+      <c r="A101" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.0.0</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1489</v>
+        <v>1302</v>
       </c>
       <c r="C101" s="164" t="s">
         <v>1030</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E101" s="17" t="s">
         <v>1016</v>
@@ -27664,22 +27205,23 @@
       </c>
       <c r="M101" s="155"/>
       <c r="N101" s="155" t="str">
-        <f t="shared" ref="N101:N164" si="2">CONCATENATE(B101, " - mapping to IUCN GET")</f>
+        <f t="shared" ref="N101:N164" si="4">CONCATENATE(B101, " - mapping to IUCN GET")</f>
         <v>5.0.0 Intensive uses - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>1240</v>
+      <c r="A102" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.1.0</v>
       </c>
       <c r="B102" t="s">
-        <v>1422</v>
+        <v>1238</v>
       </c>
       <c r="C102" t="s">
         <v>1030</v>
       </c>
       <c r="D102" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E102" t="s">
         <v>1016</v>
@@ -27688,10 +27230,10 @@
         <v>1033</v>
       </c>
       <c r="G102" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H102" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I102" s="156">
         <v>45413</v>
@@ -27700,22 +27242,23 @@
         <v>1042</v>
       </c>
       <c r="N102" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1.0 Intensive horticulture - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>1138</v>
+      <c r="A103" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.1.1</v>
       </c>
       <c r="B103" t="s">
-        <v>1339</v>
+        <v>1155</v>
       </c>
       <c r="C103" t="s">
         <v>1030</v>
       </c>
       <c r="D103" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E103" t="s">
         <v>1016</v>
@@ -27737,22 +27280,23 @@
       </c>
       <c r="M103" s="155"/>
       <c r="N103" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1.1 Production nurseries - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>1139</v>
+      <c r="A104" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.1.2</v>
       </c>
       <c r="B104" t="s">
-        <v>1340</v>
+        <v>1156</v>
       </c>
       <c r="C104" t="s">
         <v>1030</v>
       </c>
       <c r="D104" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E104" t="s">
         <v>1016</v>
@@ -27774,22 +27318,23 @@
       </c>
       <c r="M104" s="155"/>
       <c r="N104" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1.2 Shadehouses - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>1140</v>
+      <c r="A105" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.1.3</v>
       </c>
       <c r="B105" t="s">
-        <v>1341</v>
+        <v>1157</v>
       </c>
       <c r="C105" t="s">
         <v>1030</v>
       </c>
       <c r="D105" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E105" t="s">
         <v>1016</v>
@@ -27811,22 +27356,23 @@
       </c>
       <c r="M105" s="155"/>
       <c r="N105" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1.3 Glasshouses - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>1141</v>
+      <c r="A106" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.1.4</v>
       </c>
       <c r="B106" t="s">
-        <v>1342</v>
+        <v>1158</v>
       </c>
       <c r="C106" t="s">
         <v>1030</v>
       </c>
       <c r="D106" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E106" t="s">
         <v>1016</v>
@@ -27848,22 +27394,23 @@
       </c>
       <c r="M106" s="155"/>
       <c r="N106" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1.4 Glasshouses (hydroponic) - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>1142</v>
+      <c r="A107" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.1.5</v>
       </c>
       <c r="B107" t="s">
-        <v>1343</v>
+        <v>1159</v>
       </c>
       <c r="C107" t="s">
         <v>1030</v>
       </c>
       <c r="D107" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E107" t="s">
         <v>1016</v>
@@ -27885,22 +27432,23 @@
       </c>
       <c r="M107" s="155"/>
       <c r="N107" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1.5 Abandoned intensive horticulture - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>1241</v>
+      <c r="A108" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.0</v>
       </c>
       <c r="B108" t="s">
-        <v>1423</v>
+        <v>1239</v>
       </c>
       <c r="C108" t="s">
         <v>1030</v>
       </c>
       <c r="D108" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E108" t="s">
         <v>1016</v>
@@ -27909,10 +27457,10 @@
         <v>1033</v>
       </c>
       <c r="G108" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H108" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I108" s="156">
         <v>45413</v>
@@ -27921,22 +27469,23 @@
         <v>1042</v>
       </c>
       <c r="N108" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.0 Intensive animal production - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>1143</v>
+      <c r="A109" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.1</v>
       </c>
       <c r="B109" t="s">
-        <v>1344</v>
+        <v>1160</v>
       </c>
       <c r="C109" t="s">
         <v>1030</v>
       </c>
       <c r="D109" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E109" t="s">
         <v>1016</v>
@@ -27958,22 +27507,23 @@
       </c>
       <c r="M109" s="155"/>
       <c r="N109" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.1 Dairy sheds and yards - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>1144</v>
+      <c r="A110" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.2</v>
       </c>
       <c r="B110" t="s">
-        <v>1345</v>
+        <v>1161</v>
       </c>
       <c r="C110" t="s">
         <v>1030</v>
       </c>
       <c r="D110" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E110" t="s">
         <v>1016</v>
@@ -27995,22 +27545,23 @@
       </c>
       <c r="M110" s="155"/>
       <c r="N110" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.2 Feedlots - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>1145</v>
+      <c r="A111" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.3</v>
       </c>
       <c r="B111" t="s">
-        <v>1346</v>
+        <v>1162</v>
       </c>
       <c r="C111" t="s">
         <v>1030</v>
       </c>
       <c r="D111" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E111" t="s">
         <v>1016</v>
@@ -28032,22 +27583,23 @@
       </c>
       <c r="M111" s="155"/>
       <c r="N111" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.3 Poultry farms - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>1146</v>
+      <c r="A112" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.4</v>
       </c>
       <c r="B112" t="s">
-        <v>1347</v>
+        <v>1163</v>
       </c>
       <c r="C112" t="s">
         <v>1030</v>
       </c>
       <c r="D112" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E112" t="s">
         <v>1016</v>
@@ -28069,22 +27621,23 @@
       </c>
       <c r="M112" s="155"/>
       <c r="N112" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.4 Piggeries - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>1147</v>
+      <c r="A113" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.5</v>
       </c>
       <c r="B113" t="s">
-        <v>1348</v>
+        <v>1164</v>
       </c>
       <c r="C113" t="s">
         <v>1031</v>
       </c>
       <c r="D113" t="s">
-        <v>1485</v>
+        <v>1298</v>
       </c>
       <c r="E113" t="s">
         <v>1019</v>
@@ -28106,22 +27659,23 @@
       </c>
       <c r="M113" s="155"/>
       <c r="N113" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.5 Aquaculture - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>1148</v>
+      <c r="A114" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.6</v>
       </c>
       <c r="B114" t="s">
-        <v>1349</v>
+        <v>1165</v>
       </c>
       <c r="C114" t="s">
         <v>1030</v>
       </c>
       <c r="D114" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E114" t="s">
         <v>1016</v>
@@ -28143,22 +27697,23 @@
       </c>
       <c r="M114" s="155"/>
       <c r="N114" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.6 Horse studs - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>1255</v>
+      <c r="A115" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.7</v>
       </c>
       <c r="B115" t="s">
-        <v>1350</v>
+        <v>1166</v>
       </c>
       <c r="C115" t="s">
         <v>1030</v>
       </c>
       <c r="D115" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E115" t="s">
         <v>1016</v>
@@ -28180,22 +27735,23 @@
       </c>
       <c r="M115" s="155"/>
       <c r="N115" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.7 Saleyards/stockyards - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>1149</v>
+      <c r="A116" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.2.8</v>
       </c>
       <c r="B116" t="s">
-        <v>1351</v>
+        <v>1167</v>
       </c>
       <c r="C116" t="s">
         <v>1030</v>
       </c>
       <c r="D116" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E116" t="s">
         <v>1016</v>
@@ -28217,22 +27773,23 @@
       </c>
       <c r="M116" s="155"/>
       <c r="N116" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.2.8 Abandoned intensive animal production - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>1242</v>
+      <c r="A117" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.0</v>
       </c>
       <c r="B117" t="s">
-        <v>1424</v>
+        <v>1240</v>
       </c>
       <c r="C117" t="s">
         <v>1030</v>
       </c>
       <c r="D117" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E117" t="s">
         <v>1016</v>
@@ -28241,10 +27798,10 @@
         <v>1033</v>
       </c>
       <c r="G117" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H117" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I117" s="156">
         <v>45413</v>
@@ -28253,22 +27810,23 @@
         <v>1042</v>
       </c>
       <c r="N117" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.0 Manufacturing and industrial - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>1150</v>
+      <c r="A118" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.1</v>
       </c>
       <c r="B118" t="s">
-        <v>1352</v>
+        <v>1168</v>
       </c>
       <c r="C118" t="s">
         <v>1030</v>
       </c>
       <c r="D118" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E118" t="s">
         <v>1016</v>
@@ -28290,22 +27848,23 @@
       </c>
       <c r="M118" s="155"/>
       <c r="N118" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.1 General purpose factory - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>1151</v>
+      <c r="A119" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.2</v>
       </c>
       <c r="B119" t="s">
-        <v>1353</v>
+        <v>1169</v>
       </c>
       <c r="C119" t="s">
         <v>1030</v>
       </c>
       <c r="D119" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E119" t="s">
         <v>1016</v>
@@ -28327,22 +27886,23 @@
       </c>
       <c r="M119" s="155"/>
       <c r="N119" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.2 Food processing factory - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>1152</v>
+      <c r="A120" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.3</v>
       </c>
       <c r="B120" t="s">
-        <v>1354</v>
+        <v>1170</v>
       </c>
       <c r="C120" t="s">
         <v>1030</v>
       </c>
       <c r="D120" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E120" t="s">
         <v>1016</v>
@@ -28364,22 +27924,23 @@
       </c>
       <c r="M120" s="155"/>
       <c r="N120" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.3 Major industrial complex - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>1153</v>
+      <c r="A121" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.4</v>
       </c>
       <c r="B121" t="s">
-        <v>1355</v>
+        <v>1171</v>
       </c>
       <c r="C121" t="s">
         <v>1030</v>
       </c>
       <c r="D121" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E121" t="s">
         <v>1016</v>
@@ -28401,22 +27962,23 @@
       </c>
       <c r="M121" s="155"/>
       <c r="N121" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.4 Bulk grain storage - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>1154</v>
+      <c r="A122" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.5</v>
       </c>
       <c r="B122" t="s">
-        <v>1356</v>
+        <v>1172</v>
       </c>
       <c r="C122" t="s">
         <v>1030</v>
       </c>
       <c r="D122" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E122" t="s">
         <v>1016</v>
@@ -28438,22 +28000,23 @@
       </c>
       <c r="M122" s="155"/>
       <c r="N122" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.5 Abattoirs - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>1155</v>
+      <c r="A123" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.6</v>
       </c>
       <c r="B123" t="s">
-        <v>1357</v>
+        <v>1173</v>
       </c>
       <c r="C123" t="s">
         <v>1030</v>
       </c>
       <c r="D123" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E123" t="s">
         <v>1016</v>
@@ -28475,22 +28038,23 @@
       </c>
       <c r="M123" s="155"/>
       <c r="N123" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.6 Oil refinery - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>1156</v>
+      <c r="A124" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.7</v>
       </c>
       <c r="B124" t="s">
-        <v>1358</v>
+        <v>1174</v>
       </c>
       <c r="C124" t="s">
         <v>1030</v>
       </c>
       <c r="D124" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E124" t="s">
         <v>1016</v>
@@ -28512,22 +28076,23 @@
       </c>
       <c r="M124" s="155"/>
       <c r="N124" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.7 Sawmill - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>1157</v>
+      <c r="A125" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.3.8</v>
       </c>
       <c r="B125" t="s">
-        <v>1359</v>
+        <v>1175</v>
       </c>
       <c r="C125" t="s">
         <v>1030</v>
       </c>
       <c r="D125" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E125" t="s">
         <v>1016</v>
@@ -28549,22 +28114,23 @@
       </c>
       <c r="M125" s="155"/>
       <c r="N125" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3.8 Abandoned manufacturing and industrial - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>1243</v>
+      <c r="A126" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.4.0</v>
       </c>
       <c r="B126" t="s">
-        <v>1425</v>
+        <v>1241</v>
       </c>
       <c r="C126" t="s">
         <v>1030</v>
       </c>
       <c r="D126" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E126" t="s">
         <v>1016</v>
@@ -28573,10 +28139,10 @@
         <v>1033</v>
       </c>
       <c r="G126" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H126" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I126" s="156">
         <v>45413</v>
@@ -28585,22 +28151,23 @@
         <v>1042</v>
       </c>
       <c r="N126" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4.0 Residential and farm infrastructure - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>1158</v>
+      <c r="A127" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.4.1</v>
       </c>
       <c r="B127" t="s">
-        <v>1360</v>
+        <v>1176</v>
       </c>
       <c r="C127" t="s">
         <v>1030</v>
       </c>
       <c r="D127" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E127" t="s">
         <v>1016</v>
@@ -28622,22 +28189,23 @@
       </c>
       <c r="M127" s="155"/>
       <c r="N127" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4.1 Urban residential - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>1159</v>
+      <c r="A128" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.4.2</v>
       </c>
       <c r="B128" t="s">
-        <v>1361</v>
+        <v>1177</v>
       </c>
       <c r="C128" t="s">
         <v>1030</v>
       </c>
       <c r="D128" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E128" t="s">
         <v>1016</v>
@@ -28659,22 +28227,23 @@
       </c>
       <c r="M128" s="155"/>
       <c r="N128" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4.2 Rural residential with agriculture - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>1160</v>
+      <c r="A129" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.4.3</v>
       </c>
       <c r="B129" t="s">
-        <v>1362</v>
+        <v>1178</v>
       </c>
       <c r="C129" t="s">
         <v>1030</v>
       </c>
       <c r="D129" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E129" t="s">
         <v>1016</v>
@@ -28696,22 +28265,23 @@
       </c>
       <c r="M129" s="155"/>
       <c r="N129" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4.3 Rural residential without agriculture - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>1161</v>
+      <c r="A130" t="str">
+        <f t="shared" si="3"/>
+        <v>alum:5.4.4</v>
       </c>
       <c r="B130" t="s">
-        <v>1363</v>
+        <v>1179</v>
       </c>
       <c r="C130" t="s">
         <v>1030</v>
       </c>
       <c r="D130" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E130" t="s">
         <v>1016</v>
@@ -28733,22 +28303,23 @@
       </c>
       <c r="M130" s="155"/>
       <c r="N130" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4.4 Remote communities - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>1162</v>
+      <c r="A131" t="str">
+        <f t="shared" ref="A131:A189" si="5">_xlfn.CONCAT("alum:",LEFT(B131,FIND(" ",B131)-1))</f>
+        <v>alum:5.4.5</v>
       </c>
       <c r="B131" t="s">
-        <v>1364</v>
+        <v>1180</v>
       </c>
       <c r="C131" t="s">
         <v>1030</v>
       </c>
       <c r="D131" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E131" t="s">
         <v>1016</v>
@@ -28770,22 +28341,23 @@
       </c>
       <c r="M131" s="155"/>
       <c r="N131" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.4.5 Farm buildings/infrastructure - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>1220</v>
+      <c r="A132" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.5.0</v>
       </c>
       <c r="B132" t="s">
-        <v>1426</v>
+        <v>1242</v>
       </c>
       <c r="C132" t="s">
         <v>1030</v>
       </c>
       <c r="D132" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E132" t="s">
         <v>1016</v>
@@ -28794,10 +28366,10 @@
         <v>1033</v>
       </c>
       <c r="G132" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H132" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I132" s="156">
         <v>45413</v>
@@ -28806,22 +28378,23 @@
         <v>1042</v>
       </c>
       <c r="N132" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5.0 Services - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>1163</v>
+      <c r="A133" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.5.1</v>
       </c>
       <c r="B133" t="s">
-        <v>1365</v>
+        <v>1181</v>
       </c>
       <c r="C133" t="s">
         <v>1030</v>
       </c>
       <c r="D133" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E133" t="s">
         <v>1016</v>
@@ -28843,22 +28416,23 @@
       </c>
       <c r="M133" s="155"/>
       <c r="N133" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5.1 Commercial services - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>1164</v>
+      <c r="A134" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.5.2</v>
       </c>
       <c r="B134" t="s">
-        <v>1366</v>
+        <v>1182</v>
       </c>
       <c r="C134" t="s">
         <v>1030</v>
       </c>
       <c r="D134" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E134" t="s">
         <v>1016</v>
@@ -28880,22 +28454,23 @@
       </c>
       <c r="M134" s="155"/>
       <c r="N134" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5.2 Public services - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>1165</v>
+      <c r="A135" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.5.3</v>
       </c>
       <c r="B135" t="s">
-        <v>1367</v>
+        <v>1183</v>
       </c>
       <c r="C135" t="s">
         <v>1030</v>
       </c>
       <c r="D135" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E135" t="s">
         <v>1016</v>
@@ -28917,22 +28492,23 @@
       </c>
       <c r="M135" s="155"/>
       <c r="N135" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5.3 Recreation and culture - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>1166</v>
+      <c r="A136" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.5.4</v>
       </c>
       <c r="B136" t="s">
-        <v>1368</v>
+        <v>1184</v>
       </c>
       <c r="C136" t="s">
         <v>1030</v>
       </c>
       <c r="D136" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E136" t="s">
         <v>1016</v>
@@ -28954,22 +28530,23 @@
       </c>
       <c r="M136" s="155"/>
       <c r="N136" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5.4 Defence facilities - urban - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>1167</v>
+      <c r="A137" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.5.5</v>
       </c>
       <c r="B137" t="s">
-        <v>1369</v>
+        <v>1185</v>
       </c>
       <c r="C137" t="s">
         <v>1030</v>
       </c>
       <c r="D137" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E137" t="s">
         <v>1016</v>
@@ -28991,22 +28568,23 @@
       </c>
       <c r="M137" s="155"/>
       <c r="N137" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5.5 Research facilities - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>1221</v>
+      <c r="A138" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.0</v>
       </c>
       <c r="B138" t="s">
-        <v>1427</v>
+        <v>1243</v>
       </c>
       <c r="C138" t="s">
         <v>1030</v>
       </c>
       <c r="D138" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E138" t="s">
         <v>1016</v>
@@ -29015,10 +28593,10 @@
         <v>1033</v>
       </c>
       <c r="G138" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H138" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I138" s="156">
         <v>45413</v>
@@ -29027,22 +28605,23 @@
         <v>1042</v>
       </c>
       <c r="N138" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.0 Utilities - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>1168</v>
+      <c r="A139" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.1</v>
       </c>
       <c r="B139" t="s">
-        <v>1370</v>
+        <v>1186</v>
       </c>
       <c r="C139" t="s">
         <v>1030</v>
       </c>
       <c r="D139" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E139" t="s">
         <v>1016</v>
@@ -29064,22 +28643,23 @@
       </c>
       <c r="M139" s="155"/>
       <c r="N139" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.1 Fuel powered electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>1169</v>
+      <c r="A140" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.2</v>
       </c>
       <c r="B140" t="s">
-        <v>1371</v>
+        <v>1187</v>
       </c>
       <c r="C140" t="s">
         <v>1030</v>
       </c>
       <c r="D140" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E140" t="s">
         <v>1016</v>
@@ -29101,22 +28681,23 @@
       </c>
       <c r="M140" s="155"/>
       <c r="N140" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.2 Hydro electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>1170</v>
+      <c r="A141" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.3</v>
       </c>
       <c r="B141" t="s">
-        <v>1372</v>
+        <v>1188</v>
       </c>
       <c r="C141" t="s">
         <v>1030</v>
       </c>
       <c r="D141" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E141" t="s">
         <v>1016</v>
@@ -29138,22 +28719,23 @@
       </c>
       <c r="M141" s="155"/>
       <c r="N141" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.3 Wind electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>1171</v>
+      <c r="A142" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.4</v>
       </c>
       <c r="B142" t="s">
-        <v>1373</v>
+        <v>1189</v>
       </c>
       <c r="C142" t="s">
         <v>1030</v>
       </c>
       <c r="D142" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E142" t="s">
         <v>1016</v>
@@ -29175,22 +28757,23 @@
       </c>
       <c r="M142" s="155"/>
       <c r="N142" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.4 Solar electricity generation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>1172</v>
+      <c r="A143" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.5</v>
       </c>
       <c r="B143" t="s">
-        <v>1374</v>
+        <v>1190</v>
       </c>
       <c r="C143" t="s">
         <v>1030</v>
       </c>
       <c r="D143" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E143" t="s">
         <v>1016</v>
@@ -29212,22 +28795,23 @@
       </c>
       <c r="M143" s="155"/>
       <c r="N143" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.5 Electricity substations and transmission - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>1173</v>
+      <c r="A144" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.6</v>
       </c>
       <c r="B144" t="s">
-        <v>1375</v>
+        <v>1191</v>
       </c>
       <c r="C144" t="s">
         <v>1030</v>
       </c>
       <c r="D144" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E144" t="s">
         <v>1016</v>
@@ -29249,22 +28833,23 @@
       </c>
       <c r="M144" s="155"/>
       <c r="N144" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.6 Gas treatment, storage and transmission - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>1174</v>
+      <c r="A145" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.6.7</v>
       </c>
       <c r="B145" t="s">
-        <v>1376</v>
+        <v>1192</v>
       </c>
       <c r="C145" t="s">
         <v>1030</v>
       </c>
       <c r="D145" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E145" t="s">
         <v>1016</v>
@@ -29286,22 +28871,23 @@
       </c>
       <c r="M145" s="155"/>
       <c r="N145" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6.7 Water extraction and transmission - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.7.0</v>
+      </c>
+      <c r="B146" t="s">
         <v>1244</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1428</v>
       </c>
       <c r="C146" t="s">
         <v>1030</v>
       </c>
       <c r="D146" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E146" t="s">
         <v>1016</v>
@@ -29310,10 +28896,10 @@
         <v>1033</v>
       </c>
       <c r="G146" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H146" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I146" s="156">
         <v>45413</v>
@@ -29322,22 +28908,23 @@
         <v>1042</v>
       </c>
       <c r="N146" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7.0 Transport and communication - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>1175</v>
+      <c r="A147" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.7.1</v>
       </c>
       <c r="B147" t="s">
-        <v>1377</v>
+        <v>1193</v>
       </c>
       <c r="C147" t="s">
         <v>1030</v>
       </c>
       <c r="D147" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E147" t="s">
         <v>1016</v>
@@ -29359,22 +28946,23 @@
       </c>
       <c r="M147" s="155"/>
       <c r="N147" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7.1 Airports/aerodromes - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>1176</v>
+      <c r="A148" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.7.2</v>
       </c>
       <c r="B148" t="s">
-        <v>1378</v>
+        <v>1194</v>
       </c>
       <c r="C148" t="s">
         <v>1030</v>
       </c>
       <c r="D148" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E148" t="s">
         <v>1016</v>
@@ -29396,22 +28984,23 @@
       </c>
       <c r="M148" s="155"/>
       <c r="N148" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7.2 Roads - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>1177</v>
+      <c r="A149" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.7.3</v>
       </c>
       <c r="B149" t="s">
-        <v>1379</v>
+        <v>1195</v>
       </c>
       <c r="C149" t="s">
         <v>1030</v>
       </c>
       <c r="D149" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E149" t="s">
         <v>1016</v>
@@ -29433,22 +29022,23 @@
       </c>
       <c r="M149" s="155"/>
       <c r="N149" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7.3 Railways - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>1178</v>
+      <c r="A150" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.7.4</v>
       </c>
       <c r="B150" t="s">
-        <v>1380</v>
+        <v>1196</v>
       </c>
       <c r="C150" t="s">
         <v>1030</v>
       </c>
       <c r="D150" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E150" t="s">
         <v>1016</v>
@@ -29470,22 +29060,23 @@
       </c>
       <c r="M150" s="155"/>
       <c r="N150" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7.4 Ports and water transport - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>1179</v>
+      <c r="A151" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.7.5</v>
       </c>
       <c r="B151" t="s">
-        <v>1381</v>
+        <v>1197</v>
       </c>
       <c r="C151" t="s">
         <v>1030</v>
       </c>
       <c r="D151" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E151" t="s">
         <v>1016</v>
@@ -29507,22 +29098,23 @@
       </c>
       <c r="M151" s="155"/>
       <c r="N151" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7.5 Navigation and communication - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>1222</v>
+      <c r="A152" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.8.0</v>
       </c>
       <c r="B152" t="s">
-        <v>1429</v>
+        <v>1245</v>
       </c>
       <c r="C152" t="s">
         <v>1030</v>
       </c>
       <c r="D152" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E152" t="s">
         <v>1016</v>
@@ -29531,10 +29123,10 @@
         <v>1033</v>
       </c>
       <c r="G152" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H152" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I152" s="156">
         <v>45413</v>
@@ -29543,22 +29135,23 @@
         <v>1042</v>
       </c>
       <c r="N152" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8.0 Mining - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>1180</v>
+      <c r="A153" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.8.1</v>
       </c>
       <c r="B153" t="s">
-        <v>1382</v>
+        <v>1198</v>
       </c>
       <c r="C153" t="s">
         <v>1030</v>
       </c>
       <c r="D153" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E153" t="s">
         <v>1016</v>
@@ -29580,22 +29173,23 @@
       </c>
       <c r="M153" s="155"/>
       <c r="N153" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8.1 Mines - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>1181</v>
+      <c r="A154" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.8.2</v>
       </c>
       <c r="B154" t="s">
-        <v>1383</v>
+        <v>1199</v>
       </c>
       <c r="C154" t="s">
         <v>1030</v>
       </c>
       <c r="D154" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E154" t="s">
         <v>1016</v>
@@ -29617,22 +29211,23 @@
       </c>
       <c r="M154" s="155"/>
       <c r="N154" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8.2 Quarries - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>1182</v>
+      <c r="A155" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.8.3</v>
       </c>
       <c r="B155" t="s">
-        <v>1384</v>
+        <v>1200</v>
       </c>
       <c r="C155" t="s">
         <v>1030</v>
       </c>
       <c r="D155" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E155" t="s">
         <v>1016</v>
@@ -29654,22 +29249,23 @@
       </c>
       <c r="M155" s="155"/>
       <c r="N155" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8.3 Tailings - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>1183</v>
+      <c r="A156" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.8.4</v>
       </c>
       <c r="B156" t="s">
-        <v>1478</v>
+        <v>1291</v>
       </c>
       <c r="C156" t="s">
         <v>1030</v>
       </c>
       <c r="D156" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E156" t="s">
         <v>1016</v>
@@ -29691,22 +29287,23 @@
       </c>
       <c r="M156" s="155"/>
       <c r="N156" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.8.4 Extractive industry not in use - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>1245</v>
+      <c r="A157" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.9.0</v>
       </c>
       <c r="B157" t="s">
-        <v>1430</v>
+        <v>1246</v>
       </c>
       <c r="C157" t="s">
         <v>1030</v>
       </c>
       <c r="D157" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E157" t="s">
         <v>1016</v>
@@ -29715,10 +29312,10 @@
         <v>1033</v>
       </c>
       <c r="G157" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H157" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I157" s="156">
         <v>45413</v>
@@ -29727,22 +29324,23 @@
         <v>1042</v>
       </c>
       <c r="N157" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9.0 Waste treatment and disposal - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>1184</v>
+      <c r="A158" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.9.1</v>
       </c>
       <c r="B158" t="s">
-        <v>1385</v>
+        <v>1201</v>
       </c>
       <c r="C158" t="s">
         <v>1030</v>
       </c>
       <c r="D158" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E158" t="s">
         <v>1016</v>
@@ -29764,22 +29362,23 @@
       </c>
       <c r="M158" s="155"/>
       <c r="N158" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9.1 Effluent pond - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>1185</v>
+      <c r="A159" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.9.2</v>
       </c>
       <c r="B159" t="s">
-        <v>1386</v>
+        <v>1202</v>
       </c>
       <c r="C159" t="s">
         <v>1030</v>
       </c>
       <c r="D159" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E159" t="s">
         <v>1016</v>
@@ -29801,22 +29400,23 @@
       </c>
       <c r="M159" s="155"/>
       <c r="N159" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9.2 Landfill - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>1186</v>
+      <c r="A160" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.9.3</v>
       </c>
       <c r="B160" t="s">
-        <v>1387</v>
+        <v>1203</v>
       </c>
       <c r="C160" t="s">
         <v>1030</v>
       </c>
       <c r="D160" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E160" t="s">
         <v>1016</v>
@@ -29838,22 +29438,23 @@
       </c>
       <c r="M160" s="155"/>
       <c r="N160" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9.3 Solid garbage - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>1187</v>
+      <c r="A161" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.9.4</v>
       </c>
       <c r="B161" t="s">
-        <v>1388</v>
+        <v>1204</v>
       </c>
       <c r="C161" t="s">
         <v>1030</v>
       </c>
       <c r="D161" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E161" t="s">
         <v>1016</v>
@@ -29875,22 +29476,23 @@
       </c>
       <c r="M161" s="155"/>
       <c r="N161" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9.4 Incinerators - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>1188</v>
+      <c r="A162" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:5.9.5</v>
       </c>
       <c r="B162" t="s">
-        <v>1389</v>
+        <v>1205</v>
       </c>
       <c r="C162" t="s">
         <v>1030</v>
       </c>
       <c r="D162" t="s">
-        <v>1484</v>
+        <v>1297</v>
       </c>
       <c r="E162" t="s">
         <v>1016</v>
@@ -29912,16 +29514,17 @@
       </c>
       <c r="M162" s="155"/>
       <c r="N162" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.9.5 Sewage/sewerage - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>1223</v>
+      <c r="A163" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.0.0</v>
       </c>
       <c r="B163" t="s">
-        <v>1438</v>
+        <v>1254</v>
       </c>
       <c r="C163" s="153" t="s">
         <v>1030</v>
@@ -29936,10 +29539,10 @@
         <v>1033</v>
       </c>
       <c r="G163" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H163" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I163" s="156">
         <v>45413</v>
@@ -29948,16 +29551,17 @@
         <v>1042</v>
       </c>
       <c r="N163" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0.0 Water - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>1224</v>
+      <c r="A164" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.1.0</v>
       </c>
       <c r="B164" t="s">
-        <v>1431</v>
+        <v>1247</v>
       </c>
       <c r="C164" t="s">
         <v>1030</v>
@@ -29972,10 +29576,10 @@
         <v>1033</v>
       </c>
       <c r="G164" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H164" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I164" s="156">
         <v>45413</v>
@@ -29984,16 +29588,17 @@
         <v>1042</v>
       </c>
       <c r="N164" s="155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.1.0 Lake - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>1189</v>
+      <c r="A165" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.1.1</v>
       </c>
       <c r="B165" t="s">
-        <v>1390</v>
+        <v>1206</v>
       </c>
       <c r="C165" t="s">
         <v>1030</v>
@@ -30024,16 +29629,17 @@
       </c>
       <c r="M165" s="155"/>
       <c r="N165" s="155" t="str">
-        <f t="shared" ref="N165:N189" si="3">CONCATENATE(B165, " - mapping to IUCN GET")</f>
+        <f t="shared" ref="N165:N189" si="6">CONCATENATE(B165, " - mapping to IUCN GET")</f>
         <v>6.1.1 Lake - conservation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>1190</v>
+      <c r="A166" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.1.2</v>
       </c>
       <c r="B166" t="s">
-        <v>1391</v>
+        <v>1207</v>
       </c>
       <c r="C166" t="s">
         <v>1030</v>
@@ -30064,16 +29670,17 @@
       </c>
       <c r="M166" s="155"/>
       <c r="N166" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1.2 Lake - production - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>1191</v>
+      <c r="A167" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.1.3</v>
       </c>
       <c r="B167" t="s">
-        <v>1392</v>
+        <v>1208</v>
       </c>
       <c r="C167" t="s">
         <v>1030</v>
@@ -30104,16 +29711,17 @@
       </c>
       <c r="M167" s="155"/>
       <c r="N167" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1.3 Lake - intensive use - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>1192</v>
+      <c r="A168" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.1.4</v>
       </c>
       <c r="B168" t="s">
-        <v>1393</v>
+        <v>1209</v>
       </c>
       <c r="C168" t="s">
         <v>1032</v>
@@ -30141,22 +29749,23 @@
       </c>
       <c r="M168" s="155"/>
       <c r="N168" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.1.4 Lake - saline - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>1225</v>
+      <c r="A169" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.2.0</v>
       </c>
       <c r="B169" t="s">
-        <v>1432</v>
+        <v>1248</v>
       </c>
       <c r="C169" t="s">
         <v>1030</v>
       </c>
       <c r="D169" t="s">
-        <v>1486</v>
+        <v>1299</v>
       </c>
       <c r="E169" t="s">
         <v>1017</v>
@@ -30165,10 +29774,10 @@
         <v>1033</v>
       </c>
       <c r="G169" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H169" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I169" s="156">
         <v>45413</v>
@@ -30177,22 +29786,23 @@
         <v>1042</v>
       </c>
       <c r="N169" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2.0 Reservoir/dam - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>1193</v>
+      <c r="A170" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.2.1</v>
       </c>
       <c r="B170" t="s">
-        <v>1394</v>
+        <v>1210</v>
       </c>
       <c r="C170" t="s">
         <v>1030</v>
       </c>
       <c r="D170" t="s">
-        <v>1486</v>
+        <v>1299</v>
       </c>
       <c r="E170" t="s">
         <v>1017</v>
@@ -30214,22 +29824,23 @@
       </c>
       <c r="M170" s="155"/>
       <c r="N170" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2.1 Reservoir - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>1194</v>
+      <c r="A171" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.2.2</v>
       </c>
       <c r="B171" t="s">
-        <v>1395</v>
+        <v>1211</v>
       </c>
       <c r="C171" t="s">
         <v>1030</v>
       </c>
       <c r="D171" t="s">
-        <v>1486</v>
+        <v>1299</v>
       </c>
       <c r="E171" t="s">
         <v>1017</v>
@@ -30251,22 +29862,23 @@
       </c>
       <c r="M171" s="155"/>
       <c r="N171" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2.2 Water storage - intensive use/farm dams - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>1195</v>
+      <c r="A172" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.2.3</v>
       </c>
       <c r="B172" t="s">
-        <v>1396</v>
+        <v>1212</v>
       </c>
       <c r="C172" t="s">
         <v>1030</v>
       </c>
       <c r="D172" t="s">
-        <v>1486</v>
+        <v>1299</v>
       </c>
       <c r="E172" t="s">
         <v>1017</v>
@@ -30288,16 +29900,17 @@
       </c>
       <c r="M172" s="155"/>
       <c r="N172" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.2.3 Evaporation basin - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>1226</v>
+      <c r="A173" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.3.0</v>
       </c>
       <c r="B173" t="s">
-        <v>1433</v>
+        <v>1249</v>
       </c>
       <c r="C173" t="s">
         <v>1030</v>
@@ -30312,10 +29925,10 @@
         <v>1033</v>
       </c>
       <c r="G173" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H173" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I173" s="156">
         <v>45413</v>
@@ -30324,16 +29937,17 @@
         <v>1042</v>
       </c>
       <c r="N173" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3.0 River - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>1196</v>
+      <c r="A174" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.3.1</v>
       </c>
       <c r="B174" t="s">
-        <v>1397</v>
+        <v>1213</v>
       </c>
       <c r="C174" t="s">
         <v>1030</v>
@@ -30364,16 +29978,17 @@
       </c>
       <c r="M174" s="155"/>
       <c r="N174" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3.1 River - conservation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>1197</v>
+      <c r="A175" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.3.2</v>
       </c>
       <c r="B175" t="s">
-        <v>1398</v>
+        <v>1214</v>
       </c>
       <c r="C175" t="s">
         <v>1030</v>
@@ -30404,16 +30019,17 @@
       </c>
       <c r="M175" s="155"/>
       <c r="N175" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3.2 River - production - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>1198</v>
+      <c r="A176" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.3.3</v>
       </c>
       <c r="B176" t="s">
-        <v>1399</v>
+        <v>1215</v>
       </c>
       <c r="C176" t="s">
         <v>1030</v>
@@ -30444,22 +30060,23 @@
       </c>
       <c r="M176" s="155"/>
       <c r="N176" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.3.3 River - intensive use - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>1227</v>
+      <c r="A177" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.4.0</v>
       </c>
       <c r="B177" t="s">
-        <v>1434</v>
+        <v>1250</v>
       </c>
       <c r="C177" t="s">
         <v>1030</v>
       </c>
       <c r="D177" t="s">
-        <v>1487</v>
+        <v>1300</v>
       </c>
       <c r="E177" t="s">
         <v>1018</v>
@@ -30468,10 +30085,10 @@
         <v>1033</v>
       </c>
       <c r="G177" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H177" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I177" s="156">
         <v>45413</v>
@@ -30480,22 +30097,23 @@
         <v>1042</v>
       </c>
       <c r="N177" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4.0 Channel/aqueduct - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>1199</v>
+      <c r="A178" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.4.1</v>
       </c>
       <c r="B178" t="s">
-        <v>1400</v>
+        <v>1216</v>
       </c>
       <c r="C178" t="s">
         <v>1030</v>
       </c>
       <c r="D178" t="s">
-        <v>1487</v>
+        <v>1300</v>
       </c>
       <c r="E178" t="s">
         <v>1018</v>
@@ -30517,22 +30135,23 @@
       </c>
       <c r="M178" s="155"/>
       <c r="N178" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4.1 Supply channel/aqueduct - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>1200</v>
+      <c r="A179" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.4.2</v>
       </c>
       <c r="B179" t="s">
-        <v>1401</v>
+        <v>1217</v>
       </c>
       <c r="C179" t="s">
         <v>1030</v>
       </c>
       <c r="D179" t="s">
-        <v>1487</v>
+        <v>1300</v>
       </c>
       <c r="E179" t="s">
         <v>1018</v>
@@ -30554,22 +30173,23 @@
       </c>
       <c r="M179" s="155"/>
       <c r="N179" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4.2 Drainage channel/aqueduct - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>1201</v>
+      <c r="A180" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.4.3</v>
       </c>
       <c r="B180" t="s">
-        <v>1402</v>
+        <v>1218</v>
       </c>
       <c r="C180" t="s">
         <v>1030</v>
       </c>
       <c r="D180" t="s">
-        <v>1487</v>
+        <v>1300</v>
       </c>
       <c r="E180" t="s">
         <v>1018</v>
@@ -30591,16 +30211,17 @@
       </c>
       <c r="M180" s="155"/>
       <c r="N180" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.4.3 Stormwater - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>1228</v>
+      <c r="A181" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.5.0</v>
       </c>
       <c r="B181" t="s">
-        <v>1435</v>
+        <v>1251</v>
       </c>
       <c r="C181" t="s">
         <v>1030</v>
@@ -30615,10 +30236,10 @@
         <v>1033</v>
       </c>
       <c r="G181" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H181" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I181" s="156">
         <v>45413</v>
@@ -30627,16 +30248,17 @@
         <v>1042</v>
       </c>
       <c r="N181" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.5.0 Marsh/wetland - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>1202</v>
+      <c r="A182" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.5.1</v>
       </c>
       <c r="B182" t="s">
-        <v>1403</v>
+        <v>1219</v>
       </c>
       <c r="C182" t="s">
         <v>1030</v>
@@ -30667,16 +30289,17 @@
       </c>
       <c r="M182" s="155"/>
       <c r="N182" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.5.1 Marsh/wetland - conservation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>1203</v>
+      <c r="A183" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.5.2</v>
       </c>
       <c r="B183" t="s">
-        <v>1404</v>
+        <v>1220</v>
       </c>
       <c r="C183" t="s">
         <v>1030</v>
@@ -30707,16 +30330,17 @@
       </c>
       <c r="M183" s="155"/>
       <c r="N183" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.5.2 Marsh/wetland - production - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>1204</v>
+      <c r="A184" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.5.3</v>
       </c>
       <c r="B184" t="s">
-        <v>1405</v>
+        <v>1221</v>
       </c>
       <c r="C184" t="s">
         <v>1030</v>
@@ -30747,22 +30371,23 @@
       </c>
       <c r="M184" s="155"/>
       <c r="N184" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.5.3 Marsh/wetland - intensive use - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>1205</v>
+      <c r="A185" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.5.4</v>
       </c>
       <c r="B185" t="s">
-        <v>1406</v>
+        <v>1222</v>
       </c>
       <c r="C185" t="s">
         <v>1031</v>
       </c>
       <c r="D185" t="s">
-        <v>1488</v>
+        <v>1301</v>
       </c>
       <c r="E185" t="s">
         <v>1023</v>
@@ -30784,16 +30409,17 @@
       </c>
       <c r="M185" s="155"/>
       <c r="N185" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.5.4 Marsh/wetland - saline - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>1246</v>
+      <c r="A186" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.6.0</v>
       </c>
       <c r="B186" t="s">
-        <v>1436</v>
+        <v>1252</v>
       </c>
       <c r="C186" s="104" t="s">
         <v>1030</v>
@@ -30808,10 +30434,10 @@
         <v>1033</v>
       </c>
       <c r="G186" s="155" t="s">
-        <v>1247</v>
+        <v>1067</v>
       </c>
       <c r="H186" t="s">
-        <v>1248</v>
+        <v>1068</v>
       </c>
       <c r="I186" s="156">
         <v>45413</v>
@@ -30820,16 +30446,17 @@
         <v>1042</v>
       </c>
       <c r="N186" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.6.0 Estuary/coastal waters - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>1206</v>
+      <c r="A187" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.6.1</v>
       </c>
       <c r="B187" t="s">
-        <v>1407</v>
+        <v>1223</v>
       </c>
       <c r="C187" s="104" t="s">
         <v>1030</v>
@@ -30860,16 +30487,17 @@
       </c>
       <c r="M187" s="155"/>
       <c r="N187" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.6.1 Estuary/coastal waters - conservation - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>1207</v>
+      <c r="A188" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.6.2</v>
       </c>
       <c r="B188" t="s">
-        <v>1408</v>
+        <v>1224</v>
       </c>
       <c r="C188" s="104" t="s">
         <v>1030</v>
@@ -30900,16 +30528,17 @@
       </c>
       <c r="M188" s="155"/>
       <c r="N188" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.6.2 Estuary/coastal waters - production - mapping to IUCN GET</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>1208</v>
+      <c r="A189" t="str">
+        <f t="shared" si="5"/>
+        <v>alum:6.6.3</v>
       </c>
       <c r="B189" t="s">
-        <v>1409</v>
+        <v>1225</v>
       </c>
       <c r="C189" s="104" t="s">
         <v>1030</v>
@@ -30940,7 +30569,7 @@
       </c>
       <c r="M189" s="155"/>
       <c r="N189" s="155" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.6.3 Estuary/coastal waters - intensive use - mapping to IUCN GET</v>
       </c>
     </row>
@@ -30989,21 +30618,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31139,19 +30768,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E524E68-7CD3-4184-A652-69A55EDD8DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE728B-2C81-44C7-A9F4-650A7F52181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="5790" windowWidth="23925" windowHeight="10815" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="9660" windowWidth="34230" windowHeight="10815" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -23211,7 +23211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CB4D65-9DAF-4373-8A3E-AE42C6AE42AD}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -23271,9 +23271,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A189"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23374,13 +23374,13 @@
       </c>
       <c r="M2" s="155"/>
       <c r="N2" s="155" t="str">
-        <f t="shared" ref="N2:N65" si="0">CONCATENATE(B2, " - mapping to IUCN GET")</f>
-        <v>1.1.1 Strict nature reserves - mapping to IUCN GET</v>
+        <f>CONCATENATE(B2, " - mapping to IUCN GET - ", ROW(B2)-1)</f>
+        <v>1.1.1 Strict nature reserves - mapping to IUCN GET - 1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" si="1">_xlfn.CONCAT("alum:",LEFT(B3,FIND(" ",B3)-1))</f>
+        <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT("alum:",LEFT(B3,FIND(" ",B3)-1))</f>
         <v>alum:1.1.2</v>
       </c>
       <c r="B3" t="s">
@@ -23415,13 +23415,13 @@
       </c>
       <c r="M3" s="155"/>
       <c r="N3" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.1.2 Wilderness area - mapping to IUCN GET</v>
+        <f t="shared" ref="N3:N66" si="1">CONCATENATE(B3, " - mapping to IUCN GET - ", ROW(B3)-1)</f>
+        <v>1.1.2 Wilderness area - mapping to IUCN GET - 2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.1.3</v>
       </c>
       <c r="B4" t="s">
@@ -23456,13 +23456,13 @@
       </c>
       <c r="M4" s="155"/>
       <c r="N4" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.1.3 National park - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.1.3 National park - mapping to IUCN GET - 3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.1.4</v>
       </c>
       <c r="B5" t="s">
@@ -23497,13 +23497,13 @@
       </c>
       <c r="M5" s="155"/>
       <c r="N5" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.1.4 Natural feature protection - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.1.4 Natural feature protection - mapping to IUCN GET - 4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.1.5</v>
       </c>
       <c r="B6" t="s">
@@ -23538,13 +23538,13 @@
       </c>
       <c r="M6" s="155"/>
       <c r="N6" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.1.5 Habitat/species management area - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.1.5 Habitat/species management area - mapping to IUCN GET - 5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.1.6</v>
       </c>
       <c r="B7" t="s">
@@ -23579,13 +23579,13 @@
       </c>
       <c r="M7" s="155"/>
       <c r="N7" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.1.6 Protected landscape - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.1.6 Protected landscape - mapping to IUCN GET - 6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.1.7</v>
       </c>
       <c r="B8" t="s">
@@ -23620,13 +23620,13 @@
       </c>
       <c r="M8" s="155"/>
       <c r="N8" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.1.7 Other conserved area - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.1.7 Other conserved area - mapping to IUCN GET - 7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.2.0</v>
       </c>
       <c r="B9" t="s">
@@ -23657,13 +23657,13 @@
         <v>1042</v>
       </c>
       <c r="N9" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.0 Managed resource protection - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.2.0 Managed resource protection - mapping to IUCN GET - 8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.2.1</v>
       </c>
       <c r="B10" t="s">
@@ -23698,13 +23698,13 @@
       </c>
       <c r="M10" s="155"/>
       <c r="N10" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.1 Biodiversity - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.2.1 Biodiversity - mapping to IUCN GET - 9</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.2.2</v>
       </c>
       <c r="B11" t="s">
@@ -23739,13 +23739,13 @@
       </c>
       <c r="M11" s="155"/>
       <c r="N11" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.2 Surface water supply - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.2.2 Surface water supply - mapping to IUCN GET - 10</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.2.3</v>
       </c>
       <c r="B12" t="s">
@@ -23780,13 +23780,13 @@
       </c>
       <c r="M12" s="155"/>
       <c r="N12" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.3 Groundwater - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.2.3 Groundwater - mapping to IUCN GET - 11</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.2.4</v>
       </c>
       <c r="B13" t="s">
@@ -23821,13 +23821,13 @@
       </c>
       <c r="M13" s="155"/>
       <c r="N13" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.4 Landscape - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.2.4 Landscape - mapping to IUCN GET - 12</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.2.5</v>
       </c>
       <c r="B14" t="s">
@@ -23862,13 +23862,13 @@
       </c>
       <c r="M14" s="155"/>
       <c r="N14" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2.5 Traditional indigenous uses - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.2.5 Traditional indigenous uses - mapping to IUCN GET - 13</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.3.0</v>
       </c>
       <c r="B15" t="s">
@@ -23899,13 +23899,13 @@
         <v>1042</v>
       </c>
       <c r="N15" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3.0 Other minimal use - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.3.0 Other minimal use - mapping to IUCN GET - 14</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.3.1</v>
       </c>
       <c r="B16" t="s">
@@ -23940,13 +23940,13 @@
       </c>
       <c r="M16" s="155"/>
       <c r="N16" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3.1 Defence land - natural areas - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.3.1 Defence land - natural areas - mapping to IUCN GET - 15</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.3.2</v>
       </c>
       <c r="B17" t="s">
@@ -23981,13 +23981,13 @@
       </c>
       <c r="M17" s="155"/>
       <c r="N17" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3.2 Stock route - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.3.2 Stock route - mapping to IUCN GET - 16</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.3.3</v>
       </c>
       <c r="B18" t="s">
@@ -24022,13 +24022,13 @@
       </c>
       <c r="M18" s="155"/>
       <c r="N18" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3.3 Residual native cover - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.3.3 Residual native cover - mapping to IUCN GET - 17</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:1.3.4</v>
       </c>
       <c r="B19" t="s">
@@ -24063,13 +24063,13 @@
       </c>
       <c r="M19" s="155"/>
       <c r="N19" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3.4 Rehabilitation - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>1.3.4 Rehabilitation - mapping to IUCN GET - 18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:2.1.0</v>
       </c>
       <c r="B20" t="s">
@@ -24100,13 +24100,13 @@
         <v>1042</v>
       </c>
       <c r="N20" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>2.1.0 Grazing native vegetation - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>2.1.0 Grazing native vegetation - mapping to IUCN GET - 19</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:2.2.0</v>
       </c>
       <c r="B21" t="s">
@@ -24137,13 +24137,13 @@
         <v>1042</v>
       </c>
       <c r="N21" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>2.2.0 Production native forests - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>2.2.0 Production native forests - mapping to IUCN GET - 20</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:2.2.1</v>
       </c>
       <c r="B22" t="s">
@@ -24178,13 +24178,13 @@
       </c>
       <c r="M22" s="155"/>
       <c r="N22" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>2.2.1 Wood production forestry - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>2.2.1 Wood production forestry - mapping to IUCN GET - 21</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:2.2.2</v>
       </c>
       <c r="B23" t="s">
@@ -24219,13 +24219,13 @@
       </c>
       <c r="M23" s="155"/>
       <c r="N23" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>2.2.2 Other forest production - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>2.2.2 Other forest production - mapping to IUCN GET - 22</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.1.0</v>
       </c>
       <c r="B24" t="s">
@@ -24256,13 +24256,13 @@
         <v>1042</v>
       </c>
       <c r="N24" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1.0 Plantation forests - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.1.0 Plantation forests - mapping to IUCN GET - 23</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.1.1</v>
       </c>
       <c r="B25" t="s">
@@ -24294,13 +24294,13 @@
       </c>
       <c r="M25" s="155"/>
       <c r="N25" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1.1 Hardwood plantation forestry - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.1.1 Hardwood plantation forestry - mapping to IUCN GET - 24</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.1.2</v>
       </c>
       <c r="B26" t="s">
@@ -24332,13 +24332,13 @@
       </c>
       <c r="M26" s="155"/>
       <c r="N26" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1.2 Softwood plantation forestry - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.1.2 Softwood plantation forestry - mapping to IUCN GET - 25</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.1.3</v>
       </c>
       <c r="B27" t="s">
@@ -24370,13 +24370,13 @@
       </c>
       <c r="M27" s="155"/>
       <c r="N27" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1.3 Other forest plantation - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.1.3 Other forest plantation - mapping to IUCN GET - 26</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.1.4</v>
       </c>
       <c r="B28" t="s">
@@ -24408,13 +24408,13 @@
       </c>
       <c r="M28" s="155"/>
       <c r="N28" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.1.4 Environmental forest plantation - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.1.4 Environmental forest plantation - mapping to IUCN GET - 27</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.2.0</v>
       </c>
       <c r="B29" t="s">
@@ -24445,13 +24445,13 @@
         <v>1042</v>
       </c>
       <c r="N29" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.0 Grazing modified pastures - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.2.0 Grazing modified pastures - mapping to IUCN GET - 28</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.2.1</v>
       </c>
       <c r="B30" t="s">
@@ -24483,13 +24483,13 @@
       </c>
       <c r="M30" s="155"/>
       <c r="N30" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.1 Native/exotic pasture mosaic - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.2.1 Native/exotic pasture mosaic - mapping to IUCN GET - 29</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.2.2</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -24521,13 +24521,13 @@
       </c>
       <c r="M31" s="155"/>
       <c r="N31" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.2 Woody fodder plants - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.2.2 Woody fodder plants - mapping to IUCN GET - 30</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.2.3</v>
       </c>
       <c r="B32" t="s">
@@ -24559,13 +24559,13 @@
       </c>
       <c r="M32" s="155"/>
       <c r="N32" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.3 Pasture legumes - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.2.3 Pasture legumes - mapping to IUCN GET - 31</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.2.4</v>
       </c>
       <c r="B33" t="s">
@@ -24597,13 +24597,13 @@
       </c>
       <c r="M33" s="155"/>
       <c r="N33" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.4 Pasture legume/grass mixtures - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.2.4 Pasture legume/grass mixtures - mapping to IUCN GET - 32</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.2.5</v>
       </c>
       <c r="B34" t="s">
@@ -24635,13 +24635,13 @@
       </c>
       <c r="M34" s="155"/>
       <c r="N34" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.2.5 Sown grasses - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.2.5 Sown grasses - mapping to IUCN GET - 33</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.0</v>
       </c>
       <c r="B35" t="s">
@@ -24672,13 +24672,13 @@
         <v>1042</v>
       </c>
       <c r="N35" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.0 Cropping - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.0 Cropping - mapping to IUCN GET - 34</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.1</v>
       </c>
       <c r="B36" t="s">
@@ -24710,13 +24710,13 @@
       </c>
       <c r="M36" s="155"/>
       <c r="N36" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.1 Cereals - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.1 Cereals - mapping to IUCN GET - 35</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.2</v>
       </c>
       <c r="B37" t="s">
@@ -24748,13 +24748,13 @@
       </c>
       <c r="M37" s="155"/>
       <c r="N37" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.2 Beverage and spice crops - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.2 Beverage and spice crops - mapping to IUCN GET - 36</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.3</v>
       </c>
       <c r="B38" t="s">
@@ -24786,13 +24786,13 @@
       </c>
       <c r="M38" s="155"/>
       <c r="N38" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.3 Hay and silage - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.3 Hay and silage - mapping to IUCN GET - 37</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.4</v>
       </c>
       <c r="B39" t="s">
@@ -24824,13 +24824,13 @@
       </c>
       <c r="M39" s="155"/>
       <c r="N39" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.4 Oilseeds - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.4 Oilseeds - mapping to IUCN GET - 38</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.5</v>
       </c>
       <c r="B40" t="s">
@@ -24862,13 +24862,13 @@
       </c>
       <c r="M40" s="155"/>
       <c r="N40" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.5 Sugar - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.5 Sugar - mapping to IUCN GET - 39</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.6</v>
       </c>
       <c r="B41" t="s">
@@ -24900,13 +24900,13 @@
       </c>
       <c r="M41" s="155"/>
       <c r="N41" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.6 Cotton - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.6 Cotton - mapping to IUCN GET - 40</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.7</v>
       </c>
       <c r="B42" t="s">
@@ -24938,13 +24938,13 @@
       </c>
       <c r="M42" s="155"/>
       <c r="N42" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.7 Alkaloid poppies - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.7 Alkaloid poppies - mapping to IUCN GET - 41</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.3.8</v>
       </c>
       <c r="B43" t="s">
@@ -24976,13 +24976,13 @@
       </c>
       <c r="M43" s="155"/>
       <c r="N43" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3.8 Pulses - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.3.8 Pulses - mapping to IUCN GET - 42</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.0</v>
       </c>
       <c r="B44" t="s">
@@ -25013,13 +25013,13 @@
         <v>1042</v>
       </c>
       <c r="N44" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.0 Perennial horticulture - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.0 Perennial horticulture - mapping to IUCN GET - 43</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.1</v>
       </c>
       <c r="B45" t="s">
@@ -25051,13 +25051,13 @@
       </c>
       <c r="M45" s="155"/>
       <c r="N45" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.1 Tree fruits - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.1 Tree fruits - mapping to IUCN GET - 44</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.2</v>
       </c>
       <c r="B46" t="s">
@@ -25089,13 +25089,13 @@
       </c>
       <c r="M46" s="155"/>
       <c r="N46" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.2 Olives - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.2 Olives - mapping to IUCN GET - 45</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.3</v>
       </c>
       <c r="B47" t="s">
@@ -25127,13 +25127,13 @@
       </c>
       <c r="M47" s="155"/>
       <c r="N47" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.3 Tree nuts - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.3 Tree nuts - mapping to IUCN GET - 46</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.4</v>
       </c>
       <c r="B48" t="s">
@@ -25165,13 +25165,13 @@
       </c>
       <c r="M48" s="155"/>
       <c r="N48" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.4 Vine fruits - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.4 Vine fruits - mapping to IUCN GET - 47</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.5</v>
       </c>
       <c r="B49" t="s">
@@ -25203,13 +25203,13 @@
       </c>
       <c r="M49" s="155"/>
       <c r="N49" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.5 Shrub berries and fruits - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.5 Shrub berries and fruits - mapping to IUCN GET - 48</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.6</v>
       </c>
       <c r="B50" t="s">
@@ -25241,13 +25241,13 @@
       </c>
       <c r="M50" s="155"/>
       <c r="N50" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.6 Perennial flowers and bulbs - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.6 Perennial flowers and bulbs - mapping to IUCN GET - 49</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.7</v>
       </c>
       <c r="B51" t="s">
@@ -25279,13 +25279,13 @@
       </c>
       <c r="M51" s="155"/>
       <c r="N51" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.7 Perennial vegetables and herbs - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.7 Perennial vegetables and herbs - mapping to IUCN GET - 50</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.8</v>
       </c>
       <c r="B52" t="s">
@@ -25317,13 +25317,13 @@
       </c>
       <c r="M52" s="155"/>
       <c r="N52" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.8 Citrus - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.8 Citrus - mapping to IUCN GET - 51</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.4.9</v>
       </c>
       <c r="B53" t="s">
@@ -25355,13 +25355,13 @@
       </c>
       <c r="M53" s="155"/>
       <c r="N53" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.4.9 Grapes - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.4.9 Grapes - mapping to IUCN GET - 52</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.5.1</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -25393,13 +25393,13 @@
       </c>
       <c r="M54" s="155"/>
       <c r="N54" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.5.1 Seasonal fruits - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.5.1 Seasonal fruits - mapping to IUCN GET - 53</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.5.2</v>
       </c>
       <c r="B55" t="s">
@@ -25431,13 +25431,13 @@
       </c>
       <c r="M55" s="155"/>
       <c r="N55" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.5.2 Seasonal flowers and bulbs - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.5.2 Seasonal flowers and bulbs - mapping to IUCN GET - 54</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.5.4</v>
       </c>
       <c r="B56" s="17" t="s">
@@ -25469,13 +25469,13 @@
       </c>
       <c r="M56" s="155"/>
       <c r="N56" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.5.4 Seasonal vegetables and herbs - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.5.4 Seasonal vegetables and herbs - mapping to IUCN GET - 55</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.6.1</v>
       </c>
       <c r="B57" t="s">
@@ -25510,13 +25510,13 @@
       </c>
       <c r="M57" s="155"/>
       <c r="N57" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6.1 Degraded land - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.6.1 Degraded land - mapping to IUCN GET - 56</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.6.2</v>
       </c>
       <c r="B58" t="s">
@@ -25551,13 +25551,13 @@
       </c>
       <c r="M58" s="155"/>
       <c r="N58" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6.2 Abandoned land - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.6.2 Abandoned land - mapping to IUCN GET - 57</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.6.3</v>
       </c>
       <c r="B59" t="s">
@@ -25592,13 +25592,13 @@
       </c>
       <c r="M59" s="155"/>
       <c r="N59" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6.3 Land under rehabilitation - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.6.3 Land under rehabilitation - mapping to IUCN GET - 58</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.6.4</v>
       </c>
       <c r="B60" t="s">
@@ -25633,13 +25633,13 @@
       </c>
       <c r="M60" s="155"/>
       <c r="N60" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6.4 No defined use - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.6.4 No defined use - mapping to IUCN GET - 59</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:3.6.5</v>
       </c>
       <c r="B61" t="s">
@@ -25674,13 +25674,13 @@
       </c>
       <c r="M61" s="155"/>
       <c r="N61" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6.5 Abandoned perennial horticulture - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>3.6.5 Abandoned perennial horticulture - mapping to IUCN GET - 60</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:4.1.0</v>
       </c>
       <c r="B62" t="s">
@@ -25711,13 +25711,13 @@
         <v>1042</v>
       </c>
       <c r="N62" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.0 Irrigated plantation forests - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>4.1.0 Irrigated plantation forests - mapping to IUCN GET - 61</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:4.1.1</v>
       </c>
       <c r="B63" t="s">
@@ -25749,13 +25749,13 @@
       </c>
       <c r="M63" s="155"/>
       <c r="N63" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.1 Irrigated hardwood plantation forestry - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>4.1.1 Irrigated hardwood plantation forestry - mapping to IUCN GET - 62</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:4.1.2</v>
       </c>
       <c r="B64" t="s">
@@ -25787,13 +25787,13 @@
       </c>
       <c r="M64" s="155"/>
       <c r="N64" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.2 Irrigated softwood plantation forestry - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>4.1.2 Irrigated softwood plantation forestry - mapping to IUCN GET - 63</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:4.1.3</v>
       </c>
       <c r="B65" t="s">
@@ -25825,13 +25825,13 @@
       </c>
       <c r="M65" s="155"/>
       <c r="N65" s="155" t="str">
-        <f t="shared" si="0"/>
-        <v>4.1.3 Irrigated other forest production - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>4.1.3 Irrigated other forest production - mapping to IUCN GET - 64</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>alum:4.1.4</v>
       </c>
       <c r="B66" t="s">
@@ -25863,13 +25863,13 @@
       </c>
       <c r="M66" s="155"/>
       <c r="N66" s="155" t="str">
-        <f t="shared" ref="N66:N99" si="2">CONCATENATE(B66, " - mapping to IUCN GET")</f>
-        <v>4.1.4 Irrigated environmental forest plantation - mapping to IUCN GET</v>
+        <f t="shared" si="1"/>
+        <v>4.1.4 Irrigated environmental forest plantation - mapping to IUCN GET - 65</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A130" si="3">_xlfn.CONCAT("alum:",LEFT(B67,FIND(" ",B67)-1))</f>
+        <f t="shared" ref="A67:A130" si="2">_xlfn.CONCAT("alum:",LEFT(B67,FIND(" ",B67)-1))</f>
         <v>alum:4.2.0</v>
       </c>
       <c r="B67" t="s">
@@ -25900,13 +25900,13 @@
         <v>1042</v>
       </c>
       <c r="N67" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.2.0 Grazing irrigated modified pastures - mapping to IUCN GET</v>
+        <f t="shared" ref="N67:N130" si="3">CONCATENATE(B67, " - mapping to IUCN GET - ", ROW(B67)-1)</f>
+        <v>4.2.0 Grazing irrigated modified pastures - mapping to IUCN GET - 66</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.2.1</v>
       </c>
       <c r="B68" t="s">
@@ -25938,13 +25938,13 @@
       </c>
       <c r="M68" s="155"/>
       <c r="N68" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.2.1 Irrigated woody fodder plants - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.2.1 Irrigated woody fodder plants - mapping to IUCN GET - 67</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.2.2</v>
       </c>
       <c r="B69" t="s">
@@ -25976,13 +25976,13 @@
       </c>
       <c r="M69" s="155"/>
       <c r="N69" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.2.2 Irrigated pasture legumes - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.2.2 Irrigated pasture legumes - mapping to IUCN GET - 68</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.2.3</v>
       </c>
       <c r="B70" t="s">
@@ -26014,13 +26014,13 @@
       </c>
       <c r="M70" s="155"/>
       <c r="N70" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.2.3 Irrigated legume/grass mixtures - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.2.3 Irrigated legume/grass mixtures - mapping to IUCN GET - 69</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.2.4</v>
       </c>
       <c r="B71" t="s">
@@ -26052,13 +26052,13 @@
       </c>
       <c r="M71" s="155"/>
       <c r="N71" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.2.4 Irrigated sown grasses - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.2.4 Irrigated sown grasses - mapping to IUCN GET - 70</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.0</v>
       </c>
       <c r="B72" t="s">
@@ -26089,13 +26089,13 @@
         <v>1042</v>
       </c>
       <c r="N72" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.0 Irrigated cropping - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.0 Irrigated cropping - mapping to IUCN GET - 71</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.1</v>
       </c>
       <c r="B73" t="s">
@@ -26127,13 +26127,13 @@
       </c>
       <c r="M73" s="155"/>
       <c r="N73" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.1 Irrigated cereals - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.1 Irrigated cereals - mapping to IUCN GET - 72</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.2</v>
       </c>
       <c r="B74" t="s">
@@ -26165,13 +26165,13 @@
       </c>
       <c r="M74" s="155"/>
       <c r="N74" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.2 Irrigated beverage and spice crops - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.2 Irrigated beverage and spice crops - mapping to IUCN GET - 73</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.3</v>
       </c>
       <c r="B75" t="s">
@@ -26203,13 +26203,13 @@
       </c>
       <c r="M75" s="155"/>
       <c r="N75" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.3 Irrigated hay and silage - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.3 Irrigated hay and silage - mapping to IUCN GET - 74</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.4</v>
       </c>
       <c r="B76" t="s">
@@ -26241,13 +26241,13 @@
       </c>
       <c r="M76" s="155"/>
       <c r="N76" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.4 Irrigated oilseeds - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.4 Irrigated oilseeds - mapping to IUCN GET - 75</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.5</v>
       </c>
       <c r="B77" t="s">
@@ -26279,13 +26279,13 @@
       </c>
       <c r="M77" s="155"/>
       <c r="N77" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.5 Irrigated sugar - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.5 Irrigated sugar - mapping to IUCN GET - 76</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.6</v>
       </c>
       <c r="B78" t="s">
@@ -26317,13 +26317,13 @@
       </c>
       <c r="M78" s="155"/>
       <c r="N78" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.6 Irrigated cotton - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.6 Irrigated cotton - mapping to IUCN GET - 77</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.7</v>
       </c>
       <c r="B79" t="s">
@@ -26355,13 +26355,13 @@
       </c>
       <c r="M79" s="155"/>
       <c r="N79" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.7 Irrigated alkaloid poppies - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.7 Irrigated alkaloid poppies - mapping to IUCN GET - 78</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.8</v>
       </c>
       <c r="B80" t="s">
@@ -26393,13 +26393,13 @@
       </c>
       <c r="M80" s="155"/>
       <c r="N80" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.8 Irrigated pulses - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.8 Irrigated pulses - mapping to IUCN GET - 79</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.3.9</v>
       </c>
       <c r="B81" t="s">
@@ -26431,13 +26431,13 @@
       </c>
       <c r="M81" s="155"/>
       <c r="N81" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.3.9 Irrigated rice - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.3.9 Irrigated rice - mapping to IUCN GET - 80</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.0</v>
       </c>
       <c r="B82" t="s">
@@ -26468,13 +26468,13 @@
         <v>1042</v>
       </c>
       <c r="N82" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.0 Irrigated perennial horticulture - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.0 Irrigated perennial horticulture - mapping to IUCN GET - 81</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.1</v>
       </c>
       <c r="B83" t="s">
@@ -26506,13 +26506,13 @@
       </c>
       <c r="M83" s="155"/>
       <c r="N83" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.1 Irrigated tree fruits - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.1 Irrigated tree fruits - mapping to IUCN GET - 82</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.2</v>
       </c>
       <c r="B84" t="s">
@@ -26544,13 +26544,13 @@
       </c>
       <c r="M84" s="155"/>
       <c r="N84" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.2 Irrigated olives - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.2 Irrigated olives - mapping to IUCN GET - 83</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.3</v>
       </c>
       <c r="B85" t="s">
@@ -26582,13 +26582,13 @@
       </c>
       <c r="M85" s="155"/>
       <c r="N85" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.3 Irrigated tree nuts - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.3 Irrigated tree nuts - mapping to IUCN GET - 84</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.4</v>
       </c>
       <c r="B86" t="s">
@@ -26620,13 +26620,13 @@
       </c>
       <c r="M86" s="155"/>
       <c r="N86" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.4 Irrigated vine fruits - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.4 Irrigated vine fruits - mapping to IUCN GET - 85</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.5</v>
       </c>
       <c r="B87" t="s">
@@ -26658,13 +26658,13 @@
       </c>
       <c r="M87" s="155"/>
       <c r="N87" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.5 Irrigated shrub berries and fruits - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.5 Irrigated shrub berries and fruits - mapping to IUCN GET - 86</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.6</v>
       </c>
       <c r="B88" t="s">
@@ -26696,13 +26696,13 @@
       </c>
       <c r="M88" s="155"/>
       <c r="N88" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.6 Irrigated  perennial flowers and bulbs - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.6 Irrigated  perennial flowers and bulbs - mapping to IUCN GET - 87</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.7</v>
       </c>
       <c r="B89" t="s">
@@ -26734,13 +26734,13 @@
       </c>
       <c r="M89" s="155"/>
       <c r="N89" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.7 Irrigated perennial vegetables and herbs - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.7 Irrigated perennial vegetables and herbs - mapping to IUCN GET - 88</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.8</v>
       </c>
       <c r="B90" t="s">
@@ -26772,13 +26772,13 @@
       </c>
       <c r="M90" s="155"/>
       <c r="N90" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.8 Irrigated citrus - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.8 Irrigated citrus - mapping to IUCN GET - 89</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.4.9</v>
       </c>
       <c r="B91" t="s">
@@ -26810,13 +26810,13 @@
       </c>
       <c r="M91" s="155"/>
       <c r="N91" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.4.9 Irrigated grapes - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.4.9 Irrigated grapes - mapping to IUCN GET - 90</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.5.1</v>
       </c>
       <c r="B92" s="17" t="s">
@@ -26848,13 +26848,13 @@
       </c>
       <c r="M92" s="155"/>
       <c r="N92" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.5.1 Irrigated seasonal fruits - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.5.1 Irrigated seasonal fruits - mapping to IUCN GET - 91</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.5.2</v>
       </c>
       <c r="B93" t="s">
@@ -26886,13 +26886,13 @@
       </c>
       <c r="M93" s="155"/>
       <c r="N93" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.5.2 Irrigated seasonal flowers and bulbs - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.5.2 Irrigated seasonal flowers and bulbs - mapping to IUCN GET - 92</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.5.3</v>
       </c>
       <c r="B94" t="s">
@@ -26924,13 +26924,13 @@
       </c>
       <c r="M94" s="155"/>
       <c r="N94" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.5.3 Irrigated seasonal vegetables and herbs - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.5.3 Irrigated seasonal vegetables and herbs - mapping to IUCN GET - 93</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.5.4</v>
       </c>
       <c r="B95" t="s">
@@ -26962,13 +26962,13 @@
       </c>
       <c r="M95" s="155"/>
       <c r="N95" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.5.4 Irrigated turf farming - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.5.4 Irrigated turf farming - mapping to IUCN GET - 94</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.6.1</v>
       </c>
       <c r="B96" t="s">
@@ -27003,13 +27003,13 @@
       </c>
       <c r="M96" s="155"/>
       <c r="N96" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.6.1 Degraded irrigated land - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.6.1 Degraded irrigated land - mapping to IUCN GET - 95</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.6.2</v>
       </c>
       <c r="B97" t="s">
@@ -27044,13 +27044,13 @@
       </c>
       <c r="M97" s="155"/>
       <c r="N97" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.6.2 Abandoned irrigated land - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.6.2 Abandoned irrigated land - mapping to IUCN GET - 96</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.6.3</v>
       </c>
       <c r="B98" t="s">
@@ -27085,13 +27085,13 @@
       </c>
       <c r="M98" s="155"/>
       <c r="N98" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.6.3 Irrigated land under rehabilitation - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.6.3 Irrigated land under rehabilitation - mapping to IUCN GET - 97</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.6.4</v>
       </c>
       <c r="B99" t="s">
@@ -27126,13 +27126,13 @@
       </c>
       <c r="M99" s="155"/>
       <c r="N99" s="155" t="str">
-        <f t="shared" si="2"/>
-        <v>4.6.4 No defined use - irrigation - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.6.4 No defined use - irrigation - mapping to IUCN GET - 98</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:4.6.5</v>
       </c>
       <c r="B100" t="s">
@@ -27167,13 +27167,13 @@
       </c>
       <c r="M100" s="155"/>
       <c r="N100" s="155" t="str">
-        <f>CONCATENATE(B100, " - mapping to IUCN GET")</f>
-        <v>4.6.5 Abandoned irrigated perennial horticulture - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>4.6.5 Abandoned irrigated perennial horticulture - mapping to IUCN GET - 99</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.0.0</v>
       </c>
       <c r="B101" s="17" t="s">
@@ -27205,13 +27205,13 @@
       </c>
       <c r="M101" s="155"/>
       <c r="N101" s="155" t="str">
-        <f t="shared" ref="N101:N164" si="4">CONCATENATE(B101, " - mapping to IUCN GET")</f>
-        <v>5.0.0 Intensive uses - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.0.0 Intensive uses - mapping to IUCN GET - 100</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.1.0</v>
       </c>
       <c r="B102" t="s">
@@ -27242,13 +27242,13 @@
         <v>1042</v>
       </c>
       <c r="N102" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.1.0 Intensive horticulture - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.1.0 Intensive horticulture - mapping to IUCN GET - 101</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.1.1</v>
       </c>
       <c r="B103" t="s">
@@ -27280,13 +27280,13 @@
       </c>
       <c r="M103" s="155"/>
       <c r="N103" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.1.1 Production nurseries - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.1.1 Production nurseries - mapping to IUCN GET - 102</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.1.2</v>
       </c>
       <c r="B104" t="s">
@@ -27318,13 +27318,13 @@
       </c>
       <c r="M104" s="155"/>
       <c r="N104" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.1.2 Shadehouses - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.1.2 Shadehouses - mapping to IUCN GET - 103</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.1.3</v>
       </c>
       <c r="B105" t="s">
@@ -27356,13 +27356,13 @@
       </c>
       <c r="M105" s="155"/>
       <c r="N105" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.1.3 Glasshouses - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.1.3 Glasshouses - mapping to IUCN GET - 104</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.1.4</v>
       </c>
       <c r="B106" t="s">
@@ -27394,13 +27394,13 @@
       </c>
       <c r="M106" s="155"/>
       <c r="N106" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.1.4 Glasshouses (hydroponic) - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.1.4 Glasshouses (hydroponic) - mapping to IUCN GET - 105</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.1.5</v>
       </c>
       <c r="B107" t="s">
@@ -27432,13 +27432,13 @@
       </c>
       <c r="M107" s="155"/>
       <c r="N107" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.1.5 Abandoned intensive horticulture - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.1.5 Abandoned intensive horticulture - mapping to IUCN GET - 106</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.0</v>
       </c>
       <c r="B108" t="s">
@@ -27469,13 +27469,13 @@
         <v>1042</v>
       </c>
       <c r="N108" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.0 Intensive animal production - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.0 Intensive animal production - mapping to IUCN GET - 107</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.1</v>
       </c>
       <c r="B109" t="s">
@@ -27507,13 +27507,13 @@
       </c>
       <c r="M109" s="155"/>
       <c r="N109" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.1 Dairy sheds and yards - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.1 Dairy sheds and yards - mapping to IUCN GET - 108</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.2</v>
       </c>
       <c r="B110" t="s">
@@ -27545,13 +27545,13 @@
       </c>
       <c r="M110" s="155"/>
       <c r="N110" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.2 Feedlots - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.2 Feedlots - mapping to IUCN GET - 109</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.3</v>
       </c>
       <c r="B111" t="s">
@@ -27583,13 +27583,13 @@
       </c>
       <c r="M111" s="155"/>
       <c r="N111" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.3 Poultry farms - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.3 Poultry farms - mapping to IUCN GET - 110</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.4</v>
       </c>
       <c r="B112" t="s">
@@ -27621,13 +27621,13 @@
       </c>
       <c r="M112" s="155"/>
       <c r="N112" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.4 Piggeries - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.4 Piggeries - mapping to IUCN GET - 111</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.5</v>
       </c>
       <c r="B113" t="s">
@@ -27659,13 +27659,13 @@
       </c>
       <c r="M113" s="155"/>
       <c r="N113" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.5 Aquaculture - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.5 Aquaculture - mapping to IUCN GET - 112</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.6</v>
       </c>
       <c r="B114" t="s">
@@ -27697,13 +27697,13 @@
       </c>
       <c r="M114" s="155"/>
       <c r="N114" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.6 Horse studs - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.6 Horse studs - mapping to IUCN GET - 113</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.7</v>
       </c>
       <c r="B115" t="s">
@@ -27735,13 +27735,13 @@
       </c>
       <c r="M115" s="155"/>
       <c r="N115" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.7 Saleyards/stockyards - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.7 Saleyards/stockyards - mapping to IUCN GET - 114</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.2.8</v>
       </c>
       <c r="B116" t="s">
@@ -27773,13 +27773,13 @@
       </c>
       <c r="M116" s="155"/>
       <c r="N116" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.2.8 Abandoned intensive animal production - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.2.8 Abandoned intensive animal production - mapping to IUCN GET - 115</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.0</v>
       </c>
       <c r="B117" t="s">
@@ -27810,13 +27810,13 @@
         <v>1042</v>
       </c>
       <c r="N117" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.0 Manufacturing and industrial - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.0 Manufacturing and industrial - mapping to IUCN GET - 116</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.1</v>
       </c>
       <c r="B118" t="s">
@@ -27848,13 +27848,13 @@
       </c>
       <c r="M118" s="155"/>
       <c r="N118" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.1 General purpose factory - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.1 General purpose factory - mapping to IUCN GET - 117</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.2</v>
       </c>
       <c r="B119" t="s">
@@ -27886,13 +27886,13 @@
       </c>
       <c r="M119" s="155"/>
       <c r="N119" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.2 Food processing factory - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.2 Food processing factory - mapping to IUCN GET - 118</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.3</v>
       </c>
       <c r="B120" t="s">
@@ -27924,13 +27924,13 @@
       </c>
       <c r="M120" s="155"/>
       <c r="N120" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.3 Major industrial complex - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.3 Major industrial complex - mapping to IUCN GET - 119</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.4</v>
       </c>
       <c r="B121" t="s">
@@ -27962,13 +27962,13 @@
       </c>
       <c r="M121" s="155"/>
       <c r="N121" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.4 Bulk grain storage - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.4 Bulk grain storage - mapping to IUCN GET - 120</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.5</v>
       </c>
       <c r="B122" t="s">
@@ -28000,13 +28000,13 @@
       </c>
       <c r="M122" s="155"/>
       <c r="N122" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.5 Abattoirs - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.5 Abattoirs - mapping to IUCN GET - 121</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.6</v>
       </c>
       <c r="B123" t="s">
@@ -28038,13 +28038,13 @@
       </c>
       <c r="M123" s="155"/>
       <c r="N123" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.6 Oil refinery - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.6 Oil refinery - mapping to IUCN GET - 122</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.7</v>
       </c>
       <c r="B124" t="s">
@@ -28076,13 +28076,13 @@
       </c>
       <c r="M124" s="155"/>
       <c r="N124" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.7 Sawmill - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.7 Sawmill - mapping to IUCN GET - 123</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.3.8</v>
       </c>
       <c r="B125" t="s">
@@ -28114,13 +28114,13 @@
       </c>
       <c r="M125" s="155"/>
       <c r="N125" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.3.8 Abandoned manufacturing and industrial - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.3.8 Abandoned manufacturing and industrial - mapping to IUCN GET - 124</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.4.0</v>
       </c>
       <c r="B126" t="s">
@@ -28151,13 +28151,13 @@
         <v>1042</v>
       </c>
       <c r="N126" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.4.0 Residential and farm infrastructure - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.4.0 Residential and farm infrastructure - mapping to IUCN GET - 125</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.4.1</v>
       </c>
       <c r="B127" t="s">
@@ -28189,13 +28189,13 @@
       </c>
       <c r="M127" s="155"/>
       <c r="N127" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.4.1 Urban residential - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.4.1 Urban residential - mapping to IUCN GET - 126</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.4.2</v>
       </c>
       <c r="B128" t="s">
@@ -28227,13 +28227,13 @@
       </c>
       <c r="M128" s="155"/>
       <c r="N128" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.4.2 Rural residential with agriculture - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.4.2 Rural residential with agriculture - mapping to IUCN GET - 127</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.4.3</v>
       </c>
       <c r="B129" t="s">
@@ -28265,13 +28265,13 @@
       </c>
       <c r="M129" s="155"/>
       <c r="N129" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.4.3 Rural residential without agriculture - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.4.3 Rural residential without agriculture - mapping to IUCN GET - 128</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>alum:5.4.4</v>
       </c>
       <c r="B130" t="s">
@@ -28303,13 +28303,13 @@
       </c>
       <c r="M130" s="155"/>
       <c r="N130" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.4.4 Remote communities - mapping to IUCN GET</v>
+        <f t="shared" si="3"/>
+        <v>5.4.4 Remote communities - mapping to IUCN GET - 129</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" ref="A131:A189" si="5">_xlfn.CONCAT("alum:",LEFT(B131,FIND(" ",B131)-1))</f>
+        <f t="shared" ref="A131:A189" si="4">_xlfn.CONCAT("alum:",LEFT(B131,FIND(" ",B131)-1))</f>
         <v>alum:5.4.5</v>
       </c>
       <c r="B131" t="s">
@@ -28341,13 +28341,13 @@
       </c>
       <c r="M131" s="155"/>
       <c r="N131" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.4.5 Farm buildings/infrastructure - mapping to IUCN GET</v>
+        <f t="shared" ref="N131:N189" si="5">CONCATENATE(B131, " - mapping to IUCN GET - ", ROW(B131)-1)</f>
+        <v>5.4.5 Farm buildings/infrastructure - mapping to IUCN GET - 130</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.5.0</v>
       </c>
       <c r="B132" t="s">
@@ -28378,13 +28378,13 @@
         <v>1042</v>
       </c>
       <c r="N132" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.5.0 Services - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.5.0 Services - mapping to IUCN GET - 131</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.5.1</v>
       </c>
       <c r="B133" t="s">
@@ -28416,13 +28416,13 @@
       </c>
       <c r="M133" s="155"/>
       <c r="N133" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.5.1 Commercial services - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.5.1 Commercial services - mapping to IUCN GET - 132</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.5.2</v>
       </c>
       <c r="B134" t="s">
@@ -28454,13 +28454,13 @@
       </c>
       <c r="M134" s="155"/>
       <c r="N134" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.5.2 Public services - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.5.2 Public services - mapping to IUCN GET - 133</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.5.3</v>
       </c>
       <c r="B135" t="s">
@@ -28492,13 +28492,13 @@
       </c>
       <c r="M135" s="155"/>
       <c r="N135" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.5.3 Recreation and culture - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.5.3 Recreation and culture - mapping to IUCN GET - 134</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.5.4</v>
       </c>
       <c r="B136" t="s">
@@ -28530,13 +28530,13 @@
       </c>
       <c r="M136" s="155"/>
       <c r="N136" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.5.4 Defence facilities - urban - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.5.4 Defence facilities - urban - mapping to IUCN GET - 135</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.5.5</v>
       </c>
       <c r="B137" t="s">
@@ -28568,13 +28568,13 @@
       </c>
       <c r="M137" s="155"/>
       <c r="N137" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.5.5 Research facilities - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.5.5 Research facilities - mapping to IUCN GET - 136</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.0</v>
       </c>
       <c r="B138" t="s">
@@ -28605,13 +28605,13 @@
         <v>1042</v>
       </c>
       <c r="N138" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.0 Utilities - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.0 Utilities - mapping to IUCN GET - 137</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.1</v>
       </c>
       <c r="B139" t="s">
@@ -28643,13 +28643,13 @@
       </c>
       <c r="M139" s="155"/>
       <c r="N139" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.1 Fuel powered electricity generation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.1 Fuel powered electricity generation - mapping to IUCN GET - 138</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.2</v>
       </c>
       <c r="B140" t="s">
@@ -28681,13 +28681,13 @@
       </c>
       <c r="M140" s="155"/>
       <c r="N140" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.2 Hydro electricity generation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.2 Hydro electricity generation - mapping to IUCN GET - 139</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.3</v>
       </c>
       <c r="B141" t="s">
@@ -28719,13 +28719,13 @@
       </c>
       <c r="M141" s="155"/>
       <c r="N141" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.3 Wind electricity generation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.3 Wind electricity generation - mapping to IUCN GET - 140</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.4</v>
       </c>
       <c r="B142" t="s">
@@ -28757,13 +28757,13 @@
       </c>
       <c r="M142" s="155"/>
       <c r="N142" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.4 Solar electricity generation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.4 Solar electricity generation - mapping to IUCN GET - 141</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.5</v>
       </c>
       <c r="B143" t="s">
@@ -28795,13 +28795,13 @@
       </c>
       <c r="M143" s="155"/>
       <c r="N143" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.5 Electricity substations and transmission - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.5 Electricity substations and transmission - mapping to IUCN GET - 142</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.6</v>
       </c>
       <c r="B144" t="s">
@@ -28833,13 +28833,13 @@
       </c>
       <c r="M144" s="155"/>
       <c r="N144" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.6 Gas treatment, storage and transmission - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.6 Gas treatment, storage and transmission - mapping to IUCN GET - 143</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.6.7</v>
       </c>
       <c r="B145" t="s">
@@ -28871,13 +28871,13 @@
       </c>
       <c r="M145" s="155"/>
       <c r="N145" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.6.7 Water extraction and transmission - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.6.7 Water extraction and transmission - mapping to IUCN GET - 144</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.7.0</v>
       </c>
       <c r="B146" t="s">
@@ -28908,13 +28908,13 @@
         <v>1042</v>
       </c>
       <c r="N146" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.7.0 Transport and communication - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.7.0 Transport and communication - mapping to IUCN GET - 145</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.7.1</v>
       </c>
       <c r="B147" t="s">
@@ -28946,13 +28946,13 @@
       </c>
       <c r="M147" s="155"/>
       <c r="N147" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.7.1 Airports/aerodromes - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.7.1 Airports/aerodromes - mapping to IUCN GET - 146</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.7.2</v>
       </c>
       <c r="B148" t="s">
@@ -28984,13 +28984,13 @@
       </c>
       <c r="M148" s="155"/>
       <c r="N148" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.7.2 Roads - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.7.2 Roads - mapping to IUCN GET - 147</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.7.3</v>
       </c>
       <c r="B149" t="s">
@@ -29022,13 +29022,13 @@
       </c>
       <c r="M149" s="155"/>
       <c r="N149" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.7.3 Railways - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.7.3 Railways - mapping to IUCN GET - 148</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.7.4</v>
       </c>
       <c r="B150" t="s">
@@ -29060,13 +29060,13 @@
       </c>
       <c r="M150" s="155"/>
       <c r="N150" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.7.4 Ports and water transport - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.7.4 Ports and water transport - mapping to IUCN GET - 149</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.7.5</v>
       </c>
       <c r="B151" t="s">
@@ -29098,13 +29098,13 @@
       </c>
       <c r="M151" s="155"/>
       <c r="N151" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.7.5 Navigation and communication - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.7.5 Navigation and communication - mapping to IUCN GET - 150</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.8.0</v>
       </c>
       <c r="B152" t="s">
@@ -29135,13 +29135,13 @@
         <v>1042</v>
       </c>
       <c r="N152" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.8.0 Mining - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.8.0 Mining - mapping to IUCN GET - 151</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.8.1</v>
       </c>
       <c r="B153" t="s">
@@ -29173,13 +29173,13 @@
       </c>
       <c r="M153" s="155"/>
       <c r="N153" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.8.1 Mines - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.8.1 Mines - mapping to IUCN GET - 152</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.8.2</v>
       </c>
       <c r="B154" t="s">
@@ -29211,13 +29211,13 @@
       </c>
       <c r="M154" s="155"/>
       <c r="N154" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.8.2 Quarries - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.8.2 Quarries - mapping to IUCN GET - 153</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.8.3</v>
       </c>
       <c r="B155" t="s">
@@ -29249,13 +29249,13 @@
       </c>
       <c r="M155" s="155"/>
       <c r="N155" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.8.3 Tailings - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.8.3 Tailings - mapping to IUCN GET - 154</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.8.4</v>
       </c>
       <c r="B156" t="s">
@@ -29287,13 +29287,13 @@
       </c>
       <c r="M156" s="155"/>
       <c r="N156" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.8.4 Extractive industry not in use - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.8.4 Extractive industry not in use - mapping to IUCN GET - 155</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.9.0</v>
       </c>
       <c r="B157" t="s">
@@ -29324,13 +29324,13 @@
         <v>1042</v>
       </c>
       <c r="N157" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.9.0 Waste treatment and disposal - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.9.0 Waste treatment and disposal - mapping to IUCN GET - 156</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.9.1</v>
       </c>
       <c r="B158" t="s">
@@ -29362,13 +29362,13 @@
       </c>
       <c r="M158" s="155"/>
       <c r="N158" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.9.1 Effluent pond - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.9.1 Effluent pond - mapping to IUCN GET - 157</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.9.2</v>
       </c>
       <c r="B159" t="s">
@@ -29400,13 +29400,13 @@
       </c>
       <c r="M159" s="155"/>
       <c r="N159" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.9.2 Landfill - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.9.2 Landfill - mapping to IUCN GET - 158</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.9.3</v>
       </c>
       <c r="B160" t="s">
@@ -29438,13 +29438,13 @@
       </c>
       <c r="M160" s="155"/>
       <c r="N160" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.9.3 Solid garbage - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.9.3 Solid garbage - mapping to IUCN GET - 159</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.9.4</v>
       </c>
       <c r="B161" t="s">
@@ -29476,13 +29476,13 @@
       </c>
       <c r="M161" s="155"/>
       <c r="N161" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.9.4 Incinerators - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.9.4 Incinerators - mapping to IUCN GET - 160</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:5.9.5</v>
       </c>
       <c r="B162" t="s">
@@ -29514,13 +29514,13 @@
       </c>
       <c r="M162" s="155"/>
       <c r="N162" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>5.9.5 Sewage/sewerage - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>5.9.5 Sewage/sewerage - mapping to IUCN GET - 161</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.0.0</v>
       </c>
       <c r="B163" t="s">
@@ -29551,13 +29551,13 @@
         <v>1042</v>
       </c>
       <c r="N163" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>6.0.0 Water - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.0.0 Water - mapping to IUCN GET - 162</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.1.0</v>
       </c>
       <c r="B164" t="s">
@@ -29588,13 +29588,13 @@
         <v>1042</v>
       </c>
       <c r="N164" s="155" t="str">
-        <f t="shared" si="4"/>
-        <v>6.1.0 Lake - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.1.0 Lake - mapping to IUCN GET - 163</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.1.1</v>
       </c>
       <c r="B165" t="s">
@@ -29629,13 +29629,13 @@
       </c>
       <c r="M165" s="155"/>
       <c r="N165" s="155" t="str">
-        <f t="shared" ref="N165:N189" si="6">CONCATENATE(B165, " - mapping to IUCN GET")</f>
-        <v>6.1.1 Lake - conservation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.1.1 Lake - conservation - mapping to IUCN GET - 164</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.1.2</v>
       </c>
       <c r="B166" t="s">
@@ -29670,13 +29670,13 @@
       </c>
       <c r="M166" s="155"/>
       <c r="N166" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.1.2 Lake - production - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.1.2 Lake - production - mapping to IUCN GET - 165</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.1.3</v>
       </c>
       <c r="B167" t="s">
@@ -29711,13 +29711,13 @@
       </c>
       <c r="M167" s="155"/>
       <c r="N167" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.1.3 Lake - intensive use - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.1.3 Lake - intensive use - mapping to IUCN GET - 166</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.1.4</v>
       </c>
       <c r="B168" t="s">
@@ -29749,13 +29749,13 @@
       </c>
       <c r="M168" s="155"/>
       <c r="N168" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.1.4 Lake - saline - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.1.4 Lake - saline - mapping to IUCN GET - 167</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.2.0</v>
       </c>
       <c r="B169" t="s">
@@ -29786,13 +29786,13 @@
         <v>1042</v>
       </c>
       <c r="N169" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.2.0 Reservoir/dam - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.2.0 Reservoir/dam - mapping to IUCN GET - 168</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.2.1</v>
       </c>
       <c r="B170" t="s">
@@ -29824,13 +29824,13 @@
       </c>
       <c r="M170" s="155"/>
       <c r="N170" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.2.1 Reservoir - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.2.1 Reservoir - mapping to IUCN GET - 169</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.2.2</v>
       </c>
       <c r="B171" t="s">
@@ -29862,13 +29862,13 @@
       </c>
       <c r="M171" s="155"/>
       <c r="N171" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.2.2 Water storage - intensive use/farm dams - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.2.2 Water storage - intensive use/farm dams - mapping to IUCN GET - 170</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.2.3</v>
       </c>
       <c r="B172" t="s">
@@ -29900,13 +29900,13 @@
       </c>
       <c r="M172" s="155"/>
       <c r="N172" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.2.3 Evaporation basin - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.2.3 Evaporation basin - mapping to IUCN GET - 171</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.3.0</v>
       </c>
       <c r="B173" t="s">
@@ -29937,13 +29937,13 @@
         <v>1042</v>
       </c>
       <c r="N173" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.3.0 River - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.3.0 River - mapping to IUCN GET - 172</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.3.1</v>
       </c>
       <c r="B174" t="s">
@@ -29978,13 +29978,13 @@
       </c>
       <c r="M174" s="155"/>
       <c r="N174" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.3.1 River - conservation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.3.1 River - conservation - mapping to IUCN GET - 173</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.3.2</v>
       </c>
       <c r="B175" t="s">
@@ -30019,13 +30019,13 @@
       </c>
       <c r="M175" s="155"/>
       <c r="N175" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.3.2 River - production - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.3.2 River - production - mapping to IUCN GET - 174</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.3.3</v>
       </c>
       <c r="B176" t="s">
@@ -30060,13 +30060,13 @@
       </c>
       <c r="M176" s="155"/>
       <c r="N176" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.3.3 River - intensive use - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.3.3 River - intensive use - mapping to IUCN GET - 175</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.4.0</v>
       </c>
       <c r="B177" t="s">
@@ -30097,13 +30097,13 @@
         <v>1042</v>
       </c>
       <c r="N177" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.4.0 Channel/aqueduct - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.4.0 Channel/aqueduct - mapping to IUCN GET - 176</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.4.1</v>
       </c>
       <c r="B178" t="s">
@@ -30135,13 +30135,13 @@
       </c>
       <c r="M178" s="155"/>
       <c r="N178" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.4.1 Supply channel/aqueduct - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.4.1 Supply channel/aqueduct - mapping to IUCN GET - 177</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.4.2</v>
       </c>
       <c r="B179" t="s">
@@ -30173,13 +30173,13 @@
       </c>
       <c r="M179" s="155"/>
       <c r="N179" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.4.2 Drainage channel/aqueduct - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.4.2 Drainage channel/aqueduct - mapping to IUCN GET - 178</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.4.3</v>
       </c>
       <c r="B180" t="s">
@@ -30211,13 +30211,13 @@
       </c>
       <c r="M180" s="155"/>
       <c r="N180" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.4.3 Stormwater - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.4.3 Stormwater - mapping to IUCN GET - 179</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.5.0</v>
       </c>
       <c r="B181" t="s">
@@ -30248,13 +30248,13 @@
         <v>1042</v>
       </c>
       <c r="N181" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.5.0 Marsh/wetland - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.5.0 Marsh/wetland - mapping to IUCN GET - 180</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.5.1</v>
       </c>
       <c r="B182" t="s">
@@ -30289,13 +30289,13 @@
       </c>
       <c r="M182" s="155"/>
       <c r="N182" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.5.1 Marsh/wetland - conservation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.5.1 Marsh/wetland - conservation - mapping to IUCN GET - 181</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.5.2</v>
       </c>
       <c r="B183" t="s">
@@ -30330,13 +30330,13 @@
       </c>
       <c r="M183" s="155"/>
       <c r="N183" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.5.2 Marsh/wetland - production - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.5.2 Marsh/wetland - production - mapping to IUCN GET - 182</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.5.3</v>
       </c>
       <c r="B184" t="s">
@@ -30371,13 +30371,13 @@
       </c>
       <c r="M184" s="155"/>
       <c r="N184" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.5.3 Marsh/wetland - intensive use - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.5.3 Marsh/wetland - intensive use - mapping to IUCN GET - 183</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.5.4</v>
       </c>
       <c r="B185" t="s">
@@ -30409,13 +30409,13 @@
       </c>
       <c r="M185" s="155"/>
       <c r="N185" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.5.4 Marsh/wetland - saline - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.5.4 Marsh/wetland - saline - mapping to IUCN GET - 184</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.6.0</v>
       </c>
       <c r="B186" t="s">
@@ -30446,13 +30446,13 @@
         <v>1042</v>
       </c>
       <c r="N186" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.6.0 Estuary/coastal waters - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.6.0 Estuary/coastal waters - mapping to IUCN GET - 185</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.6.1</v>
       </c>
       <c r="B187" t="s">
@@ -30487,13 +30487,13 @@
       </c>
       <c r="M187" s="155"/>
       <c r="N187" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.6.1 Estuary/coastal waters - conservation - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.6.1 Estuary/coastal waters - conservation - mapping to IUCN GET - 186</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.6.2</v>
       </c>
       <c r="B188" t="s">
@@ -30528,13 +30528,13 @@
       </c>
       <c r="M188" s="155"/>
       <c r="N188" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.6.2 Estuary/coastal waters - production - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.6.2 Estuary/coastal waters - production - mapping to IUCN GET - 187</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>alum:6.6.3</v>
       </c>
       <c r="B189" t="s">
@@ -30569,8 +30569,8 @@
       </c>
       <c r="M189" s="155"/>
       <c r="N189" s="155" t="str">
-        <f t="shared" si="6"/>
-        <v>6.6.3 Estuary/coastal waters - intensive use - mapping to IUCN GET</v>
+        <f t="shared" si="5"/>
+        <v>6.6.3 Estuary/coastal waters - intensive use - mapping to IUCN GET - 188</v>
       </c>
     </row>
   </sheetData>
@@ -30627,15 +30627,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30767,6 +30758,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>
@@ -30778,14 +30778,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30801,4 +30793,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE728B-2C81-44C7-A9F4-650A7F52181D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D49348-DC96-4662-A79B-08A9172DE033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="9660" windowWidth="34230" windowHeight="10815" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="header" sheetId="15" r:id="rId8"/>
     <sheet name="SSSOM" sheetId="14" r:id="rId9"/>
     <sheet name="CHANGE_LOG" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">commodities!$A$2:$F$268</definedName>
@@ -33,20 +34,7 @@
     <definedName name="Z_AB65B437_1B49_4040_B070_7D10DCCE9FB5_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$75</definedName>
     <definedName name="Z_E13C975D_9911_46DF_BB53_0E45A3160659_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$77</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -75,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="1304">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -8440,6 +8428,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CA0BFD-6560-4468-8D95-F8BDB1DE431A}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
@@ -23271,9 +23325,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30618,12 +30672,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30759,20 +30813,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30796,9 +30848,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D49348-DC96-4662-A79B-08A9172DE033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C02F5-ED80-4721-A2C2-C39CD86D342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="1305">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -4175,12 +4175,15 @@
   <si>
     <t>T7.1 Annual croplands</t>
   </si>
+  <si>
+    <t>F3.2 Constructed lacustrine wetlands</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4531,6 +4534,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -4864,7 +4873,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5209,6 +5218,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -23326,8 +23338,8 @@
   <dimension ref="A1:N189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24:E185"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29882,9 +29894,9 @@
         <v>6.2.1 Reservoir - mapping to IUCN GET - 169</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE("alum:",LEFT(B171,FIND(" ",B171)-1))</f>
         <v>alum:6.2.2</v>
       </c>
       <c r="B171" t="s">
@@ -29896,8 +29908,8 @@
       <c r="D171" t="s">
         <v>1299</v>
       </c>
-      <c r="E171" t="s">
-        <v>1017</v>
+      <c r="E171" s="175" t="s">
+        <v>1304</v>
       </c>
       <c r="F171" s="154" t="s">
         <v>1033</v>
@@ -30672,15 +30684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30812,6 +30815,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -30822,14 +30834,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30847,6 +30851,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
   <ds:schemaRefs>

--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C02F5-ED80-4721-A2C2-C39CD86D342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7832F-00E1-4682-A845-398CCB5FFBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5443" uniqueCount="1304">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -4165,9 +4165,6 @@
   </si>
   <si>
     <t>get:groups/F3.5</t>
-  </si>
-  <si>
-    <t>get:groups/MFT1.3</t>
   </si>
   <si>
     <t>5.0.0 Intensive uses</t>
@@ -5189,6 +5186,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5218,9 +5218,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5654,25 +5651,25 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="166" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8442,10 +8439,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CA0BFD-6560-4468-8D95-F8BDB1DE431A}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8475,32 +8472,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1023</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1303</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A8" s="17" t="s">
         <v>1016</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A9">
-    <sortCondition ref="A1:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A8">
+    <sortCondition ref="A1:A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10968,25 +10960,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>1005</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="O1" s="167" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="O1" s="168" t="s">
         <v>1005</v>
       </c>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
@@ -11005,10 +10997,10 @@
       <c r="P2" s="126" t="s">
         <v>1007</v>
       </c>
-      <c r="Q2" s="167" t="s">
+      <c r="Q2" s="168" t="s">
         <v>951</v>
       </c>
-      <c r="R2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="Y2" s="131" t="s">
         <v>960</v>
       </c>
@@ -11029,10 +11021,10 @@
       <c r="AO2" s="143" t="s">
         <v>960</v>
       </c>
-      <c r="AP2" s="169" t="s">
+      <c r="AP2" s="170" t="s">
         <v>1007</v>
       </c>
-      <c r="AQ2" s="169"/>
+      <c r="AQ2" s="170"/>
       <c r="AR2" s="144"/>
       <c r="AS2" s="144"/>
       <c r="AT2" s="145" t="s">
@@ -11099,10 +11091,10 @@
       <c r="AS3" s="141" t="s">
         <v>1009</v>
       </c>
-      <c r="AT3" s="168" t="s">
+      <c r="AT3" s="169" t="s">
         <v>946</v>
       </c>
-      <c r="AU3" s="168"/>
+      <c r="AU3" s="169"/>
       <c r="AV3" s="141" t="s">
         <v>947</v>
       </c>
@@ -14292,13 +14284,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170"/>
-      <c r="B1" s="171"/>
-      <c r="C1" s="172" t="s">
+      <c r="A1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="173" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="175"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
@@ -19356,13 +19348,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170"/>
-      <c r="B1" s="171"/>
-      <c r="C1" s="172" t="s">
+      <c r="A1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="173" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="173"/>
-      <c r="E1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="175"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
@@ -23337,9 +23329,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A171" sqref="A171"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24720,7 +24712,7 @@
         <v>1295</v>
       </c>
       <c r="E35" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F35" s="154" t="s">
         <v>1033</v>
@@ -24757,7 +24749,7 @@
         <v>1295</v>
       </c>
       <c r="E36" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F36" s="154" t="s">
         <v>1033</v>
@@ -24795,7 +24787,7 @@
         <v>1295</v>
       </c>
       <c r="E37" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F37" s="154" t="s">
         <v>1033</v>
@@ -24833,7 +24825,7 @@
         <v>1295</v>
       </c>
       <c r="E38" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F38" s="154" t="s">
         <v>1033</v>
@@ -24871,7 +24863,7 @@
         <v>1295</v>
       </c>
       <c r="E39" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F39" s="154" t="s">
         <v>1033</v>
@@ -24909,7 +24901,7 @@
         <v>1295</v>
       </c>
       <c r="E40" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F40" s="154" t="s">
         <v>1033</v>
@@ -24947,7 +24939,7 @@
         <v>1295</v>
       </c>
       <c r="E41" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F41" s="154" t="s">
         <v>1033</v>
@@ -24985,7 +24977,7 @@
         <v>1295</v>
       </c>
       <c r="E42" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F42" s="154" t="s">
         <v>1033</v>
@@ -25023,7 +25015,7 @@
         <v>1295</v>
       </c>
       <c r="E43" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F43" s="154" t="s">
         <v>1033</v>
@@ -25061,7 +25053,7 @@
         <v>1295</v>
       </c>
       <c r="E44" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F44" s="154" t="s">
         <v>1033</v>
@@ -25098,7 +25090,7 @@
         <v>1295</v>
       </c>
       <c r="E45" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F45" s="154" t="s">
         <v>1033</v>
@@ -25136,7 +25128,7 @@
         <v>1295</v>
       </c>
       <c r="E46" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F46" s="154" t="s">
         <v>1033</v>
@@ -25174,7 +25166,7 @@
         <v>1295</v>
       </c>
       <c r="E47" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F47" s="154" t="s">
         <v>1033</v>
@@ -25212,7 +25204,7 @@
         <v>1295</v>
       </c>
       <c r="E48" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F48" s="154" t="s">
         <v>1033</v>
@@ -25250,7 +25242,7 @@
         <v>1295</v>
       </c>
       <c r="E49" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F49" s="154" t="s">
         <v>1033</v>
@@ -25288,7 +25280,7 @@
         <v>1295</v>
       </c>
       <c r="E50" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F50" s="154" t="s">
         <v>1033</v>
@@ -25326,7 +25318,7 @@
         <v>1295</v>
       </c>
       <c r="E51" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F51" s="154" t="s">
         <v>1033</v>
@@ -25364,7 +25356,7 @@
         <v>1295</v>
       </c>
       <c r="E52" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F52" s="154" t="s">
         <v>1033</v>
@@ -25402,7 +25394,7 @@
         <v>1295</v>
       </c>
       <c r="E53" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F53" s="154" t="s">
         <v>1033</v>
@@ -25440,7 +25432,7 @@
         <v>1295</v>
       </c>
       <c r="E54" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F54" s="154" t="s">
         <v>1033</v>
@@ -25478,7 +25470,7 @@
         <v>1295</v>
       </c>
       <c r="E55" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F55" s="154" t="s">
         <v>1033</v>
@@ -25516,7 +25508,7 @@
         <v>1295</v>
       </c>
       <c r="E56" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F56" s="154" t="s">
         <v>1033</v>
@@ -26137,7 +26129,7 @@
         <v>1295</v>
       </c>
       <c r="E72" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F72" s="154" t="s">
         <v>1033</v>
@@ -26174,7 +26166,7 @@
         <v>1295</v>
       </c>
       <c r="E73" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F73" s="154" t="s">
         <v>1033</v>
@@ -26212,7 +26204,7 @@
         <v>1295</v>
       </c>
       <c r="E74" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F74" s="154" t="s">
         <v>1033</v>
@@ -26250,7 +26242,7 @@
         <v>1295</v>
       </c>
       <c r="E75" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F75" s="154" t="s">
         <v>1033</v>
@@ -26288,7 +26280,7 @@
         <v>1295</v>
       </c>
       <c r="E76" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F76" s="154" t="s">
         <v>1033</v>
@@ -26326,7 +26318,7 @@
         <v>1295</v>
       </c>
       <c r="E77" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F77" s="154" t="s">
         <v>1033</v>
@@ -26364,7 +26356,7 @@
         <v>1295</v>
       </c>
       <c r="E78" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F78" s="154" t="s">
         <v>1033</v>
@@ -26402,7 +26394,7 @@
         <v>1295</v>
       </c>
       <c r="E79" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F79" s="154" t="s">
         <v>1033</v>
@@ -26440,7 +26432,7 @@
         <v>1295</v>
       </c>
       <c r="E80" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F80" s="154" t="s">
         <v>1033</v>
@@ -26516,7 +26508,7 @@
         <v>1295</v>
       </c>
       <c r="E82" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F82" s="154" t="s">
         <v>1033</v>
@@ -26553,7 +26545,7 @@
         <v>1295</v>
       </c>
       <c r="E83" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F83" s="154" t="s">
         <v>1033</v>
@@ -26591,7 +26583,7 @@
         <v>1295</v>
       </c>
       <c r="E84" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F84" s="154" t="s">
         <v>1033</v>
@@ -26629,7 +26621,7 @@
         <v>1295</v>
       </c>
       <c r="E85" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F85" s="154" t="s">
         <v>1033</v>
@@ -26667,7 +26659,7 @@
         <v>1295</v>
       </c>
       <c r="E86" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F86" s="154" t="s">
         <v>1033</v>
@@ -26705,7 +26697,7 @@
         <v>1295</v>
       </c>
       <c r="E87" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F87" s="154" t="s">
         <v>1033</v>
@@ -26743,7 +26735,7 @@
         <v>1295</v>
       </c>
       <c r="E88" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F88" s="154" t="s">
         <v>1033</v>
@@ -26781,7 +26773,7 @@
         <v>1295</v>
       </c>
       <c r="E89" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F89" s="154" t="s">
         <v>1033</v>
@@ -26819,7 +26811,7 @@
         <v>1295</v>
       </c>
       <c r="E90" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F90" s="154" t="s">
         <v>1033</v>
@@ -26857,7 +26849,7 @@
         <v>1295</v>
       </c>
       <c r="E91" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F91" s="154" t="s">
         <v>1033</v>
@@ -26895,7 +26887,7 @@
         <v>1295</v>
       </c>
       <c r="E92" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F92" s="154" t="s">
         <v>1033</v>
@@ -26933,7 +26925,7 @@
         <v>1295</v>
       </c>
       <c r="E93" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F93" s="154" t="s">
         <v>1033</v>
@@ -26971,7 +26963,7 @@
         <v>1295</v>
       </c>
       <c r="E94" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F94" s="154" t="s">
         <v>1033</v>
@@ -27009,7 +27001,7 @@
         <v>1295</v>
       </c>
       <c r="E95" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F95" s="154" t="s">
         <v>1033</v>
@@ -27243,7 +27235,7 @@
         <v>alum:5.0.0</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C101" s="164" t="s">
         <v>1030</v>
@@ -29908,8 +29900,8 @@
       <c r="D171" t="s">
         <v>1299</v>
       </c>
-      <c r="E171" s="175" t="s">
-        <v>1304</v>
+      <c r="E171" s="165" t="s">
+        <v>1303</v>
       </c>
       <c r="F171" s="154" t="s">
         <v>1033</v>
@@ -30449,14 +30441,14 @@
       <c r="B185" t="s">
         <v>1222</v>
       </c>
-      <c r="C185" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D185" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1023</v>
+      <c r="C185" s="104" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D185" s="104" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E185" s="104" t="s">
+        <v>1046</v>
       </c>
       <c r="F185" s="154" t="s">
         <v>1033</v>
@@ -30684,6 +30676,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30815,25 +30825,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30849,22 +30859,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
+++ b/crosswalks/ALUM-IUCNGET/ALUM-IUCNGET.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A7832F-00E1-4682-A845-398CCB5FFBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FA19D5F-AE37-4CF7-A308-A4B071456F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALUM V8" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,20 @@
     <definedName name="Z_AB65B437_1B49_4040_B070_7D10DCCE9FB5_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$75</definedName>
     <definedName name="Z_E13C975D_9911_46DF_BB53_0E45A3160659_.wvu.PrintArea" localSheetId="0" hidden="1">'ALUM V8'!$A$1:$S$77</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5443" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5446" uniqueCount="1306">
   <si>
     <t>Perennial horticulture</t>
   </si>
@@ -4174,6 +4187,12 @@
   </si>
   <si>
     <t>F3.2 Constructed lacustrine wetlands</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Updated the cross-walk from the teams site version with Suzanne and David's comments</t>
   </si>
 </sst>
 </file>
@@ -4870,7 +4889,7 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5186,9 +5205,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5219,6 +5235,12 @@
     <xf numFmtId="0" fontId="31" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
@@ -5230,7 +5252,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{6E4AE3D0-7BAA-41EF-A73F-6403105D203D}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5651,25 +5687,25 @@
     </row>
     <row r="2" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="165" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8335,10 +8371,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655D2789-1FB8-4FE0-B6BE-798F6232EAF5}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8432,6 +8468,20 @@
         <v>1066</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="152">
+        <v>45513</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>1066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8441,7 +8491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CA0BFD-6560-4468-8D95-F8BDB1DE431A}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -10960,25 +11010,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="166" t="s">
         <v>1005</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="O1" s="168" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="O1" s="167" t="s">
         <v>1005</v>
       </c>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
       <c r="Y1" s="55"/>
       <c r="Z1" s="55"/>
       <c r="AA1" s="55"/>
@@ -10997,10 +11047,10 @@
       <c r="P2" s="126" t="s">
         <v>1007</v>
       </c>
-      <c r="Q2" s="168" t="s">
+      <c r="Q2" s="167" t="s">
         <v>951</v>
       </c>
-      <c r="R2" s="168"/>
+      <c r="R2" s="167"/>
       <c r="Y2" s="131" t="s">
         <v>960</v>
       </c>
@@ -11021,10 +11071,10 @@
       <c r="AO2" s="143" t="s">
         <v>960</v>
       </c>
-      <c r="AP2" s="170" t="s">
+      <c r="AP2" s="169" t="s">
         <v>1007</v>
       </c>
-      <c r="AQ2" s="170"/>
+      <c r="AQ2" s="169"/>
       <c r="AR2" s="144"/>
       <c r="AS2" s="144"/>
       <c r="AT2" s="145" t="s">
@@ -11091,10 +11141,10 @@
       <c r="AS3" s="141" t="s">
         <v>1009</v>
       </c>
-      <c r="AT3" s="169" t="s">
+      <c r="AT3" s="168" t="s">
         <v>946</v>
       </c>
-      <c r="AU3" s="169"/>
+      <c r="AU3" s="168"/>
       <c r="AV3" s="141" t="s">
         <v>947</v>
       </c>
@@ -14284,13 +14334,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173" t="s">
+      <c r="A1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="172" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="175"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
@@ -19348,13 +19398,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="173" t="s">
+      <c r="A1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="172" t="s">
         <v>659</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="175"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
@@ -23329,9 +23379,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24133,13 +24183,13 @@
       <c r="B20" t="s">
         <v>1228</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="176" t="s">
         <v>1030</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="176" t="s">
         <v>1045</v>
       </c>
-      <c r="E20" s="157" t="s">
+      <c r="E20" s="176" t="s">
         <v>1046</v>
       </c>
       <c r="F20" s="154" t="s">
@@ -25053,7 +25103,7 @@
         <v>1295</v>
       </c>
       <c r="E44" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F44" s="154" t="s">
         <v>1033</v>
@@ -25090,7 +25140,7 @@
         <v>1295</v>
       </c>
       <c r="E45" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F45" s="154" t="s">
         <v>1033</v>
@@ -25128,7 +25178,7 @@
         <v>1295</v>
       </c>
       <c r="E46" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F46" s="154" t="s">
         <v>1033</v>
@@ -25166,7 +25216,7 @@
         <v>1295</v>
       </c>
       <c r="E47" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F47" s="154" t="s">
         <v>1033</v>
@@ -25204,7 +25254,7 @@
         <v>1295</v>
       </c>
       <c r="E48" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F48" s="154" t="s">
         <v>1033</v>
@@ -25242,7 +25292,7 @@
         <v>1295</v>
       </c>
       <c r="E49" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F49" s="154" t="s">
         <v>1033</v>
@@ -25356,7 +25406,7 @@
         <v>1295</v>
       </c>
       <c r="E52" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F52" s="154" t="s">
         <v>1033</v>
@@ -25394,7 +25444,7 @@
         <v>1295</v>
       </c>
       <c r="E53" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F53" s="154" t="s">
         <v>1033</v>
@@ -26508,7 +26558,7 @@
         <v>1295</v>
       </c>
       <c r="E82" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F82" s="154" t="s">
         <v>1033</v>
@@ -26545,7 +26595,7 @@
         <v>1295</v>
       </c>
       <c r="E83" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F83" s="154" t="s">
         <v>1033</v>
@@ -26583,7 +26633,7 @@
         <v>1295</v>
       </c>
       <c r="E84" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F84" s="154" t="s">
         <v>1033</v>
@@ -26621,7 +26671,7 @@
         <v>1295</v>
       </c>
       <c r="E85" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F85" s="154" t="s">
         <v>1033</v>
@@ -26659,7 +26709,7 @@
         <v>1295</v>
       </c>
       <c r="E86" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F86" s="154" t="s">
         <v>1033</v>
@@ -26697,7 +26747,7 @@
         <v>1295</v>
       </c>
       <c r="E87" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F87" s="154" t="s">
         <v>1033</v>
@@ -26811,7 +26861,7 @@
         <v>1295</v>
       </c>
       <c r="E90" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F90" s="154" t="s">
         <v>1033</v>
@@ -26849,7 +26899,7 @@
         <v>1295</v>
       </c>
       <c r="E91" t="s">
-        <v>1302</v>
+        <v>1015</v>
       </c>
       <c r="F91" s="154" t="s">
         <v>1033</v>
@@ -29886,7 +29936,7 @@
         <v>6.2.1 Reservoir - mapping to IUCN GET - 169</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f>CONCATENATE("alum:",LEFT(B171,FIND(" ",B171)-1))</f>
         <v>alum:6.2.2</v>
@@ -29900,7 +29950,7 @@
       <c r="D171" t="s">
         <v>1299</v>
       </c>
-      <c r="E171" s="165" t="s">
+      <c r="E171" s="175" t="s">
         <v>1303</v>
       </c>
       <c r="F171" s="154" t="s">
@@ -29939,7 +29989,7 @@
         <v>1299</v>
       </c>
       <c r="E172" t="s">
-        <v>1017</v>
+        <v>1303</v>
       </c>
       <c r="F172" s="154" t="s">
         <v>1033</v>
@@ -30636,38 +30686,48 @@
     <sortCondition ref="B2:B189"/>
   </sortState>
   <conditionalFormatting sqref="C2:E20">
-    <cfRule type="containsBlanks" dxfId="6" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:E53">
-    <cfRule type="containsBlanks" dxfId="5" priority="11">
+  <conditionalFormatting sqref="C49:D53">
+    <cfRule type="containsBlanks" dxfId="7" priority="13">
       <formula>LEN(TRIM(C49))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84:E88">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
+  <conditionalFormatting sqref="C84:D88">
+    <cfRule type="containsBlanks" dxfId="6" priority="12">
       <formula>LEN(TRIM(C84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159:E161">
-    <cfRule type="containsBlanks" dxfId="3" priority="9">
+    <cfRule type="containsBlanks" dxfId="5" priority="11">
       <formula>LEN(TRIM(C159))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D142:E145">
-    <cfRule type="containsBlanks" dxfId="2" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(D142))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149:E151">
-    <cfRule type="containsBlanks" dxfId="1" priority="7">
+    <cfRule type="containsBlanks" dxfId="3" priority="9">
       <formula>LEN(TRIM(D149))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D155:E156">
-    <cfRule type="containsBlanks" dxfId="0" priority="6">
+    <cfRule type="containsBlanks" dxfId="2" priority="8">
       <formula>LEN(TRIM(D155))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49 E52:E53">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(E49))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84:E87">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E84))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30676,24 +30736,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DC29B5BE6945C34F8C7CB81794666E31" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f7151ef105987b2d3758ef53560e213">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48c5b5cd9b8d25ff6dd15848836f4270" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30825,25 +30867,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97EDE51C-194A-4D85-AD03-32004056A6AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30859,4 +30901,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BEB67B5-0F24-4813-B2D2-A92E60BF00F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64B25D3-7183-4323-848D-DB8D888013A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>